--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>ERICK DARIEL BAEZ URIBE</t>
+  </si>
+  <si>
+    <t>Se inscribio en dos grupos -5</t>
   </si>
 </sst>
 </file>
@@ -1239,11 +1242,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:I106"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1395,12 +1398,15 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="6"/>
+      <c r="H4">
+        <v>17</v>
+      </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1505,12 +1511,15 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6"/>
+      <c r="H9">
+        <v>17</v>
+      </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1593,12 +1602,15 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="6"/>
+      <c r="H13">
+        <v>16</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1681,12 +1693,15 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="6"/>
+      <c r="H17">
+        <v>16</v>
+      </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1747,12 +1762,15 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="6"/>
+      <c r="H20">
+        <v>17</v>
+      </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1791,12 +1809,15 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="6"/>
+      <c r="H22">
+        <v>17</v>
+      </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1857,12 +1878,15 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="6"/>
+      <c r="H25">
+        <v>16</v>
+      </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1923,12 +1947,15 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="6"/>
+      <c r="H28">
+        <v>17</v>
+      </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1967,12 +1994,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="6"/>
+      <c r="H30">
+        <v>17</v>
+      </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2033,12 +2063,15 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="6"/>
+      <c r="H33">
+        <v>18</v>
+      </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2055,12 +2088,15 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="6"/>
+      <c r="H34">
+        <v>17</v>
+      </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2077,12 +2113,15 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="6"/>
+      <c r="H35">
+        <v>15</v>
+      </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2143,12 +2182,15 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="6"/>
+      <c r="H38">
+        <v>15</v>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2165,12 +2207,15 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="6"/>
+      <c r="H39">
+        <v>17</v>
+      </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2209,12 +2254,15 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="6"/>
+      <c r="H41">
+        <v>18</v>
+      </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2253,12 +2301,15 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="6"/>
+      <c r="H43">
+        <v>18</v>
+      </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2275,12 +2326,15 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="6"/>
+      <c r="H44">
+        <v>18</v>
+      </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,12 +2483,15 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="6"/>
+      <c r="H51">
+        <v>18</v>
+      </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2451,12 +2508,15 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="6"/>
+      <c r="H52">
+        <v>17</v>
+      </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2561,12 +2621,15 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="6"/>
+      <c r="H57">
+        <v>18</v>
+      </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2649,12 +2712,15 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="6"/>
+      <c r="H61">
+        <v>17</v>
+      </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2671,12 +2737,15 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="6"/>
+      <c r="H62">
+        <v>16</v>
+      </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2723,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>63</v>
       </c>
@@ -2737,15 +2806,18 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="6"/>
+      <c r="H65">
+        <v>16</v>
+      </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -2759,15 +2831,18 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="6"/>
+      <c r="H66">
+        <v>16</v>
+      </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -2781,15 +2856,24 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="6"/>
+      <c r="H67">
+        <v>16</v>
+      </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="1">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="N67:N106" si="1">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <v>11</v>
+      </c>
+      <c r="O67">
+        <v>-5</v>
+      </c>
+      <c r="P67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -2803,15 +2887,18 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="6"/>
+      <c r="H68">
+        <v>16</v>
+      </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="N68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>67</v>
       </c>
@@ -2833,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -2847,15 +2934,18 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="6"/>
+      <c r="H70">
+        <v>17</v>
+      </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="N70">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>69</v>
       </c>
@@ -2869,15 +2959,18 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="6"/>
+      <c r="H71">
+        <v>17</v>
+      </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="N71">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -2891,15 +2984,18 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="6"/>
+      <c r="H72">
+        <v>17</v>
+      </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="N72">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -2921,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>72</v>
       </c>
@@ -2935,15 +3031,18 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="6"/>
+      <c r="H74">
+        <v>16</v>
+      </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -2957,15 +3056,18 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="6"/>
+      <c r="H75">
+        <v>16</v>
+      </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -2979,15 +3081,18 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="6"/>
+      <c r="H76">
+        <v>16</v>
+      </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="N76">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>75</v>
       </c>
@@ -3001,15 +3106,18 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="6"/>
+      <c r="H77">
+        <v>17</v>
+      </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="N77">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>76</v>
       </c>
@@ -3031,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>77</v>
       </c>
@@ -3053,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>78</v>
       </c>
@@ -3089,12 +3197,15 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="6"/>
+      <c r="H81">
+        <v>17</v>
+      </c>
       <c r="K81">
         <v>1</v>
       </c>
       <c r="N81">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3111,12 +3222,15 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="6"/>
+      <c r="H82">
+        <v>16</v>
+      </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="N82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3133,12 +3247,15 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="6"/>
+      <c r="H83">
+        <v>16</v>
+      </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="N83">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3265,12 +3382,15 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="6"/>
+      <c r="H89">
+        <v>17</v>
+      </c>
       <c r="K89">
         <v>1</v>
       </c>
       <c r="N89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3309,12 +3429,15 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="6"/>
+      <c r="H91">
+        <v>17</v>
+      </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="N91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3331,12 +3454,15 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="6"/>
+      <c r="H92">
+        <v>14</v>
+      </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="N92">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3353,12 +3479,15 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="6"/>
+      <c r="H93">
+        <v>14</v>
+      </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="N93">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3375,12 +3504,15 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="6"/>
+      <c r="H94">
+        <v>13</v>
+      </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="N94">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3397,12 +3529,15 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="6"/>
+      <c r="H95">
+        <v>14</v>
+      </c>
       <c r="K95">
         <v>1</v>
       </c>
       <c r="N95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3441,12 +3576,15 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="6"/>
+      <c r="H97">
+        <v>13</v>
+      </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="N97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3463,12 +3601,15 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="6"/>
+      <c r="H98">
+        <v>16</v>
+      </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="N98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3507,12 +3648,15 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="6"/>
+      <c r="H100">
+        <v>18</v>
+      </c>
       <c r="K100">
         <v>1</v>
       </c>
       <c r="N100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3551,12 +3695,15 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="6"/>
+      <c r="H102">
+        <v>17</v>
+      </c>
       <c r="K102">
         <v>1</v>
       </c>
       <c r="N102">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3595,12 +3742,15 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="6"/>
+      <c r="H104">
+        <v>14</v>
+      </c>
       <c r="K104">
         <v>1</v>
       </c>
       <c r="N104">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,12 +3767,15 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="6"/>
+      <c r="H105">
+        <v>17</v>
+      </c>
       <c r="K105">
         <v>1</v>
       </c>
       <c r="N105">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3645,1918 +3798,6 @@
       <c r="N106">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="6" t="str">
-        <f t="shared" ref="D67:D130" si="2">IF((N107)&gt;=50,10,"")</f>
-        <v/>
-      </c>
-      <c r="E107" s="2" t="str">
-        <f t="shared" ref="E67:E130" si="3">IF((N107)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="F107" s="2" t="str">
-        <f t="shared" ref="F67:F130" si="4">IF((N107)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="G107" s="6" t="str">
-        <f t="shared" ref="G67:G130" si="5">IF((N107)&gt;=51,IF((N107-50)&gt;50,50,IF((N107-50)&lt;0,0,(N107-50))), "" )</f>
-        <v/>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E108" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F108" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G108" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-      <c r="N108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E109" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F109" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G109" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="N109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E110" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F110" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G110" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="N110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E111" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F111" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G111" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="N111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E112" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F112" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G112" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E113" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F113" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G113" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E114" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F114" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G114" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E115" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F115" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G115" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E116" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F116" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G116" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="N116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E117" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F117" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G117" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E118" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F118" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G118" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="N118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E119" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F119" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G119" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="N119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E120" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F120" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G120" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-      <c r="N120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D121" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E121" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F121" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G121" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D122" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E122" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F122" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G122" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D123" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E123" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F123" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G123" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D124" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E124" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F124" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G124" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D125" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E125" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F125" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G125" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D126" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E126" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F126" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G126" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D127" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E127" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F127" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G127" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D128" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E128" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F128" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G128" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D129" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F129" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G129" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D130" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E130" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F130" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G130" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D131" s="6" t="str">
-        <f t="shared" ref="D131:D179" si="6">IF((N131)&gt;=50,10,"")</f>
-        <v/>
-      </c>
-      <c r="E131" s="2" t="str">
-        <f t="shared" ref="E131:E190" si="7">IF((N131)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="F131" s="2" t="str">
-        <f t="shared" ref="F131:F190" si="8">IF((N131)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="G131" s="6" t="str">
-        <f t="shared" ref="G131:G190" si="9">IF((N131)&gt;=51,IF((N131-50)&gt;50,50,IF((N131-50)&lt;0,0,(N131-50))), "" )</f>
-        <v/>
-      </c>
-      <c r="N131">
-        <f t="shared" ref="N131:N185" si="10">IF((H131+J131+L131+M131+O131)&lt;70,IF((H131+J131+L131+M131+O131)&gt;64,70,(H131+J131+L131+M131+O131)),(H131+J131+L131+M131+O131))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D132" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E132" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F132" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G132" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N132">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D133" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E133" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F133" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G133" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N133">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D134" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E134" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F134" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G134" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N134">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D135" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E135" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F135" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G135" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N135">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D136" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E136" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F136" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G136" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N136">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D137" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E137" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F137" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G137" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N137">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D138" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E138" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F138" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G138" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N138">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D139" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E139" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F139" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G139" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N139">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D140" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E140" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F140" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G140" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N140">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D141" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E141" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F141" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G141" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N141">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D142" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E142" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F142" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G142" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N142">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D143" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E143" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F143" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G143" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N143">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D144" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E144" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F144" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G144" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N144">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D145" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E145" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F145" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G145" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N145">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D146" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E146" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F146" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G146" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N146">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D147" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E147" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F147" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G147" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N147">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D148" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E148" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F148" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G148" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N148">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D149" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E149" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F149" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G149" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N149">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D150" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E150" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F150" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G150" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N150">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D151" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E151" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F151" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G151" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N151">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D152" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E152" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F152" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G152" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N152">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D153" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E153" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F153" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G153" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N153">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D154" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E154" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F154" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G154" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N154">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D155" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E155" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F155" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G155" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N155">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D156" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E156" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F156" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G156" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N156">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D157" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E157" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F157" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G157" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N157">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D158" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E158" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F158" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G158" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N158">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D159" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E159" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F159" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G159" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N159">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D160" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E160" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F160" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G160" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N160">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D161" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E161" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F161" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G161" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N161">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D162" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E162" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F162" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G162" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N162">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D163" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E163" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F163" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G163" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N163">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D164" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E164" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F164" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G164" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N164">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D165" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E165" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F165" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G165" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N165">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D166" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E166" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F166" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G166" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N166">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D167" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E167" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F167" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G167" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N167">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D168" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E168" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F168" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G168" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N168">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D169" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E169" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F169" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G169" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N169">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D170" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E170" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F170" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G170" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N170">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D171" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E171" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F171" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G171" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N171">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D172" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E172" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F172" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G172" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N172">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D173" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E173" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F173" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G173" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N173">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D174" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E174" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F174" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G174" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N174">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D175" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E175" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F175" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G175" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N175">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D176" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E176" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F176" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G176" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N176">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D177" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E177" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F177" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G177" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N177">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D178" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E178" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F178" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G178" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N178">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D179" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E179" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F179" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G179" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N179">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D180" s="6" t="str">
-        <f t="shared" ref="D180:D189" si="11">IF((N180)&gt;=70,10,"")</f>
-        <v/>
-      </c>
-      <c r="E180" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F180" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G180" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N180">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D181" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E181" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F181" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G181" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N181">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D182" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E182" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F182" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G182" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N182">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D183" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E183" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F183" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G183" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N183">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D184" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E184" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F184" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G184" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N184">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D185" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E185" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F185" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G185" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N185">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D186" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E186" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F186" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G186" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D187" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E187" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F187" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G187" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D188" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E188" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F188" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G188" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D189" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E189" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F189" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G189" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D190" s="6" t="str">
-        <f t="shared" ref="D190" si="12">IF((N190)&gt;=70,10,"")</f>
-        <v/>
-      </c>
-      <c r="E190" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F190" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G190" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -704,7 +704,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -725,6 +725,25 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -811,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -840,6 +859,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,8 +1277,8 @@
   <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1842,24 +1874,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+    <row r="24" spans="1:14" s="16" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="6"/>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="N24">
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="K24" s="16">
+        <v>1</v>
+      </c>
+      <c r="N24" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1277,8 +1277,8 @@
   <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1433,12 +1433,15 @@
       <c r="H4">
         <v>17</v>
       </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1455,12 +1458,18 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="6"/>
+      <c r="J5">
+        <v>12</v>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1612,12 +1621,18 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6"/>
+      <c r="J12">
+        <v>8</v>
+      </c>
       <c r="K12">
         <v>1</v>
       </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1637,12 +1652,18 @@
       <c r="H13">
         <v>16</v>
       </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1681,12 +1702,15 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6"/>
+      <c r="J15">
+        <v>10</v>
+      </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1728,12 +1752,18 @@
       <c r="H17">
         <v>16</v>
       </c>
+      <c r="J17">
+        <v>18</v>
+      </c>
       <c r="K17">
         <v>1</v>
       </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1819,12 +1849,15 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="6"/>
+      <c r="J21">
+        <v>16</v>
+      </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1844,12 +1877,18 @@
       <c r="H22">
         <v>17</v>
       </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
       <c r="K22">
         <v>1</v>
       </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1913,12 +1952,15 @@
       <c r="H25">
         <v>16</v>
       </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1957,12 +1999,15 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="6"/>
+      <c r="J27">
+        <v>14</v>
+      </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1982,12 +2027,15 @@
       <c r="H28">
         <v>17</v>
       </c>
+      <c r="J28">
+        <v>16</v>
+      </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2073,12 +2121,15 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="6"/>
+      <c r="J32">
+        <v>14</v>
+      </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2098,12 +2149,18 @@
       <c r="H33">
         <v>18</v>
       </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
       <c r="K33">
         <v>1</v>
       </c>
+      <c r="L33">
+        <v>20</v>
+      </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2123,12 +2180,18 @@
       <c r="H34">
         <v>17</v>
       </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
       <c r="K34">
         <v>1</v>
       </c>
+      <c r="L34">
+        <v>40</v>
+      </c>
       <c r="N34">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2217,12 +2280,18 @@
       <c r="H38">
         <v>15</v>
       </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
+      <c r="L38">
+        <v>40</v>
+      </c>
       <c r="N38">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2289,12 +2358,18 @@
       <c r="H41">
         <v>18</v>
       </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
       <c r="K41">
         <v>1</v>
       </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
       <c r="N41">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2311,12 +2386,18 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="6"/>
+      <c r="J42">
+        <v>16</v>
+      </c>
       <c r="K42">
         <v>1</v>
       </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
       <c r="N42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2361,12 +2442,15 @@
       <c r="H44">
         <v>18</v>
       </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2427,12 +2511,15 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="6"/>
+      <c r="J47">
+        <v>4</v>
+      </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2449,12 +2536,15 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="6"/>
+      <c r="J48">
+        <v>6</v>
+      </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2471,12 +2561,18 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="6"/>
+      <c r="J49">
+        <v>18</v>
+      </c>
       <c r="K49">
         <v>1</v>
       </c>
+      <c r="L49">
+        <v>30</v>
+      </c>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2493,12 +2589,18 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="6"/>
+      <c r="J50">
+        <v>4</v>
+      </c>
       <c r="K50">
         <v>1</v>
       </c>
+      <c r="L50">
+        <v>20</v>
+      </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2518,12 +2620,15 @@
       <c r="H51">
         <v>18</v>
       </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2543,12 +2648,18 @@
       <c r="H52">
         <v>17</v>
       </c>
+      <c r="J52">
+        <v>18</v>
+      </c>
       <c r="K52">
         <v>1</v>
       </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2565,12 +2676,15 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="6"/>
+      <c r="J53">
+        <v>12</v>
+      </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2587,12 +2701,15 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="6"/>
+      <c r="J54">
+        <v>14</v>
+      </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2609,12 +2726,15 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="6"/>
+      <c r="J55">
+        <v>16</v>
+      </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2631,12 +2751,15 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="6"/>
+      <c r="J56">
+        <v>12</v>
+      </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2656,12 +2779,15 @@
       <c r="H57">
         <v>18</v>
       </c>
+      <c r="J57">
+        <v>14</v>
+      </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2678,12 +2804,15 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="6"/>
+      <c r="J58">
+        <v>18</v>
+      </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2700,12 +2829,15 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="6"/>
+      <c r="J59">
+        <v>16</v>
+      </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2722,12 +2854,15 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="6"/>
+      <c r="J60">
+        <v>18</v>
+      </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2747,12 +2882,15 @@
       <c r="H61">
         <v>17</v>
       </c>
+      <c r="J61">
+        <v>16</v>
+      </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2772,12 +2910,15 @@
       <c r="H62">
         <v>16</v>
       </c>
+      <c r="J62">
+        <v>16</v>
+      </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2794,12 +2935,15 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="6"/>
+      <c r="J63">
+        <v>12</v>
+      </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2866,12 +3010,18 @@
       <c r="H66">
         <v>16</v>
       </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
       <c r="K66">
         <v>1</v>
       </c>
+      <c r="L66">
+        <v>20</v>
+      </c>
       <c r="N66">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2922,12 +3072,15 @@
       <c r="H68">
         <v>16</v>
       </c>
+      <c r="J68">
+        <v>18</v>
+      </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="N68">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2944,12 +3097,15 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="6"/>
+      <c r="J69">
+        <v>6</v>
+      </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="N69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2969,12 +3125,15 @@
       <c r="H70">
         <v>17</v>
       </c>
+      <c r="J70">
+        <v>18</v>
+      </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="N70">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2994,12 +3153,18 @@
       <c r="H71">
         <v>17</v>
       </c>
+      <c r="J71">
+        <v>8</v>
+      </c>
       <c r="K71">
         <v>1</v>
+      </c>
+      <c r="L71">
+        <v>20</v>
       </c>
       <c r="N71">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3041,12 +3206,15 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="6"/>
+      <c r="J73">
+        <v>4</v>
+      </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="N73">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3066,12 +3234,15 @@
       <c r="H74">
         <v>16</v>
       </c>
+      <c r="J74">
+        <v>14</v>
+      </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3091,12 +3262,18 @@
       <c r="H75">
         <v>16</v>
       </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
       <c r="K75">
         <v>1</v>
+      </c>
+      <c r="L75">
+        <v>20</v>
       </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3116,12 +3293,15 @@
       <c r="H76">
         <v>16</v>
       </c>
+      <c r="J76">
+        <v>18</v>
+      </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="N76">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3141,12 +3321,15 @@
       <c r="H77">
         <v>17</v>
       </c>
+      <c r="J77">
+        <v>8</v>
+      </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="N77">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3163,12 +3346,15 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="6"/>
+      <c r="J78">
+        <v>10</v>
+      </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="N78">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3207,12 +3393,15 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="6"/>
+      <c r="J80">
+        <v>14</v>
+      </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="N80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3257,12 +3446,15 @@
       <c r="H82">
         <v>16</v>
       </c>
+      <c r="J82">
+        <v>12</v>
+      </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="N82">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3282,12 +3474,15 @@
       <c r="H83">
         <v>16</v>
       </c>
+      <c r="J83">
+        <v>10</v>
+      </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="N83">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3326,12 +3521,18 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="6"/>
+      <c r="J85">
+        <v>8</v>
+      </c>
       <c r="K85">
         <v>1</v>
+      </c>
+      <c r="L85">
+        <v>20</v>
       </c>
       <c r="N85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3348,12 +3549,15 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="6"/>
+      <c r="J86">
+        <v>16</v>
+      </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="N86">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3370,12 +3574,15 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="6"/>
+      <c r="J87">
+        <v>16</v>
+      </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="N87">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3417,12 +3624,18 @@
       <c r="H89">
         <v>17</v>
       </c>
+      <c r="J89">
+        <v>8</v>
+      </c>
       <c r="K89">
         <v>1</v>
+      </c>
+      <c r="L89">
+        <v>30</v>
       </c>
       <c r="N89">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3439,12 +3652,15 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="6"/>
+      <c r="J90">
+        <v>18</v>
+      </c>
       <c r="K90">
         <v>1</v>
       </c>
       <c r="N90">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3489,12 +3705,15 @@
       <c r="H92">
         <v>14</v>
       </c>
+      <c r="J92">
+        <v>8</v>
+      </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="N92">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3514,12 +3733,15 @@
       <c r="H93">
         <v>14</v>
       </c>
+      <c r="J93">
+        <v>6</v>
+      </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="N93">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3539,12 +3761,15 @@
       <c r="H94">
         <v>13</v>
       </c>
+      <c r="J94">
+        <v>4</v>
+      </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="N94">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3564,12 +3789,15 @@
       <c r="H95">
         <v>14</v>
       </c>
+      <c r="J95">
+        <v>14</v>
+      </c>
       <c r="K95">
         <v>1</v>
       </c>
       <c r="N95">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3586,12 +3814,18 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="6"/>
+      <c r="J96">
+        <v>10</v>
+      </c>
       <c r="K96">
         <v>1</v>
+      </c>
+      <c r="L96">
+        <v>40</v>
       </c>
       <c r="N96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3636,12 +3870,15 @@
       <c r="H98">
         <v>16</v>
       </c>
+      <c r="J98">
+        <v>8</v>
+      </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="N98">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3705,12 +3942,15 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="6"/>
+      <c r="J101">
+        <v>12</v>
+      </c>
       <c r="K101">
         <v>1</v>
       </c>
       <c r="N101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3730,12 +3970,15 @@
       <c r="H102">
         <v>17</v>
       </c>
+      <c r="J102">
+        <v>14</v>
+      </c>
       <c r="K102">
         <v>1</v>
       </c>
       <c r="N102">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3752,12 +3995,15 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="6"/>
+      <c r="J103">
+        <v>10</v>
+      </c>
       <c r="K103">
         <v>1</v>
       </c>
       <c r="N103">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3777,12 +4023,15 @@
       <c r="H104">
         <v>14</v>
       </c>
+      <c r="J104">
+        <v>16</v>
+      </c>
       <c r="K104">
         <v>1</v>
       </c>
       <c r="N104">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3824,12 +4073,15 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="6"/>
+      <c r="J106">
+        <v>10</v>
+      </c>
       <c r="K106">
         <v>1</v>
       </c>
       <c r="N106">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1277,8 +1277,8 @@
   <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1439,9 +1439,12 @@
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>38</v>
+      </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1511,9 +1514,12 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1602,9 +1608,12 @@
       <c r="K11">
         <v>1</v>
       </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1659,11 +1668,11 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1708,9 +1717,12 @@
       <c r="K15">
         <v>1</v>
       </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1830,9 +1842,12 @@
       <c r="K20">
         <v>1</v>
       </c>
+      <c r="L20">
+        <v>35</v>
+      </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1958,9 +1973,12 @@
       <c r="K25">
         <v>1</v>
       </c>
+      <c r="L25">
+        <v>39</v>
+      </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2005,9 +2023,12 @@
       <c r="K27">
         <v>1</v>
       </c>
+      <c r="L27">
+        <v>39</v>
+      </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2033,9 +2054,12 @@
       <c r="K28">
         <v>1</v>
       </c>
+      <c r="L28">
+        <v>39</v>
+      </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2055,9 +2079,12 @@
       <c r="K29">
         <v>1</v>
       </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2080,9 +2107,12 @@
       <c r="K30">
         <v>1</v>
       </c>
+      <c r="L30">
+        <v>40</v>
+      </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2127,9 +2157,12 @@
       <c r="K32">
         <v>1</v>
       </c>
+      <c r="L32">
+        <v>40</v>
+      </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2214,9 +2247,12 @@
       <c r="K35">
         <v>1</v>
       </c>
+      <c r="L35">
+        <v>38</v>
+      </c>
       <c r="N35">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2258,9 +2294,12 @@
       <c r="K37">
         <v>1</v>
       </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2336,9 +2375,12 @@
       <c r="K40">
         <v>1</v>
       </c>
+      <c r="L40">
+        <v>35</v>
+      </c>
       <c r="N40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2420,9 +2462,12 @@
       <c r="K43">
         <v>1</v>
       </c>
+      <c r="L43">
+        <v>38</v>
+      </c>
       <c r="N43">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2448,9 +2493,12 @@
       <c r="K44">
         <v>1</v>
       </c>
+      <c r="L44">
+        <v>27</v>
+      </c>
       <c r="N44">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2470,9 +2518,12 @@
       <c r="K45">
         <v>1</v>
       </c>
+      <c r="L45">
+        <v>38</v>
+      </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2517,9 +2568,12 @@
       <c r="K47">
         <v>1</v>
       </c>
+      <c r="L47">
+        <v>39</v>
+      </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2542,9 +2596,12 @@
       <c r="K48">
         <v>1</v>
       </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2626,9 +2683,12 @@
       <c r="K51">
         <v>1</v>
       </c>
+      <c r="L51">
+        <v>39</v>
+      </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2707,9 +2767,12 @@
       <c r="K54">
         <v>1</v>
       </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2732,9 +2795,12 @@
       <c r="K55">
         <v>1</v>
       </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2757,9 +2823,12 @@
       <c r="K56">
         <v>1</v>
       </c>
+      <c r="L56">
+        <v>38</v>
+      </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2785,9 +2854,12 @@
       <c r="K57">
         <v>1</v>
       </c>
+      <c r="L57">
+        <v>39</v>
+      </c>
       <c r="N57">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2810,9 +2882,12 @@
       <c r="K58">
         <v>1</v>
       </c>
+      <c r="L58">
+        <v>36</v>
+      </c>
       <c r="N58">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2835,9 +2910,12 @@
       <c r="K59">
         <v>1</v>
       </c>
+      <c r="L59">
+        <v>30</v>
+      </c>
       <c r="N59">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2860,9 +2938,12 @@
       <c r="K60">
         <v>1</v>
       </c>
+      <c r="L60">
+        <v>38</v>
+      </c>
       <c r="N60">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2888,9 +2969,12 @@
       <c r="K61">
         <v>1</v>
       </c>
+      <c r="L61">
+        <v>30</v>
+      </c>
       <c r="N61">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2916,9 +3000,12 @@
       <c r="K62">
         <v>1</v>
       </c>
+      <c r="L62">
+        <v>39</v>
+      </c>
       <c r="N62">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2941,9 +3028,12 @@
       <c r="K63">
         <v>1</v>
       </c>
+      <c r="L63">
+        <v>30</v>
+      </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2988,9 +3078,12 @@
       <c r="K65">
         <v>1</v>
       </c>
+      <c r="L65">
+        <v>30</v>
+      </c>
       <c r="N65">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3044,9 +3137,12 @@
       <c r="K67">
         <v>1</v>
       </c>
+      <c r="L67">
+        <v>35</v>
+      </c>
       <c r="N67">
         <f t="shared" ref="N67:N106" si="1">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="O67">
         <v>-5</v>
@@ -3078,9 +3174,12 @@
       <c r="K68">
         <v>1</v>
       </c>
+      <c r="L68">
+        <v>39</v>
+      </c>
       <c r="N68">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3103,9 +3202,12 @@
       <c r="K69">
         <v>1</v>
       </c>
+      <c r="L69">
+        <v>35</v>
+      </c>
       <c r="N69">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3131,9 +3233,12 @@
       <c r="K70">
         <v>1</v>
       </c>
+      <c r="L70">
+        <v>35</v>
+      </c>
       <c r="N70">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3187,9 +3292,12 @@
       <c r="K72">
         <v>1</v>
       </c>
+      <c r="L72">
+        <v>37</v>
+      </c>
       <c r="N72">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3212,9 +3320,12 @@
       <c r="K73">
         <v>1</v>
       </c>
+      <c r="L73">
+        <v>38</v>
+      </c>
       <c r="N73">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3240,9 +3351,12 @@
       <c r="K74">
         <v>1</v>
       </c>
+      <c r="L74">
+        <v>35</v>
+      </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3327,9 +3441,12 @@
       <c r="K77">
         <v>1</v>
       </c>
+      <c r="L77">
+        <v>35</v>
+      </c>
       <c r="N77">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3399,9 +3516,12 @@
       <c r="K80">
         <v>1</v>
       </c>
+      <c r="L80">
+        <v>38</v>
+      </c>
       <c r="N80">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3452,9 +3572,12 @@
       <c r="K82">
         <v>1</v>
       </c>
+      <c r="L82">
+        <v>33</v>
+      </c>
       <c r="N82">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3480,9 +3603,12 @@
       <c r="K83">
         <v>1</v>
       </c>
+      <c r="L83">
+        <v>36</v>
+      </c>
       <c r="N83">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3502,9 +3628,12 @@
       <c r="K84">
         <v>1</v>
       </c>
+      <c r="L84">
+        <v>29</v>
+      </c>
       <c r="N84">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3555,9 +3684,12 @@
       <c r="K86">
         <v>1</v>
       </c>
+      <c r="L86">
+        <v>36</v>
+      </c>
       <c r="N86">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3580,9 +3712,12 @@
       <c r="K87">
         <v>1</v>
       </c>
+      <c r="L87">
+        <v>38</v>
+      </c>
       <c r="N87">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3658,9 +3793,12 @@
       <c r="K90">
         <v>1</v>
       </c>
+      <c r="L90">
+        <v>34</v>
+      </c>
       <c r="N90">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3711,9 +3849,12 @@
       <c r="K92">
         <v>1</v>
       </c>
+      <c r="L92">
+        <v>39</v>
+      </c>
       <c r="N92">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,9 +3880,12 @@
       <c r="K93">
         <v>1</v>
       </c>
+      <c r="L93">
+        <v>20</v>
+      </c>
       <c r="N93">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3767,9 +3911,12 @@
       <c r="K94">
         <v>1</v>
       </c>
+      <c r="L94">
+        <v>38</v>
+      </c>
       <c r="N94">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3795,9 +3942,12 @@
       <c r="K95">
         <v>1</v>
       </c>
+      <c r="L95">
+        <v>39</v>
+      </c>
       <c r="N95">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3848,9 +3998,12 @@
       <c r="K97">
         <v>1</v>
       </c>
+      <c r="L97">
+        <v>35</v>
+      </c>
       <c r="N97">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3876,9 +4029,12 @@
       <c r="K98">
         <v>1</v>
       </c>
+      <c r="L98">
+        <v>39</v>
+      </c>
       <c r="N98">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3948,9 +4104,12 @@
       <c r="K101">
         <v>1</v>
       </c>
+      <c r="L101">
+        <v>20</v>
+      </c>
       <c r="N101">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3976,9 +4135,12 @@
       <c r="K102">
         <v>1</v>
       </c>
+      <c r="L102">
+        <v>35</v>
+      </c>
       <c r="N102">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4001,9 +4163,12 @@
       <c r="K103">
         <v>1</v>
       </c>
+      <c r="L103">
+        <v>29</v>
+      </c>
       <c r="N103">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4029,9 +4194,12 @@
       <c r="K104">
         <v>1</v>
       </c>
+      <c r="L104">
+        <v>20</v>
+      </c>
       <c r="N104">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4054,9 +4222,12 @@
       <c r="K105">
         <v>1</v>
       </c>
+      <c r="L105">
+        <v>35</v>
+      </c>
       <c r="N105">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4079,9 +4250,12 @@
       <c r="K106">
         <v>1</v>
       </c>
+      <c r="L106">
+        <v>34</v>
+      </c>
       <c r="N106">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -704,7 +704,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -730,13 +730,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -830,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -865,13 +858,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1277,8 +1264,8 @@
   <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1404,16 +1391,31 @@
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="6" t="str">
+        <f t="shared" ref="D3:D66" si="0">IF((N3)&gt;=50,10,"")</f>
+        <v/>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E66" si="1">IF((N3)&gt;=50,20,"")</f>
+        <v/>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F66" si="2">IF((N3)&gt;=50,20,"")</f>
+        <v/>
+      </c>
+      <c r="G3" s="6" t="str">
+        <f t="shared" ref="G3:G66" si="3">IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="0">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
-        <v>0</v>
+        <f t="shared" ref="N3:N66" si="4">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1426,15 +1428,27 @@
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H4">
         <v>17</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1443,8 +1457,8 @@
         <v>38</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1457,10 +1471,25 @@
       <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
       <c r="J5">
         <v>12</v>
       </c>
@@ -1471,8 +1500,8 @@
         <v>40</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1485,15 +1514,27 @@
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1507,10 +1548,25 @@
       <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
       <c r="K7">
         <v>1</v>
       </c>
@@ -1518,8 +1574,8 @@
         <v>30</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1532,16 +1588,31 @@
       <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1554,10 +1625,22 @@
       <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H9">
         <v>17</v>
       </c>
@@ -1565,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>
@@ -1579,15 +1662,27 @@
       <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1601,10 +1696,28 @@
       <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
       <c r="K11">
         <v>1</v>
       </c>
@@ -1612,8 +1725,8 @@
         <v>20</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1626,10 +1739,25 @@
       <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
       <c r="J12">
         <v>8</v>
       </c>
@@ -1640,8 +1768,8 @@
         <v>30</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1654,10 +1782,22 @@
       <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="H13">
         <v>16</v>
       </c>
@@ -1671,7 +1811,7 @@
         <v>38</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
     </row>
@@ -1685,16 +1825,31 @@
       <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1707,10 +1862,25 @@
       <c r="C15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
       <c r="J15">
         <v>10</v>
       </c>
@@ -1721,8 +1891,8 @@
         <v>30</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1735,16 +1905,31 @@
       <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1757,10 +1942,22 @@
       <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="6"/>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="H17">
         <v>16</v>
       </c>
@@ -1774,7 +1971,7 @@
         <v>25</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
@@ -1788,15 +1985,27 @@
       <c r="C18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G18" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1810,15 +2019,27 @@
       <c r="C19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="6"/>
+      <c r="D19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1832,13 +2053,28 @@
       <c r="C20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="H20">
         <v>17</v>
       </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
       <c r="K20">
         <v>1</v>
       </c>
@@ -1846,8 +2082,8 @@
         <v>35</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1860,10 +2096,25 @@
       <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
       <c r="J21">
         <v>16</v>
       </c>
@@ -1871,8 +2122,8 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1885,10 +2136,22 @@
       <c r="C22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="6"/>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H22">
         <v>17</v>
       </c>
@@ -1902,7 +2165,7 @@
         <v>40</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1916,19 +2179,34 @@
       <c r="C23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="6"/>
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="H23">
+        <v>120</v>
+      </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="16" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="14" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -1938,16 +2216,31 @@
       <c r="C24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="K24" s="16">
-        <v>1</v>
-      </c>
-      <c r="N24" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H24" s="14">
+        <v>16</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1</v>
+      </c>
+      <c r="N24" s="14">
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1960,10 +2253,22 @@
       <c r="C25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H25">
         <v>16</v>
       </c>
@@ -1977,7 +2282,7 @@
         <v>39</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1991,15 +2296,27 @@
       <c r="C26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="6"/>
+      <c r="D26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2013,10 +2330,25 @@
       <c r="C27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
       <c r="J27">
         <v>14</v>
       </c>
@@ -2027,8 +2359,8 @@
         <v>39</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2041,10 +2373,22 @@
       <c r="C28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
       <c r="H28">
         <v>17</v>
       </c>
@@ -2058,7 +2402,7 @@
         <v>39</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
@@ -2072,10 +2416,25 @@
       <c r="C29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="6"/>
+      <c r="D29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G29" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
       <c r="K29">
         <v>1</v>
       </c>
@@ -2083,8 +2442,8 @@
         <v>30</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2097,13 +2456,28 @@
       <c r="C30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="6"/>
+      <c r="D30" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="H30">
         <v>17</v>
       </c>
+      <c r="J30">
+        <v>12</v>
+      </c>
       <c r="K30">
         <v>1</v>
       </c>
@@ -2111,8 +2485,8 @@
         <v>40</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2125,16 +2499,31 @@
       <c r="C31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="6"/>
+      <c r="D31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G31" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2147,10 +2536,22 @@
       <c r="C32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="6"/>
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="J32">
         <v>14</v>
       </c>
@@ -2161,7 +2562,7 @@
         <v>40</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
     </row>
@@ -2175,10 +2576,22 @@
       <c r="C33" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="6"/>
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G33" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H33">
         <v>18</v>
       </c>
@@ -2192,7 +2605,7 @@
         <v>20</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
@@ -2206,10 +2619,22 @@
       <c r="C34" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="6"/>
+      <c r="D34" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
       <c r="H34">
         <v>17</v>
       </c>
@@ -2223,7 +2648,7 @@
         <v>40</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
     </row>
@@ -2237,13 +2662,28 @@
       <c r="C35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="6"/>
+      <c r="D35" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="H35">
         <v>15</v>
       </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
       <c r="K35">
         <v>1</v>
       </c>
@@ -2251,8 +2691,8 @@
         <v>38</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <f t="shared" si="4"/>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2265,16 +2705,31 @@
       <c r="C36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="6"/>
+      <c r="D36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G36" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H36">
+        <v>16</v>
+      </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2287,10 +2742,25 @@
       <c r="C37" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="6"/>
+      <c r="D37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G37" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
       <c r="K37">
         <v>1</v>
       </c>
@@ -2298,8 +2768,8 @@
         <v>20</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2312,10 +2782,22 @@
       <c r="C38" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="6"/>
+      <c r="D38" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="H38">
         <v>15</v>
       </c>
@@ -2329,7 +2811,7 @@
         <v>40</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
@@ -2343,10 +2825,22 @@
       <c r="C39" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="6"/>
+      <c r="D39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G39" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H39">
         <v>17</v>
       </c>
@@ -2354,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>
@@ -2368,10 +2862,28 @@
       <c r="C40" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="6"/>
+      <c r="D40" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>16</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
       <c r="K40">
         <v>1</v>
       </c>
@@ -2379,8 +2891,8 @@
         <v>35</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2393,10 +2905,22 @@
       <c r="C41" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="6"/>
+      <c r="D41" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="H41">
         <v>18</v>
       </c>
@@ -2410,7 +2934,7 @@
         <v>30</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
     </row>
@@ -2424,10 +2948,25 @@
       <c r="C42" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="6"/>
+      <c r="D42" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>14</v>
+      </c>
       <c r="J42">
         <v>16</v>
       </c>
@@ -2438,8 +2977,8 @@
         <v>30</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2452,13 +2991,28 @@
       <c r="C43" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="6"/>
+      <c r="D43" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="H43">
         <v>18</v>
       </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
       <c r="K43">
         <v>1</v>
       </c>
@@ -2466,8 +3020,8 @@
         <v>38</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2480,10 +3034,22 @@
       <c r="C44" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="6"/>
+      <c r="D44" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="H44">
         <v>18</v>
       </c>
@@ -2497,7 +3063,7 @@
         <v>27</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
     </row>
@@ -2511,10 +3077,25 @@
       <c r="C45" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="6"/>
+      <c r="D45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G45" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
       <c r="K45">
         <v>1</v>
       </c>
@@ -2522,8 +3103,8 @@
         <v>38</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2536,15 +3117,27 @@
       <c r="C46" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="6"/>
+      <c r="D46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G46" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2558,10 +3151,22 @@
       <c r="C47" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="6"/>
+      <c r="D47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G47" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="J47">
         <v>4</v>
       </c>
@@ -2572,7 +3177,7 @@
         <v>39</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
     </row>
@@ -2586,10 +3191,25 @@
       <c r="C48" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="6"/>
+      <c r="D48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G48" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
       <c r="J48">
         <v>6</v>
       </c>
@@ -2600,8 +3220,8 @@
         <v>20</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f t="shared" si="4"/>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2614,10 +3234,25 @@
       <c r="C49" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="6"/>
+      <c r="D49" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>14</v>
+      </c>
       <c r="J49">
         <v>18</v>
       </c>
@@ -2628,8 +3263,8 @@
         <v>30</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f t="shared" si="4"/>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2642,10 +3277,25 @@
       <c r="C50" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="6"/>
+      <c r="D50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G50" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H50">
+        <v>14</v>
+      </c>
       <c r="J50">
         <v>4</v>
       </c>
@@ -2656,8 +3306,8 @@
         <v>20</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2670,10 +3320,22 @@
       <c r="C51" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="6"/>
+      <c r="D51" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="H51">
         <v>18</v>
       </c>
@@ -2687,7 +3349,7 @@
         <v>39</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
     </row>
@@ -2701,10 +3363,22 @@
       <c r="C52" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="6"/>
+      <c r="D52" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="H52">
         <v>17</v>
       </c>
@@ -2718,7 +3392,7 @@
         <v>20</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
     </row>
@@ -2732,10 +3406,25 @@
       <c r="C53" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="6"/>
+      <c r="D53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G53" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H53">
+        <v>14</v>
+      </c>
       <c r="J53">
         <v>12</v>
       </c>
@@ -2743,8 +3432,8 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2757,10 +3446,25 @@
       <c r="C54" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="6"/>
+      <c r="D54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G54" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H54">
+        <v>12</v>
+      </c>
       <c r="J54">
         <v>14</v>
       </c>
@@ -2771,8 +3475,8 @@
         <v>20</v>
       </c>
       <c r="N54">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f t="shared" si="4"/>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2785,10 +3489,22 @@
       <c r="C55" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="6"/>
+      <c r="D55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G55" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="J55">
         <v>16</v>
       </c>
@@ -2799,7 +3515,7 @@
         <v>20</v>
       </c>
       <c r="N55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
     </row>
@@ -2813,10 +3529,25 @@
       <c r="C56" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="6"/>
+      <c r="D56" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H56">
+        <v>14</v>
+      </c>
       <c r="J56">
         <v>12</v>
       </c>
@@ -2827,8 +3558,8 @@
         <v>38</v>
       </c>
       <c r="N56">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2841,10 +3572,22 @@
       <c r="C57" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="6"/>
+      <c r="D57" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="H57">
         <v>18</v>
       </c>
@@ -2858,7 +3601,7 @@
         <v>39</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
@@ -2872,10 +3615,25 @@
       <c r="C58" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="6"/>
+      <c r="D58" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H58">
+        <v>14</v>
+      </c>
       <c r="J58">
         <v>18</v>
       </c>
@@ -2886,8 +3644,8 @@
         <v>36</v>
       </c>
       <c r="N58">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2900,10 +3658,25 @@
       <c r="C59" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="6"/>
+      <c r="D59" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>12</v>
+      </c>
       <c r="J59">
         <v>16</v>
       </c>
@@ -2914,8 +3687,8 @@
         <v>30</v>
       </c>
       <c r="N59">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="4"/>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2928,10 +3701,25 @@
       <c r="C60" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="6"/>
+      <c r="D60" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H60">
+        <v>14</v>
+      </c>
       <c r="J60">
         <v>18</v>
       </c>
@@ -2942,8 +3730,8 @@
         <v>38</v>
       </c>
       <c r="N60">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,10 +3744,22 @@
       <c r="C61" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="6"/>
+      <c r="D61" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
       <c r="H61">
         <v>17</v>
       </c>
@@ -2973,7 +3773,7 @@
         <v>30</v>
       </c>
       <c r="N61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
     </row>
@@ -2987,10 +3787,22 @@
       <c r="C62" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="6"/>
+      <c r="D62" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
       <c r="H62">
         <v>16</v>
       </c>
@@ -3004,7 +3816,7 @@
         <v>39</v>
       </c>
       <c r="N62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
@@ -3018,10 +3830,25 @@
       <c r="C63" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="6"/>
+      <c r="D63" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H63">
+        <v>16</v>
+      </c>
       <c r="J63">
         <v>12</v>
       </c>
@@ -3032,8 +3859,8 @@
         <v>30</v>
       </c>
       <c r="N63">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3046,15 +3873,27 @@
       <c r="C64" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="6"/>
+      <c r="D64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G64" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3068,13 +3907,28 @@
       <c r="C65" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="6"/>
+      <c r="D65" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="H65">
         <v>16</v>
       </c>
+      <c r="J65">
+        <v>9</v>
+      </c>
       <c r="K65">
         <v>1</v>
       </c>
@@ -3082,8 +3936,8 @@
         <v>30</v>
       </c>
       <c r="N65">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="4"/>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3096,10 +3950,22 @@
       <c r="C66" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="6"/>
+      <c r="D66" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G66" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="H66">
         <v>16</v>
       </c>
@@ -3113,7 +3979,7 @@
         <v>20</v>
       </c>
       <c r="N66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
     </row>
@@ -3127,13 +3993,28 @@
       <c r="C67" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="6"/>
+      <c r="D67" s="6">
+        <f t="shared" ref="D67:D106" si="5">IF((N67)&gt;=50,10,"")</f>
+        <v>10</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67:E106" si="6">IF((N67)&gt;=50,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ref="F67:F106" si="7">IF((N67)&gt;=50,20,"")</f>
+        <v>20</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" ref="G67:G106" si="8">IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <v>9</v>
+      </c>
       <c r="H67">
         <v>16</v>
       </c>
+      <c r="J67">
+        <v>13</v>
+      </c>
       <c r="K67">
         <v>1</v>
       </c>
@@ -3141,8 +4022,8 @@
         <v>35</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N106" si="1">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
-        <v>46</v>
+        <f t="shared" ref="N67:N106" si="9">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <v>59</v>
       </c>
       <c r="O67">
         <v>-5</v>
@@ -3161,10 +4042,22 @@
       <c r="C68" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="6"/>
+      <c r="D68" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
       <c r="H68">
         <v>16</v>
       </c>
@@ -3178,7 +4071,7 @@
         <v>39</v>
       </c>
       <c r="N68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
     </row>
@@ -3192,10 +4085,25 @@
       <c r="C69" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="6"/>
+      <c r="D69" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>16</v>
+      </c>
       <c r="J69">
         <v>6</v>
       </c>
@@ -3206,8 +4114,8 @@
         <v>35</v>
       </c>
       <c r="N69">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" si="9"/>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3220,10 +4128,22 @@
       <c r="C70" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="6"/>
+      <c r="D70" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H70">
         <v>17</v>
       </c>
@@ -3237,7 +4157,7 @@
         <v>35</v>
       </c>
       <c r="N70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3251,10 +4171,22 @@
       <c r="C71" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="6"/>
+      <c r="D71" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F71" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G71" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="H71">
         <v>17</v>
       </c>
@@ -3268,7 +4200,7 @@
         <v>20</v>
       </c>
       <c r="N71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
     </row>
@@ -3282,13 +4214,28 @@
       <c r="C72" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="6"/>
+      <c r="D72" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
       <c r="H72">
         <v>17</v>
       </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
       <c r="K72">
         <v>1</v>
       </c>
@@ -3296,8 +4243,8 @@
         <v>37</v>
       </c>
       <c r="N72">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f t="shared" si="9"/>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3310,10 +4257,25 @@
       <c r="C73" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="6"/>
+      <c r="D73" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G73" s="6">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="H73">
+        <v>16</v>
+      </c>
       <c r="J73">
         <v>4</v>
       </c>
@@ -3324,8 +4286,8 @@
         <v>38</v>
       </c>
       <c r="N73">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f t="shared" si="9"/>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3338,10 +4300,22 @@
       <c r="C74" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="6"/>
+      <c r="D74" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G74" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H74">
         <v>16</v>
       </c>
@@ -3355,7 +4329,7 @@
         <v>35</v>
       </c>
       <c r="N74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3369,10 +4343,22 @@
       <c r="C75" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="6"/>
+      <c r="D75" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F75" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G75" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="H75">
         <v>16</v>
       </c>
@@ -3386,7 +4372,7 @@
         <v>20</v>
       </c>
       <c r="N75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
     </row>
@@ -3400,10 +4386,22 @@
       <c r="C76" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="6"/>
+      <c r="D76" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F76" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G76" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="H76">
         <v>16</v>
       </c>
@@ -3414,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
     </row>
@@ -3428,10 +4426,22 @@
       <c r="C77" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="6"/>
+      <c r="D77" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G77" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
       <c r="H77">
         <v>17</v>
       </c>
@@ -3445,7 +4455,7 @@
         <v>35</v>
       </c>
       <c r="N77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -3459,10 +4469,22 @@
       <c r="C78" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="6"/>
+      <c r="D78" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F78" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G78" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="J78">
         <v>10</v>
       </c>
@@ -3470,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="N78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
@@ -3484,15 +4506,27 @@
       <c r="C79" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="6"/>
+      <c r="D79" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G79" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="N79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3506,10 +4540,25 @@
       <c r="C80" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="6"/>
+      <c r="D80" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G80" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="H80">
+        <v>12</v>
+      </c>
       <c r="J80">
         <v>14</v>
       </c>
@@ -3520,8 +4569,8 @@
         <v>38</v>
       </c>
       <c r="N80">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f t="shared" si="9"/>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3534,10 +4583,22 @@
       <c r="C81" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="6"/>
+      <c r="D81" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F81" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G81" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="H81">
         <v>17</v>
       </c>
@@ -3545,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="N81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
@@ -3559,10 +4620,22 @@
       <c r="C82" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="6"/>
+      <c r="D82" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G82" s="6">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
       <c r="H82">
         <v>16</v>
       </c>
@@ -3576,7 +4649,7 @@
         <v>33</v>
       </c>
       <c r="N82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
     </row>
@@ -3590,10 +4663,22 @@
       <c r="C83" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="6"/>
+      <c r="D83" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G83" s="6">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
       <c r="H83">
         <v>16</v>
       </c>
@@ -3607,7 +4692,7 @@
         <v>36</v>
       </c>
       <c r="N83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
     </row>
@@ -3621,10 +4706,25 @@
       <c r="C84" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="6"/>
+      <c r="D84" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F84" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G84" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J84">
+        <v>14</v>
+      </c>
       <c r="K84">
         <v>1</v>
       </c>
@@ -3632,8 +4732,8 @@
         <v>29</v>
       </c>
       <c r="N84">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="9"/>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3646,10 +4746,25 @@
       <c r="C85" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="6"/>
+      <c r="D85" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F85" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G85" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H85">
+        <v>16</v>
+      </c>
       <c r="J85">
         <v>8</v>
       </c>
@@ -3660,8 +4775,8 @@
         <v>20</v>
       </c>
       <c r="N85">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="9"/>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3674,10 +4789,22 @@
       <c r="C86" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="6"/>
+      <c r="D86" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G86" s="6">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
       <c r="J86">
         <v>16</v>
       </c>
@@ -3688,7 +4815,7 @@
         <v>36</v>
       </c>
       <c r="N86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
     </row>
@@ -3702,10 +4829,25 @@
       <c r="C87" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="6"/>
+      <c r="D87" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="H87">
+        <v>16</v>
+      </c>
       <c r="J87">
         <v>16</v>
       </c>
@@ -3716,8 +4858,8 @@
         <v>38</v>
       </c>
       <c r="N87">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3730,16 +4872,31 @@
       <c r="C88" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="6"/>
+      <c r="D88" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F88" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G88" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H88">
+        <v>16</v>
+      </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="N88">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3752,10 +4909,22 @@
       <c r="C89" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="6"/>
+      <c r="D89" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G89" s="6">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
       <c r="H89">
         <v>17</v>
       </c>
@@ -3769,7 +4938,7 @@
         <v>30</v>
       </c>
       <c r="N89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
     </row>
@@ -3783,10 +4952,25 @@
       <c r="C90" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="6"/>
+      <c r="D90" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G90" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="H90">
+        <v>12</v>
+      </c>
       <c r="J90">
         <v>18</v>
       </c>
@@ -3797,8 +4981,8 @@
         <v>34</v>
       </c>
       <c r="N90">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f t="shared" si="9"/>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3811,10 +4995,22 @@
       <c r="C91" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="6"/>
+      <c r="D91" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F91" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G91" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="H91">
         <v>17</v>
       </c>
@@ -3822,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="N91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
@@ -3836,10 +5032,22 @@
       <c r="C92" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="6"/>
+      <c r="D92" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G92" s="6">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
       <c r="H92">
         <v>14</v>
       </c>
@@ -3853,7 +5061,7 @@
         <v>39</v>
       </c>
       <c r="N92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
     </row>
@@ -3867,10 +5075,22 @@
       <c r="C93" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="6"/>
+      <c r="D93" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F93" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G93" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="H93">
         <v>14</v>
       </c>
@@ -3884,7 +5104,7 @@
         <v>20</v>
       </c>
       <c r="N93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
     </row>
@@ -3898,10 +5118,22 @@
       <c r="C94" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="6"/>
+      <c r="D94" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G94" s="6">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
       <c r="H94">
         <v>13</v>
       </c>
@@ -3915,7 +5147,7 @@
         <v>38</v>
       </c>
       <c r="N94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
     </row>
@@ -3929,10 +5161,22 @@
       <c r="C95" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="6"/>
+      <c r="D95" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G95" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H95">
         <v>14</v>
       </c>
@@ -3946,7 +5190,7 @@
         <v>39</v>
       </c>
       <c r="N95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3960,10 +5204,25 @@
       <c r="C96" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="6"/>
+      <c r="D96" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G96" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="H96">
+        <v>14</v>
+      </c>
       <c r="J96">
         <v>10</v>
       </c>
@@ -3974,8 +5233,8 @@
         <v>40</v>
       </c>
       <c r="N96">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3988,13 +5247,28 @@
       <c r="C97" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="6"/>
+      <c r="D97" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G97" s="6">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
       <c r="H97">
         <v>13</v>
       </c>
+      <c r="J97">
+        <v>7</v>
+      </c>
       <c r="K97">
         <v>1</v>
       </c>
@@ -4002,8 +5276,8 @@
         <v>35</v>
       </c>
       <c r="N97">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f t="shared" si="9"/>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4016,10 +5290,22 @@
       <c r="C98" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="6"/>
+      <c r="D98" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G98" s="6">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
       <c r="H98">
         <v>16</v>
       </c>
@@ -4033,7 +5319,7 @@
         <v>39</v>
       </c>
       <c r="N98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
     </row>
@@ -4047,15 +5333,27 @@
       <c r="C99" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="6"/>
+      <c r="D99" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F99" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G99" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="N99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4069,10 +5367,22 @@
       <c r="C100" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="6"/>
+      <c r="D100" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F100" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G100" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="H100">
         <v>18</v>
       </c>
@@ -4080,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="N100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
     </row>
@@ -4094,10 +5404,25 @@
       <c r="C101" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="6"/>
+      <c r="D101" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F101" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G101" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H101">
+        <v>16</v>
+      </c>
       <c r="J101">
         <v>12</v>
       </c>
@@ -4108,8 +5433,8 @@
         <v>20</v>
       </c>
       <c r="N101">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f t="shared" si="9"/>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4122,10 +5447,22 @@
       <c r="C102" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="6"/>
+      <c r="D102" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G102" s="6">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="H102">
         <v>17</v>
       </c>
@@ -4139,7 +5476,7 @@
         <v>35</v>
       </c>
       <c r="N102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -4153,10 +5490,25 @@
       <c r="C103" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="6"/>
+      <c r="D103" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G103" s="6">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>14</v>
+      </c>
       <c r="J103">
         <v>10</v>
       </c>
@@ -4167,8 +5519,8 @@
         <v>29</v>
       </c>
       <c r="N103">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f t="shared" si="9"/>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4181,10 +5533,22 @@
       <c r="C104" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="6"/>
+      <c r="D104" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G104" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="H104">
         <v>14</v>
       </c>
@@ -4198,7 +5562,7 @@
         <v>20</v>
       </c>
       <c r="N104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
     </row>
@@ -4212,13 +5576,28 @@
       <c r="C105" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="6"/>
+      <c r="D105" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G105" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
       <c r="H105">
         <v>17</v>
       </c>
+      <c r="J105">
+        <v>8</v>
+      </c>
       <c r="K105">
         <v>1</v>
       </c>
@@ -4226,8 +5605,8 @@
         <v>35</v>
       </c>
       <c r="N105">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4240,10 +5619,25 @@
       <c r="C106" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="6"/>
+      <c r="D106" s="6">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G106" s="6">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H106">
+        <v>12</v>
+      </c>
       <c r="J106">
         <v>10</v>
       </c>
@@ -4254,8 +5648,8 @@
         <v>34</v>
       </c>
       <c r="N106">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <f t="shared" si="9"/>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1265,7 +1265,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D106"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4386,21 +4386,21 @@
       <c r="C76" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="6" t="str">
+      <c r="D76" s="6">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E76" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E76" s="2">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F76" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F76" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G76" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G76" s="6">
         <f t="shared" si="8"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="H76">
         <v>16</v>
@@ -4411,9 +4411,12 @@
       <c r="K76">
         <v>1</v>
       </c>
+      <c r="L76">
+        <v>25</v>
+      </c>
       <c r="N76">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1263,9 +1263,9 @@
   </sheetPr>
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2216,31 +2216,37 @@
       <c r="C24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G24" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="H24" s="14">
         <v>16</v>
       </c>
+      <c r="J24" s="14">
+        <v>11</v>
+      </c>
       <c r="K24" s="14">
         <v>1</v>
       </c>
+      <c r="L24" s="14">
+        <v>32</v>
+      </c>
       <c r="N24" s="14">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4400,7 +4406,7 @@
       </c>
       <c r="G76" s="6">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H76">
         <v>16</v>
@@ -4412,11 +4418,11 @@
         <v>1</v>
       </c>
       <c r="L76">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N76">
         <f t="shared" si="9"/>
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="226">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -61,9 +61,6 @@
     <t>CF.105</t>
   </si>
   <si>
-    <t>Extras.5</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -698,6 +695,12 @@
   </si>
   <si>
     <t>Se inscribio en dos grupos -5</t>
+  </si>
+  <si>
+    <t>Entro 4 semanas despues de la fecha limite al grupo</t>
+  </si>
+  <si>
+    <t>Extras</t>
   </si>
 </sst>
 </file>
@@ -1264,8 +1267,8 @@
   <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L76" sqref="L76"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1289,7 @@
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1310,16 +1313,16 @@
         <v>8</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -1328,10 +1331,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1381,15 +1384,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D3" s="6" t="str">
         <f t="shared" ref="D3:D66" si="0">IF((N3)&gt;=50,10,"")</f>
@@ -1415,18 +1418,24 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="4">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>-5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
@@ -1461,15 +1470,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
@@ -1504,16 +1513,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1538,15 +1547,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1578,15 +1587,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1615,15 +1624,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1652,16 +1661,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1686,15 +1695,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1729,15 +1738,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
@@ -1772,15 +1781,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
@@ -1815,15 +1824,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1852,15 +1861,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
@@ -1895,15 +1904,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1937,10 +1946,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
@@ -1980,10 +1989,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="D18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2014,10 +2023,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="D19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2048,10 +2057,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
@@ -2091,10 +2100,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2131,10 +2140,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
@@ -2174,10 +2183,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
@@ -2211,10 +2220,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
@@ -2254,11 +2263,11 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2273,7 +2282,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H25">
         <v>16</v>
@@ -2287,9 +2296,12 @@
       <c r="L25">
         <v>39</v>
       </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2297,10 +2309,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="D26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2331,10 +2343,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
@@ -2374,10 +2386,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
@@ -2417,10 +2429,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="D29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2457,10 +2469,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
@@ -2500,10 +2512,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2537,10 +2549,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
@@ -2577,10 +2589,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
@@ -2620,10 +2632,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
@@ -2663,10 +2675,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
@@ -2706,10 +2718,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="D36" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2743,10 +2755,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="D37" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2783,10 +2795,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
@@ -2826,10 +2838,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="D39" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2863,10 +2875,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
@@ -2906,10 +2918,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
@@ -2949,10 +2961,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
@@ -2992,10 +3004,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
@@ -3035,10 +3047,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
@@ -3078,10 +3090,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="D45" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3118,10 +3130,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="D46" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3152,10 +3164,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="D47" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3192,10 +3204,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="D48" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3230,15 +3242,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
@@ -3273,15 +3285,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="D50" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3316,15 +3328,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="0"/>
@@ -3359,16 +3371,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3383,7 +3395,7 @@
       </c>
       <c r="G52" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>17</v>
@@ -3397,20 +3409,29 @@
       <c r="L52">
         <v>20</v>
       </c>
+      <c r="M52">
+        <v>30</v>
+      </c>
       <c r="N52">
         <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="O52">
+        <v>-5</v>
+      </c>
+      <c r="P52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="D53" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3442,31 +3463,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G54" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D54" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="H54">
         <v>12</v>
@@ -3480,20 +3501,29 @@
       <c r="L54">
         <v>20</v>
       </c>
+      <c r="M54">
+        <v>30</v>
+      </c>
       <c r="N54">
         <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="O54">
+        <v>-5</v>
+      </c>
+      <c r="P54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D55" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3525,15 +3555,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>54</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
@@ -3568,15 +3598,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="0"/>
@@ -3611,15 +3641,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="0"/>
@@ -3654,15 +3684,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="0"/>
@@ -3697,15 +3727,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="0"/>
@@ -3740,15 +3770,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="0"/>
@@ -3783,15 +3813,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>60</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="0"/>
@@ -3826,15 +3856,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="0"/>
@@ -3869,15 +3899,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>62</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="D64" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3908,10 +3938,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="0"/>
@@ -3951,10 +3981,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="D66" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3994,10 +4024,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" ref="D67:D106" si="5">IF((N67)&gt;=50,10,"")</f>
@@ -4035,7 +4065,7 @@
         <v>-5</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4043,10 +4073,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="5"/>
@@ -4086,10 +4116,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="5"/>
@@ -4129,10 +4159,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="5"/>
@@ -4172,26 +4202,26 @@
         <v>69</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D71" s="6" t="str">
+      <c r="D71" s="6">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E71" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E71" s="2">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F71" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F71" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G71" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G71" s="6">
         <f t="shared" si="8"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="H71">
         <v>17</v>
@@ -4205,9 +4235,12 @@
       <c r="L71">
         <v>20</v>
       </c>
+      <c r="M71">
+        <v>30</v>
+      </c>
       <c r="N71">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4215,10 +4248,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="5"/>
@@ -4258,10 +4291,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="5"/>
@@ -4301,10 +4334,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="5"/>
@@ -4344,10 +4377,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="D75" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4387,10 +4420,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="5"/>
@@ -4430,10 +4463,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="5"/>
@@ -4473,10 +4506,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="D78" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4510,10 +4543,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="D79" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4544,10 +4577,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="5"/>
@@ -4587,10 +4620,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="D81" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4624,10 +4657,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="5"/>
@@ -4667,10 +4700,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="5"/>
@@ -4710,10 +4743,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="D84" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4750,10 +4783,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="D85" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4793,10 +4826,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="5"/>
@@ -4833,10 +4866,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="5"/>
@@ -4876,10 +4909,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="D88" s="6" t="str">
         <f t="shared" si="5"/>
@@ -4913,10 +4946,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="5"/>
@@ -4956,10 +4989,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="5"/>
@@ -4999,10 +5032,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="D91" s="6" t="str">
         <f t="shared" si="5"/>
@@ -5036,10 +5069,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="5"/>
@@ -5079,26 +5112,26 @@
         <v>91</v>
       </c>
       <c r="B93" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" s="6" t="str">
+      <c r="D93" s="6">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E93" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E93" s="2">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F93" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F93" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G93" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G93" s="6">
         <f t="shared" si="8"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H93">
         <v>14</v>
@@ -5112,9 +5145,12 @@
       <c r="L93">
         <v>20</v>
       </c>
+      <c r="M93">
+        <v>30</v>
+      </c>
       <c r="N93">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5122,10 +5158,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="5"/>
@@ -5165,10 +5201,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="5"/>
@@ -5208,10 +5244,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="5"/>
@@ -5251,10 +5287,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="5"/>
@@ -5294,10 +5330,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="5"/>
@@ -5313,7 +5349,7 @@
       </c>
       <c r="G98" s="6">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="H98">
         <v>16</v>
@@ -5327,9 +5363,12 @@
       <c r="L98">
         <v>39</v>
       </c>
+      <c r="M98">
+        <v>30</v>
+      </c>
       <c r="N98">
         <f t="shared" si="9"/>
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5337,10 +5376,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="D99" s="6" t="str">
         <f t="shared" si="5"/>
@@ -5371,10 +5410,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="D100" s="6" t="str">
         <f t="shared" si="5"/>
@@ -5408,10 +5447,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="D101" s="6" t="str">
         <f t="shared" si="5"/>
@@ -5451,10 +5490,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="5"/>
@@ -5494,10 +5533,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="5"/>
@@ -5537,10 +5576,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="5"/>
@@ -5580,10 +5619,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="5"/>
@@ -5623,10 +5662,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="5"/>

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -692,12 +692,6 @@
   </si>
   <si>
     <t>ERICK DARIEL BAEZ URIBE</t>
-  </si>
-  <si>
-    <t>Se inscribio en dos grupos -5</t>
-  </si>
-  <si>
-    <t>Entro 4 semanas despues de la fecha limite al grupo</t>
   </si>
   <si>
     <t>Extras</t>
@@ -1264,11 +1258,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L93" sqref="L93"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1289,7 +1283,7 @@
     <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1331,10 +1325,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -1384,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1418,16 +1412,10 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="4">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>-5</v>
-      </c>
-      <c r="P3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1451,7 +1439,7 @@
       </c>
       <c r="G4" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -1465,12 +1453,15 @@
       <c r="L4">
         <v>38</v>
       </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
       <c r="N4">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1513,7 +1504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1547,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1587,7 +1578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1624,7 +1615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1661,7 +1652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1695,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1738,7 +1729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1781,7 +1772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1824,7 +1815,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1861,7 +1852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -1904,7 +1895,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2405,7 +2396,7 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H28">
         <v>17</v>
@@ -2419,9 +2410,12 @@
       <c r="L28">
         <v>39</v>
       </c>
+      <c r="M28">
+        <v>30</v>
+      </c>
       <c r="N28">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3242,7 +3236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -3285,7 +3279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -3328,7 +3322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -3371,7 +3365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -3395,7 +3389,7 @@
       </c>
       <c r="G52" s="6">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>17</v>
@@ -3414,16 +3408,10 @@
       </c>
       <c r="N52">
         <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="O52">
-        <v>-5</v>
-      </c>
-      <c r="P52" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -3463,7 +3451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -3487,7 +3475,7 @@
       </c>
       <c r="G54" s="6">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H54">
         <v>12</v>
@@ -3506,16 +3494,10 @@
       </c>
       <c r="N54">
         <f t="shared" si="4"/>
-        <v>71</v>
-      </c>
-      <c r="O54">
-        <v>-5</v>
-      </c>
-      <c r="P54" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -3555,7 +3537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -3598,7 +3580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -3641,7 +3623,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -3684,7 +3666,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -3727,7 +3709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -3751,13 +3733,13 @@
       </c>
       <c r="G60" s="6">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H60">
         <v>14</v>
       </c>
       <c r="J60">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -3767,10 +3749,10 @@
       </c>
       <c r="N60">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -3813,7 +3795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -3856,7 +3838,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -3899,7 +3881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -3933,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>63</v>
       </c>
@@ -3976,7 +3958,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -4019,7 +4001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -4043,7 +4025,7 @@
       </c>
       <c r="G67" s="6">
         <f t="shared" ref="G67:G106" si="8">IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H67">
         <v>16</v>
@@ -4059,16 +4041,10 @@
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N106" si="9">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
-        <v>59</v>
-      </c>
-      <c r="O67">
-        <v>-5</v>
-      </c>
-      <c r="P67" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -4111,7 +4087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>67</v>
       </c>
@@ -4154,7 +4130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -4197,7 +4173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>69</v>
       </c>
@@ -4243,7 +4219,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -4286,7 +4262,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -4329,7 +4305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>72</v>
       </c>
@@ -4372,7 +4348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -4415,7 +4391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -4458,7 +4434,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>75</v>
       </c>
@@ -4501,7 +4477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>76</v>
       </c>
@@ -4538,7 +4514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>77</v>
       </c>
@@ -4572,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>78</v>
       </c>
@@ -4965,7 +4941,7 @@
       </c>
       <c r="G89" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H89">
         <v>17</v>
@@ -4979,9 +4955,12 @@
       <c r="L89">
         <v>30</v>
       </c>
+      <c r="M89">
+        <v>30</v>
+      </c>
       <c r="N89">
         <f t="shared" si="9"/>
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1261,8 +1261,8 @@
   <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M88" sqref="M88"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3733,13 +3733,13 @@
       </c>
       <c r="G60" s="6">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H60">
         <v>14</v>
       </c>
       <c r="J60">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="N60">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6D0D52BD-7CFD-4180-9D11-2CF353A2918E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -700,7 +701,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1254,18 +1255,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -2645,7 +2646,7 @@
       </c>
       <c r="G34" s="6">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H34">
         <v>17</v>
@@ -2659,9 +2660,12 @@
       <c r="L34">
         <v>40</v>
       </c>
+      <c r="M34">
+        <v>25</v>
+      </c>
       <c r="N34">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4724,21 +4728,21 @@
       <c r="C84" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D84" s="6" t="str">
+      <c r="D84" s="6">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E84" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E84" s="2">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F84" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F84" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G84" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G84" s="6">
         <f t="shared" si="8"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="J84">
         <v>14</v>
@@ -4749,9 +4753,12 @@
       <c r="L84">
         <v>29</v>
       </c>
+      <c r="M84">
+        <v>25</v>
+      </c>
       <c r="N84">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5680,7 +5687,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1">
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6D0D52BD-7CFD-4180-9D11-2CF353A2918E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -701,7 +700,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1255,18 +1254,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N84" sqref="N84"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1389,31 +1388,40 @@
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">IF((N3)&gt;=50,10,"")</f>
-        <v/>
-      </c>
-      <c r="E3" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E66" si="1">IF((N3)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="F3" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F66" si="2">IF((N3)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="G3" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G66" si="3">IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>8</v>
       </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
       <c r="K3">
         <v>1</v>
+      </c>
+      <c r="L3">
+        <v>40</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="4">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,9 +1760,9 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G12" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="G12" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>12</v>
@@ -1768,9 +1776,12 @@
       <c r="L12">
         <v>30</v>
       </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,21 +2440,21 @@
       <c r="C29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G29" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="J29">
         <v>11</v>
@@ -2454,9 +2465,12 @@
       <c r="L29">
         <v>30</v>
       </c>
+      <c r="M29">
+        <v>20</v>
+      </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2692,7 +2706,7 @@
       </c>
       <c r="G35" s="6">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <v>15</v>
@@ -2706,9 +2720,12 @@
       <c r="L35">
         <v>38</v>
       </c>
+      <c r="M35">
+        <v>30</v>
+      </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2935,7 +2952,7 @@
       </c>
       <c r="G41" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>18</v>
@@ -2949,9 +2966,12 @@
       <c r="L41">
         <v>30</v>
       </c>
+      <c r="M41">
+        <v>30</v>
+      </c>
       <c r="N41">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3064,7 +3084,7 @@
       </c>
       <c r="G44" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>18</v>
@@ -3078,9 +3098,12 @@
       <c r="L44">
         <v>27</v>
       </c>
+      <c r="M44">
+        <v>30</v>
+      </c>
       <c r="N44">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3167,21 +3190,21 @@
       <c r="C47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G47" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D47" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="J47">
         <v>4</v>
@@ -3192,9 +3215,12 @@
       <c r="L47">
         <v>39</v>
       </c>
+      <c r="M47">
+        <v>30</v>
+      </c>
       <c r="N47">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3350,7 +3376,7 @@
       </c>
       <c r="G51" s="6">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>18</v>
@@ -3364,9 +3390,12 @@
       <c r="L51">
         <v>39</v>
       </c>
+      <c r="M51">
+        <v>25</v>
+      </c>
       <c r="N51">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3511,21 +3540,21 @@
       <c r="C55" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G55" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D55" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="J55">
         <v>16</v>
@@ -3536,9 +3565,12 @@
       <c r="L55">
         <v>20</v>
       </c>
+      <c r="M55">
+        <v>20</v>
+      </c>
       <c r="N55">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3608,7 +3640,7 @@
       </c>
       <c r="G57" s="6">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H57">
         <v>18</v>
@@ -3622,9 +3654,12 @@
       <c r="L57">
         <v>39</v>
       </c>
+      <c r="M57">
+        <v>20</v>
+      </c>
       <c r="N57">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3780,7 +3815,7 @@
       </c>
       <c r="G61" s="6">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>17</v>
@@ -3794,9 +3829,12 @@
       <c r="L61">
         <v>30</v>
       </c>
+      <c r="M61">
+        <v>20</v>
+      </c>
       <c r="N61">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4115,7 +4153,7 @@
       </c>
       <c r="G69" s="6">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H69">
         <v>16</v>
@@ -4129,9 +4167,12 @@
       <c r="L69">
         <v>35</v>
       </c>
+      <c r="M69">
+        <v>20</v>
+      </c>
       <c r="N69">
         <f t="shared" si="9"/>
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4158,7 +4199,7 @@
       </c>
       <c r="G70" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H70">
         <v>17</v>
@@ -4172,9 +4213,12 @@
       <c r="L70">
         <v>35</v>
       </c>
+      <c r="M70">
+        <v>30</v>
+      </c>
       <c r="N70">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4290,7 +4334,7 @@
       </c>
       <c r="G73" s="6">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>16</v>
@@ -4304,9 +4348,12 @@
       <c r="L73">
         <v>38</v>
       </c>
+      <c r="M73">
+        <v>25</v>
+      </c>
       <c r="N73">
         <f t="shared" si="9"/>
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4462,7 +4509,7 @@
       </c>
       <c r="G77" s="6">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>17</v>
@@ -4476,9 +4523,12 @@
       <c r="L77">
         <v>35</v>
       </c>
+      <c r="M77">
+        <v>30</v>
+      </c>
       <c r="N77">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4828,7 +4878,7 @@
       </c>
       <c r="G86" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J86">
         <v>16</v>
@@ -4839,9 +4889,12 @@
       <c r="L86">
         <v>36</v>
       </c>
+      <c r="M86">
+        <v>25</v>
+      </c>
       <c r="N86">
         <f t="shared" si="9"/>
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5206,7 +5259,7 @@
       </c>
       <c r="G95" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H95">
         <v>14</v>
@@ -5220,9 +5273,12 @@
       <c r="L95">
         <v>39</v>
       </c>
+      <c r="M95">
+        <v>30</v>
+      </c>
       <c r="N95">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5624,7 +5680,7 @@
       </c>
       <c r="G105" s="6">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>17</v>
@@ -5638,9 +5694,12 @@
       <c r="L105">
         <v>35</v>
       </c>
+      <c r="M105">
+        <v>30</v>
+      </c>
       <c r="N105">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5667,7 +5726,7 @@
       </c>
       <c r="G106" s="6">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H106">
         <v>12</v>
@@ -5681,13 +5740,16 @@
       <c r="L106">
         <v>34</v>
       </c>
+      <c r="M106">
+        <v>20</v>
+      </c>
       <c r="N106">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O1">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1261,8 +1261,8 @@
   <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -1982,9 +1982,12 @@
       <c r="L17">
         <v>25</v>
       </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1262,7 +1262,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J29">
         <v>11</v>
@@ -2469,11 +2469,11 @@
         <v>30</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5497,21 +5497,21 @@
       <c r="C101" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D101" s="6" t="str">
+      <c r="D101" s="6">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E101" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E101" s="2">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F101" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F101" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G101" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G101" s="6">
         <f t="shared" si="8"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H101">
         <v>16</v>
@@ -5525,9 +5525,12 @@
       <c r="L101">
         <v>20</v>
       </c>
+      <c r="M101">
+        <v>20</v>
+      </c>
       <c r="N101">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6D0D52BD-7CFD-4180-9D11-2CF353A2918E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -701,7 +700,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1255,18 +1254,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N84" sqref="N84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1389,31 +1388,40 @@
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">IF((N3)&gt;=50,10,"")</f>
-        <v/>
-      </c>
-      <c r="E3" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E66" si="1">IF((N3)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="F3" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F66" si="2">IF((N3)&gt;=50,20,"")</f>
-        <v/>
-      </c>
-      <c r="G3" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G66" si="3">IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>8</v>
       </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
       <c r="K3">
         <v>1</v>
+      </c>
+      <c r="L3">
+        <v>40</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="4">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,9 +1760,9 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G12" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="G12" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>12</v>
@@ -1768,9 +1776,12 @@
       <c r="L12">
         <v>30</v>
       </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1957,7 +1968,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -1971,9 +1982,12 @@
       <c r="L17">
         <v>25</v>
       </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,21 +2443,21 @@
       <c r="C29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G29" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="J29">
         <v>11</v>
@@ -2454,9 +2468,12 @@
       <c r="L29">
         <v>30</v>
       </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2692,7 +2709,7 @@
       </c>
       <c r="G35" s="6">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <v>15</v>
@@ -2706,9 +2723,12 @@
       <c r="L35">
         <v>38</v>
       </c>
+      <c r="M35">
+        <v>30</v>
+      </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2935,7 +2955,7 @@
       </c>
       <c r="G41" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>18</v>
@@ -2949,9 +2969,12 @@
       <c r="L41">
         <v>30</v>
       </c>
+      <c r="M41">
+        <v>30</v>
+      </c>
       <c r="N41">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3064,7 +3087,7 @@
       </c>
       <c r="G44" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>18</v>
@@ -3078,9 +3101,12 @@
       <c r="L44">
         <v>27</v>
       </c>
+      <c r="M44">
+        <v>30</v>
+      </c>
       <c r="N44">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3167,21 +3193,21 @@
       <c r="C47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G47" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D47" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="J47">
         <v>4</v>
@@ -3192,9 +3218,12 @@
       <c r="L47">
         <v>39</v>
       </c>
+      <c r="M47">
+        <v>30</v>
+      </c>
       <c r="N47">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3350,7 +3379,7 @@
       </c>
       <c r="G51" s="6">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>18</v>
@@ -3364,9 +3393,12 @@
       <c r="L51">
         <v>39</v>
       </c>
+      <c r="M51">
+        <v>25</v>
+      </c>
       <c r="N51">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3511,21 +3543,21 @@
       <c r="C55" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G55" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D55" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="J55">
         <v>16</v>
@@ -3536,9 +3568,12 @@
       <c r="L55">
         <v>20</v>
       </c>
+      <c r="M55">
+        <v>20</v>
+      </c>
       <c r="N55">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3608,7 +3643,7 @@
       </c>
       <c r="G57" s="6">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H57">
         <v>18</v>
@@ -3622,9 +3657,12 @@
       <c r="L57">
         <v>39</v>
       </c>
+      <c r="M57">
+        <v>20</v>
+      </c>
       <c r="N57">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3780,7 +3818,7 @@
       </c>
       <c r="G61" s="6">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>17</v>
@@ -3794,9 +3832,12 @@
       <c r="L61">
         <v>30</v>
       </c>
+      <c r="M61">
+        <v>20</v>
+      </c>
       <c r="N61">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4115,7 +4156,7 @@
       </c>
       <c r="G69" s="6">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H69">
         <v>16</v>
@@ -4129,9 +4170,12 @@
       <c r="L69">
         <v>35</v>
       </c>
+      <c r="M69">
+        <v>20</v>
+      </c>
       <c r="N69">
         <f t="shared" si="9"/>
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4158,7 +4202,7 @@
       </c>
       <c r="G70" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H70">
         <v>17</v>
@@ -4172,9 +4216,12 @@
       <c r="L70">
         <v>35</v>
       </c>
+      <c r="M70">
+        <v>30</v>
+      </c>
       <c r="N70">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4290,7 +4337,7 @@
       </c>
       <c r="G73" s="6">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>16</v>
@@ -4304,9 +4351,12 @@
       <c r="L73">
         <v>38</v>
       </c>
+      <c r="M73">
+        <v>25</v>
+      </c>
       <c r="N73">
         <f t="shared" si="9"/>
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4462,7 +4512,7 @@
       </c>
       <c r="G77" s="6">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>17</v>
@@ -4476,9 +4526,12 @@
       <c r="L77">
         <v>35</v>
       </c>
+      <c r="M77">
+        <v>30</v>
+      </c>
       <c r="N77">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4828,7 +4881,7 @@
       </c>
       <c r="G86" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J86">
         <v>16</v>
@@ -4839,9 +4892,12 @@
       <c r="L86">
         <v>36</v>
       </c>
+      <c r="M86">
+        <v>25</v>
+      </c>
       <c r="N86">
         <f t="shared" si="9"/>
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5206,7 +5262,7 @@
       </c>
       <c r="G95" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H95">
         <v>14</v>
@@ -5220,9 +5276,12 @@
       <c r="L95">
         <v>39</v>
       </c>
+      <c r="M95">
+        <v>30</v>
+      </c>
       <c r="N95">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5438,21 +5497,21 @@
       <c r="C101" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D101" s="6" t="str">
+      <c r="D101" s="6">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E101" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E101" s="2">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F101" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F101" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G101" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G101" s="6">
         <f t="shared" si="8"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H101">
         <v>16</v>
@@ -5466,9 +5525,12 @@
       <c r="L101">
         <v>20</v>
       </c>
+      <c r="M101">
+        <v>20</v>
+      </c>
       <c r="N101">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5624,7 +5686,7 @@
       </c>
       <c r="G105" s="6">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>17</v>
@@ -5638,9 +5700,12 @@
       <c r="L105">
         <v>35</v>
       </c>
+      <c r="M105">
+        <v>30</v>
+      </c>
       <c r="N105">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5667,7 +5732,7 @@
       </c>
       <c r="G106" s="6">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H106">
         <v>12</v>
@@ -5681,13 +5746,16 @@
       <c r="L106">
         <v>34</v>
       </c>
+      <c r="M106">
+        <v>20</v>
+      </c>
       <c r="N106">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O1">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D187C23-D069-4E8D-92AC-80CDB16B3200}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -695,12 +696,15 @@
   </si>
   <si>
     <t>Extras</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1254,18 +1258,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -5754,8 +5758,13 @@
         <v>76</v>
       </c>
     </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O1">
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_DESARROLLO\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D187C23-D069-4E8D-92AC-80CDB16B3200}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$1:$O$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$93</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -704,7 +703,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1258,18 +1257,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -4713,7 +4712,7 @@
       </c>
       <c r="G82" s="6">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>16</v>
@@ -4727,9 +4726,12 @@
       <c r="L82">
         <v>33</v>
       </c>
+      <c r="M82">
+        <v>29</v>
+      </c>
       <c r="N82">
         <f t="shared" si="9"/>
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5764,7 +5766,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O1">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -730,13 +730,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -823,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -858,7 +857,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,8 +1268,8 @@
   <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2224,7 +2228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="14" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -2234,37 +2238,40 @@
       <c r="C24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="H24" s="14">
+      <c r="D24" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="H24" s="3">
         <v>16</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="3">
         <v>11</v>
       </c>
-      <c r="K24" s="14">
-        <v>1</v>
-      </c>
-      <c r="L24" s="14">
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
         <v>32</v>
       </c>
-      <c r="N24" s="14">
-        <f t="shared" si="4"/>
-        <v>59</v>
+      <c r="M24" s="3">
+        <v>25</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="4"/>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2835,7 +2842,7 @@
       </c>
       <c r="G38" s="6">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>15</v>
@@ -2849,9 +2856,12 @@
       <c r="L38">
         <v>40</v>
       </c>
+      <c r="M38">
+        <v>25</v>
+      </c>
       <c r="N38">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3603,7 +3613,7 @@
       </c>
       <c r="G56" s="6">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>14</v>
@@ -3617,9 +3627,12 @@
       <c r="L56">
         <v>38</v>
       </c>
+      <c r="M56">
+        <v>20</v>
+      </c>
       <c r="N56">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3987,7 +4000,7 @@
       </c>
       <c r="G65" s="6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>16</v>
@@ -4001,9 +4014,12 @@
       <c r="L65">
         <v>30</v>
       </c>
+      <c r="M65">
+        <v>25</v>
+      </c>
       <c r="N65">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4016,21 +4032,21 @@
       <c r="C66" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E66" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F66" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G66" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D66" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="H66">
         <v>16</v>
@@ -4044,9 +4060,12 @@
       <c r="L66">
         <v>20</v>
       </c>
+      <c r="M66">
+        <v>20</v>
+      </c>
       <c r="N66">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4297,7 +4316,7 @@
       </c>
       <c r="G72" s="6">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>17</v>
@@ -4311,9 +4330,12 @@
       <c r="L72">
         <v>37</v>
       </c>
+      <c r="M72">
+        <v>20</v>
+      </c>
       <c r="N72">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4415,21 +4437,21 @@
       <c r="C75" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D75" s="6" t="str">
+      <c r="D75" s="6">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E75" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E75" s="2">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F75" s="2" t="str">
+        <v>20</v>
+      </c>
+      <c r="F75" s="2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G75" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="G75" s="6">
         <f t="shared" si="8"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="H75">
         <v>16</v>
@@ -4443,9 +4465,12 @@
       <c r="L75">
         <v>20</v>
       </c>
+      <c r="M75">
+        <v>20</v>
+      </c>
       <c r="N75">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4472,7 +4497,7 @@
       </c>
       <c r="G76" s="6">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>16</v>
@@ -4486,9 +4511,12 @@
       <c r="L76">
         <v>29</v>
       </c>
+      <c r="M76">
+        <v>20</v>
+      </c>
       <c r="N76">
         <f t="shared" si="9"/>
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4758,7 +4786,7 @@
       </c>
       <c r="G83" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>16</v>
@@ -4772,9 +4800,12 @@
       <c r="L83">
         <v>36</v>
       </c>
+      <c r="M83">
+        <v>20</v>
+      </c>
       <c r="N83">
         <f t="shared" si="9"/>
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -822,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -863,6 +863,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,9 +1268,9 @@
   </sheetPr>
   <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1396,19 +1397,19 @@
         <v>16</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D66" si="0">IF((N3)&gt;=50,10,"")</f>
+        <f>IF((N3)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E66" si="1">IF((N3)&gt;=50,20,"")</f>
+        <f>IF((N3)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="2">IF((N3)&gt;=50,20,"")</f>
+        <f>IF((N3)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G66" si="3">IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
+        <f>IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
         <v>30</v>
       </c>
       <c r="H3">
@@ -1427,7 +1428,7 @@
         <v>20</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="4">IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
+        <f>IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
         <v>80</v>
       </c>
     </row>
@@ -1442,19 +1443,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N4)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N4)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N4)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N4)&gt;=51,IF((N4-50)&gt;50,50,IF((N4-50)&lt;0,0,(N4-50))), "" )</f>
         <v>48</v>
       </c>
       <c r="H4">
@@ -1473,7 +1474,7 @@
         <v>30</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
+        <f>IF((H4+J4+L4+M4+O4)&lt;70,IF((H4+J4+L4+M4+O4)&gt;64,70,(H4+J4+L4+M4+O4)),(H4+J4+L4+M4+O4))</f>
         <v>98</v>
       </c>
     </row>
@@ -1488,19 +1489,19 @@
         <v>20</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N5)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N5)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N5)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N5)&gt;=51,IF((N5-50)&gt;50,50,IF((N5-50)&lt;0,0,(N5-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H5">
@@ -1516,7 +1517,7 @@
         <v>40</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f>IF((H5+J5+L5+M5+O5)&lt;70,IF((H5+J5+L5+M5+O5)&gt;64,70,(H5+J5+L5+M5+O5)),(H5+J5+L5+M5+O5))</f>
         <v>70</v>
       </c>
     </row>
@@ -1531,26 +1532,27 @@
         <v>22</v>
       </c>
       <c r="D6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N6)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N6)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N6)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G6" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f>IF((N6)&gt;=51,IF((N6-50)&gt;50,50,IF((N6-50)&lt;0,0,(N6-50))), "" )</f>
+        <v/>
+      </c>
+      <c r="I6" s="16"/>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f>IF((H6+J6+L6+M6+O6)&lt;70,IF((H6+J6+L6+M6+O6)&gt;64,70,(H6+J6+L6+M6+O6)),(H6+J6+L6+M6+O6))</f>
         <v>0</v>
       </c>
     </row>
@@ -1565,19 +1567,19 @@
         <v>24</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N7)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N7)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N7)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G7" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N7)&gt;=51,IF((N7-50)&gt;50,50,IF((N7-50)&lt;0,0,(N7-50))), "" )</f>
         <v/>
       </c>
       <c r="J7">
@@ -1590,7 +1592,7 @@
         <v>30</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f>IF((H7+J7+L7+M7+O7)&lt;70,IF((H7+J7+L7+M7+O7)&gt;64,70,(H7+J7+L7+M7+O7)),(H7+J7+L7+M7+O7))</f>
         <v>37</v>
       </c>
     </row>
@@ -1605,19 +1607,19 @@
         <v>26</v>
       </c>
       <c r="D8" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N8)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N8)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N8)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G8" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N8)&gt;=51,IF((N8-50)&gt;50,50,IF((N8-50)&lt;0,0,(N8-50))), "" )</f>
         <v/>
       </c>
       <c r="H8">
@@ -1627,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f>IF((H8+J8+L8+M8+O8)&lt;70,IF((H8+J8+L8+M8+O8)&gt;64,70,(H8+J8+L8+M8+O8)),(H8+J8+L8+M8+O8))</f>
         <v>12</v>
       </c>
     </row>
@@ -1642,19 +1644,19 @@
         <v>28</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N9)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N9)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N9)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G9" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N9)&gt;=51,IF((N9-50)&gt;50,50,IF((N9-50)&lt;0,0,(N9-50))), "" )</f>
         <v/>
       </c>
       <c r="H9">
@@ -1664,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
+        <f>IF((H9+J9+L9+M9+O9)&lt;70,IF((H9+J9+L9+M9+O9)&gt;64,70,(H9+J9+L9+M9+O9)),(H9+J9+L9+M9+O9))</f>
         <v>17</v>
       </c>
     </row>
@@ -1679,26 +1681,26 @@
         <v>30</v>
       </c>
       <c r="D10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N10)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N10)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F10" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N10)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G10" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N10)&gt;=51,IF((N10-50)&gt;50,50,IF((N10-50)&lt;0,0,(N10-50))), "" )</f>
         <v/>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
+        <f>IF((H10+J10+L10+M10+O10)&lt;70,IF((H10+J10+L10+M10+O10)&gt;64,70,(H10+J10+L10+M10+O10)),(H10+J10+L10+M10+O10))</f>
         <v>0</v>
       </c>
     </row>
@@ -1713,19 +1715,19 @@
         <v>32</v>
       </c>
       <c r="D11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N11)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N11)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N11)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G11" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N11)&gt;=51,IF((N11-50)&gt;50,50,IF((N11-50)&lt;0,0,(N11-50))), "" )</f>
         <v/>
       </c>
       <c r="H11">
@@ -1741,7 +1743,7 @@
         <v>20</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
+        <f>IF((H11+J11+L11+M11+O11)&lt;70,IF((H11+J11+L11+M11+O11)&gt;64,70,(H11+J11+L11+M11+O11)),(H11+J11+L11+M11+O11))</f>
         <v>40</v>
       </c>
     </row>
@@ -1756,19 +1758,19 @@
         <v>34</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N12)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N12)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N12)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N12)&gt;=51,IF((N12-50)&gt;50,50,IF((N12-50)&lt;0,0,(N12-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H12">
@@ -1787,7 +1789,7 @@
         <v>20</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f>IF((H12+J12+L12+M12+O12)&lt;70,IF((H12+J12+L12+M12+O12)&gt;64,70,(H12+J12+L12+M12+O12)),(H12+J12+L12+M12+O12))</f>
         <v>70</v>
       </c>
     </row>
@@ -1802,19 +1804,19 @@
         <v>36</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N13)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N13)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N13)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N13)&gt;=51,IF((N13-50)&gt;50,50,IF((N13-50)&lt;0,0,(N13-50))), "" )</f>
         <v>12</v>
       </c>
       <c r="H13">
@@ -1830,7 +1832,7 @@
         <v>38</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
+        <f>IF((H13+J13+L13+M13+O13)&lt;70,IF((H13+J13+L13+M13+O13)&gt;64,70,(H13+J13+L13+M13+O13)),(H13+J13+L13+M13+O13))</f>
         <v>62</v>
       </c>
     </row>
@@ -1845,19 +1847,19 @@
         <v>38</v>
       </c>
       <c r="D14" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N14)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N14)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N14)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G14" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N14)&gt;=51,IF((N14-50)&gt;50,50,IF((N14-50)&lt;0,0,(N14-50))), "" )</f>
         <v/>
       </c>
       <c r="H14">
@@ -1867,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
+        <f>IF((H14+J14+L14+M14+O14)&lt;70,IF((H14+J14+L14+M14+O14)&gt;64,70,(H14+J14+L14+M14+O14)),(H14+J14+L14+M14+O14))</f>
         <v>12</v>
       </c>
     </row>
@@ -1882,19 +1884,19 @@
         <v>40</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N15)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N15)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N15)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N15)&gt;=51,IF((N15-50)&gt;50,50,IF((N15-50)&lt;0,0,(N15-50))), "" )</f>
         <v>6</v>
       </c>
       <c r="H15">
@@ -1910,7 +1912,7 @@
         <v>30</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
+        <f>IF((H15+J15+L15+M15+O15)&lt;70,IF((H15+J15+L15+M15+O15)&gt;64,70,(H15+J15+L15+M15+O15)),(H15+J15+L15+M15+O15))</f>
         <v>56</v>
       </c>
     </row>
@@ -1925,19 +1927,19 @@
         <v>42</v>
       </c>
       <c r="D16" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N16)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N16)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N16)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G16" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N16)&gt;=51,IF((N16-50)&gt;50,50,IF((N16-50)&lt;0,0,(N16-50))), "" )</f>
         <v/>
       </c>
       <c r="H16">
@@ -1947,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
+        <f>IF((H16+J16+L16+M16+O16)&lt;70,IF((H16+J16+L16+M16+O16)&gt;64,70,(H16+J16+L16+M16+O16)),(H16+J16+L16+M16+O16))</f>
         <v>16</v>
       </c>
     </row>
@@ -1962,19 +1964,19 @@
         <v>44</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N17)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N17)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N17)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N17)&gt;=51,IF((N17-50)&gt;50,50,IF((N17-50)&lt;0,0,(N17-50))), "" )</f>
         <v>24</v>
       </c>
       <c r="H17">
@@ -1993,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
+        <f>IF((H17+J17+L17+M17+O17)&lt;70,IF((H17+J17+L17+M17+O17)&gt;64,70,(H17+J17+L17+M17+O17)),(H17+J17+L17+M17+O17))</f>
         <v>74</v>
       </c>
     </row>
@@ -2008,26 +2010,26 @@
         <v>46</v>
       </c>
       <c r="D18" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N18)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N18)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N18)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G18" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N18)&gt;=51,IF((N18-50)&gt;50,50,IF((N18-50)&lt;0,0,(N18-50))), "" )</f>
         <v/>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
+        <f>IF((H18+J18+L18+M18+O18)&lt;70,IF((H18+J18+L18+M18+O18)&gt;64,70,(H18+J18+L18+M18+O18)),(H18+J18+L18+M18+O18))</f>
         <v>0</v>
       </c>
     </row>
@@ -2042,26 +2044,26 @@
         <v>48</v>
       </c>
       <c r="D19" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N19)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N19)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N19)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G19" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N19)&gt;=51,IF((N19-50)&gt;50,50,IF((N19-50)&lt;0,0,(N19-50))), "" )</f>
         <v/>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
+        <f>IF((H19+J19+L19+M19+O19)&lt;70,IF((H19+J19+L19+M19+O19)&gt;64,70,(H19+J19+L19+M19+O19)),(H19+J19+L19+M19+O19))</f>
         <v>0</v>
       </c>
     </row>
@@ -2076,19 +2078,19 @@
         <v>50</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N20)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N20)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N20)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N20)&gt;=51,IF((N20-50)&gt;50,50,IF((N20-50)&lt;0,0,(N20-50))), "" )</f>
         <v>11</v>
       </c>
       <c r="H20">
@@ -2104,7 +2106,7 @@
         <v>35</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
+        <f>IF((H20+J20+L20+M20+O20)&lt;70,IF((H20+J20+L20+M20+O20)&gt;64,70,(H20+J20+L20+M20+O20)),(H20+J20+L20+M20+O20))</f>
         <v>61</v>
       </c>
     </row>
@@ -2119,19 +2121,19 @@
         <v>52</v>
       </c>
       <c r="D21" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N21)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N21)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N21)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G21" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N21)&gt;=51,IF((N21-50)&gt;50,50,IF((N21-50)&lt;0,0,(N21-50))), "" )</f>
         <v/>
       </c>
       <c r="H21">
@@ -2144,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f>IF((H21+J21+L21+M21+O21)&lt;70,IF((H21+J21+L21+M21+O21)&gt;64,70,(H21+J21+L21+M21+O21)),(H21+J21+L21+M21+O21))</f>
         <v>30</v>
       </c>
     </row>
@@ -2159,20 +2161,20 @@
         <v>54</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N22)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N22)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N22)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f>IF((N22)&gt;=51,IF((N22-50)&gt;50,50,IF((N22-50)&lt;0,0,(N22-50))), "" )</f>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>17</v>
@@ -2186,9 +2188,12 @@
       <c r="L22">
         <v>40</v>
       </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
       <c r="N22">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <f>IF((H22+J22+L22+M22+O22)&lt;70,IF((H22+J22+L22+M22+O22)&gt;64,70,(H22+J22+L22+M22+O22)),(H22+J22+L22+M22+O22))</f>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2202,19 +2207,19 @@
         <v>56</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N23)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N23)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N23)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N23)&gt;=51,IF((N23-50)&gt;50,50,IF((N23-50)&lt;0,0,(N23-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H23">
@@ -2224,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
+        <f>IF((H23+J23+L23+M23+O23)&lt;70,IF((H23+J23+L23+M23+O23)&gt;64,70,(H23+J23+L23+M23+O23)),(H23+J23+L23+M23+O23))</f>
         <v>120</v>
       </c>
     </row>
@@ -2239,19 +2244,19 @@
         <v>58</v>
       </c>
       <c r="D24" s="14">
-        <f t="shared" si="0"/>
+        <f>IF((N24)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E24" s="15">
-        <f t="shared" si="1"/>
+        <f>IF((N24)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F24" s="15">
-        <f t="shared" si="2"/>
+        <f>IF((N24)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G24" s="14">
-        <f t="shared" si="3"/>
+        <f>IF((N24)&gt;=51,IF((N24-50)&gt;50,50,IF((N24-50)&lt;0,0,(N24-50))), "" )</f>
         <v>34</v>
       </c>
       <c r="H24" s="3">
@@ -2270,7 +2275,7 @@
         <v>25</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="4"/>
+        <f>IF((H24+J24+L24+M24+O24)&lt;70,IF((H24+J24+L24+M24+O24)&gt;64,70,(H24+J24+L24+M24+O24)),(H24+J24+L24+M24+O24))</f>
         <v>84</v>
       </c>
     </row>
@@ -2285,19 +2290,19 @@
         <v>60</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N25)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N25)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N25)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N25)&gt;=51,IF((N25-50)&gt;50,50,IF((N25-50)&lt;0,0,(N25-50))), "" )</f>
         <v>45</v>
       </c>
       <c r="H25">
@@ -2316,7 +2321,7 @@
         <v>30</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f>IF((H25+J25+L25+M25+O25)&lt;70,IF((H25+J25+L25+M25+O25)&gt;64,70,(H25+J25+L25+M25+O25)),(H25+J25+L25+M25+O25))</f>
         <v>95</v>
       </c>
     </row>
@@ -2331,26 +2336,26 @@
         <v>62</v>
       </c>
       <c r="D26" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N26)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N26)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N26)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G26" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N26)&gt;=51,IF((N26-50)&gt;50,50,IF((N26-50)&lt;0,0,(N26-50))), "" )</f>
         <v/>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f>IF((H26+J26+L26+M26+O26)&lt;70,IF((H26+J26+L26+M26+O26)&gt;64,70,(H26+J26+L26+M26+O26)),(H26+J26+L26+M26+O26))</f>
         <v>0</v>
       </c>
     </row>
@@ -2365,19 +2370,19 @@
         <v>64</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N27)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N27)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N27)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N27)&gt;=51,IF((N27-50)&gt;50,50,IF((N27-50)&lt;0,0,(N27-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H27">
@@ -2393,7 +2398,7 @@
         <v>39</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f>IF((H27+J27+L27+M27+O27)&lt;70,IF((H27+J27+L27+M27+O27)&gt;64,70,(H27+J27+L27+M27+O27)),(H27+J27+L27+M27+O27))</f>
         <v>70</v>
       </c>
     </row>
@@ -2408,19 +2413,19 @@
         <v>66</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N28)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N28)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N28)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N28)&gt;=51,IF((N28-50)&gt;50,50,IF((N28-50)&lt;0,0,(N28-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H28">
@@ -2439,7 +2444,7 @@
         <v>30</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f>IF((H28+J28+L28+M28+O28)&lt;70,IF((H28+J28+L28+M28+O28)&gt;64,70,(H28+J28+L28+M28+O28)),(H28+J28+L28+M28+O28))</f>
         <v>102</v>
       </c>
     </row>
@@ -2454,19 +2459,19 @@
         <v>68</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N29)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N29)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N29)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N29)&gt;=51,IF((N29-50)&gt;50,50,IF((N29-50)&lt;0,0,(N29-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="J29">
@@ -2482,7 +2487,7 @@
         <v>25</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f>IF((H29+J29+L29+M29+O29)&lt;70,IF((H29+J29+L29+M29+O29)&gt;64,70,(H29+J29+L29+M29+O29)),(H29+J29+L29+M29+O29))</f>
         <v>70</v>
       </c>
     </row>
@@ -2497,19 +2502,19 @@
         <v>70</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N30)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N30)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N30)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N30)&gt;=51,IF((N30-50)&gt;50,50,IF((N30-50)&lt;0,0,(N30-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H30">
@@ -2525,7 +2530,7 @@
         <v>40</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f>IF((H30+J30+L30+M30+O30)&lt;70,IF((H30+J30+L30+M30+O30)&gt;64,70,(H30+J30+L30+M30+O30)),(H30+J30+L30+M30+O30))</f>
         <v>70</v>
       </c>
     </row>
@@ -2540,19 +2545,19 @@
         <v>72</v>
       </c>
       <c r="D31" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N31)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N31)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N31)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G31" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N31)&gt;=51,IF((N31-50)&gt;50,50,IF((N31-50)&lt;0,0,(N31-50))), "" )</f>
         <v/>
       </c>
       <c r="H31">
@@ -2562,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f>IF((H31+J31+L31+M31+O31)&lt;70,IF((H31+J31+L31+M31+O31)&gt;64,70,(H31+J31+L31+M31+O31)),(H31+J31+L31+M31+O31))</f>
         <v>16</v>
       </c>
     </row>
@@ -2577,20 +2582,23 @@
         <v>74</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N32)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N32)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N32)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>IF((N32)&gt;=51,IF((N32-50)&gt;50,50,IF((N32-50)&lt;0,0,(N32-50))), "" )</f>
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>11</v>
       </c>
       <c r="J32">
         <v>14</v>
@@ -2602,8 +2610,8 @@
         <v>40</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
-        <v>54</v>
+        <f>IF((H32+J32+L32+M32+O32)&lt;70,IF((H32+J32+L32+M32+O32)&gt;64,70,(H32+J32+L32+M32+O32)),(H32+J32+L32+M32+O32))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2617,19 +2625,19 @@
         <v>76</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N33)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N33)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N33)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G33" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N33)&gt;=51,IF((N33-50)&gt;50,50,IF((N33-50)&lt;0,0,(N33-50))), "" )</f>
         <v/>
       </c>
       <c r="H33">
@@ -2645,7 +2653,7 @@
         <v>20</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
+        <f>IF((H33+J33+L33+M33+O33)&lt;70,IF((H33+J33+L33+M33+O33)&gt;64,70,(H33+J33+L33+M33+O33)),(H33+J33+L33+M33+O33))</f>
         <v>50</v>
       </c>
     </row>
@@ -2660,19 +2668,19 @@
         <v>78</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N34)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N34)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N34)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N34)&gt;=51,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
         <v>38</v>
       </c>
       <c r="H34">
@@ -2691,7 +2699,7 @@
         <v>25</v>
       </c>
       <c r="N34">
-        <f t="shared" si="4"/>
+        <f>IF((H34+J34+L34+M34+O34)&lt;70,IF((H34+J34+L34+M34+O34)&gt;64,70,(H34+J34+L34+M34+O34)),(H34+J34+L34+M34+O34))</f>
         <v>88</v>
       </c>
     </row>
@@ -2706,19 +2714,19 @@
         <v>80</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N35)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N35)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N35)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N35)&gt;=51,IF((N35-50)&gt;50,50,IF((N35-50)&lt;0,0,(N35-50))), "" )</f>
         <v>39</v>
       </c>
       <c r="H35">
@@ -2737,7 +2745,7 @@
         <v>30</v>
       </c>
       <c r="N35">
-        <f t="shared" si="4"/>
+        <f>IF((H35+J35+L35+M35+O35)&lt;70,IF((H35+J35+L35+M35+O35)&gt;64,70,(H35+J35+L35+M35+O35)),(H35+J35+L35+M35+O35))</f>
         <v>89</v>
       </c>
     </row>
@@ -2752,19 +2760,19 @@
         <v>82</v>
       </c>
       <c r="D36" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N36)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N36)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N36)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G36" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N36)&gt;=51,IF((N36-50)&gt;50,50,IF((N36-50)&lt;0,0,(N36-50))), "" )</f>
         <v/>
       </c>
       <c r="H36">
@@ -2774,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
+        <f>IF((H36+J36+L36+M36+O36)&lt;70,IF((H36+J36+L36+M36+O36)&gt;64,70,(H36+J36+L36+M36+O36)),(H36+J36+L36+M36+O36))</f>
         <v>16</v>
       </c>
     </row>
@@ -2789,19 +2797,19 @@
         <v>84</v>
       </c>
       <c r="D37" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N37)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N37)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N37)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G37" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N37)&gt;=51,IF((N37-50)&gt;50,50,IF((N37-50)&lt;0,0,(N37-50))), "" )</f>
         <v/>
       </c>
       <c r="H37">
@@ -2814,7 +2822,7 @@
         <v>20</v>
       </c>
       <c r="N37">
-        <f t="shared" si="4"/>
+        <f>IF((H37+J37+L37+M37+O37)&lt;70,IF((H37+J37+L37+M37+O37)&gt;64,70,(H37+J37+L37+M37+O37)),(H37+J37+L37+M37+O37))</f>
         <v>32</v>
       </c>
     </row>
@@ -2829,19 +2837,19 @@
         <v>86</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N38)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N38)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N38)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N38)&gt;=51,IF((N38-50)&gt;50,50,IF((N38-50)&lt;0,0,(N38-50))), "" )</f>
         <v>34</v>
       </c>
       <c r="H38">
@@ -2860,7 +2868,7 @@
         <v>25</v>
       </c>
       <c r="N38">
-        <f t="shared" si="4"/>
+        <f>IF((H38+J38+L38+M38+O38)&lt;70,IF((H38+J38+L38+M38+O38)&gt;64,70,(H38+J38+L38+M38+O38)),(H38+J38+L38+M38+O38))</f>
         <v>84</v>
       </c>
     </row>
@@ -2875,19 +2883,19 @@
         <v>88</v>
       </c>
       <c r="D39" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N39)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N39)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N39)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G39" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N39)&gt;=51,IF((N39-50)&gt;50,50,IF((N39-50)&lt;0,0,(N39-50))), "" )</f>
         <v/>
       </c>
       <c r="H39">
@@ -2897,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
+        <f>IF((H39+J39+L39+M39+O39)&lt;70,IF((H39+J39+L39+M39+O39)&gt;64,70,(H39+J39+L39+M39+O39)),(H39+J39+L39+M39+O39))</f>
         <v>17</v>
       </c>
     </row>
@@ -2912,19 +2920,19 @@
         <v>90</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N40)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N40)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N40)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N40)&gt;=51,IF((N40-50)&gt;50,50,IF((N40-50)&lt;0,0,(N40-50))), "" )</f>
         <v>9</v>
       </c>
       <c r="H40">
@@ -2940,7 +2948,7 @@
         <v>35</v>
       </c>
       <c r="N40">
-        <f t="shared" si="4"/>
+        <f>IF((H40+J40+L40+M40+O40)&lt;70,IF((H40+J40+L40+M40+O40)&gt;64,70,(H40+J40+L40+M40+O40)),(H40+J40+L40+M40+O40))</f>
         <v>59</v>
       </c>
     </row>
@@ -2955,19 +2963,19 @@
         <v>92</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N41)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N41)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N41)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N41)&gt;=51,IF((N41-50)&gt;50,50,IF((N41-50)&lt;0,0,(N41-50))), "" )</f>
         <v>32</v>
       </c>
       <c r="H41">
@@ -2986,7 +2994,7 @@
         <v>30</v>
       </c>
       <c r="N41">
-        <f t="shared" si="4"/>
+        <f>IF((H41+J41+L41+M41+O41)&lt;70,IF((H41+J41+L41+M41+O41)&gt;64,70,(H41+J41+L41+M41+O41)),(H41+J41+L41+M41+O41))</f>
         <v>82</v>
       </c>
     </row>
@@ -3001,19 +3009,19 @@
         <v>94</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N42)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N42)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N42)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N42)&gt;=51,IF((N42-50)&gt;50,50,IF((N42-50)&lt;0,0,(N42-50))), "" )</f>
         <v>10</v>
       </c>
       <c r="H42">
@@ -3029,7 +3037,7 @@
         <v>30</v>
       </c>
       <c r="N42">
-        <f t="shared" si="4"/>
+        <f>IF((H42+J42+L42+M42+O42)&lt;70,IF((H42+J42+L42+M42+O42)&gt;64,70,(H42+J42+L42+M42+O42)),(H42+J42+L42+M42+O42))</f>
         <v>60</v>
       </c>
     </row>
@@ -3044,19 +3052,19 @@
         <v>96</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N43)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N43)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N43)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N43)&gt;=51,IF((N43-50)&gt;50,50,IF((N43-50)&lt;0,0,(N43-50))), "" )</f>
         <v>12</v>
       </c>
       <c r="H43">
@@ -3072,7 +3080,7 @@
         <v>38</v>
       </c>
       <c r="N43">
-        <f t="shared" si="4"/>
+        <f>IF((H43+J43+L43+M43+O43)&lt;70,IF((H43+J43+L43+M43+O43)&gt;64,70,(H43+J43+L43+M43+O43)),(H43+J43+L43+M43+O43))</f>
         <v>62</v>
       </c>
     </row>
@@ -3087,19 +3095,19 @@
         <v>98</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N44)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N44)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N44)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N44)&gt;=51,IF((N44-50)&gt;50,50,IF((N44-50)&lt;0,0,(N44-50))), "" )</f>
         <v>33</v>
       </c>
       <c r="H44">
@@ -3118,7 +3126,7 @@
         <v>30</v>
       </c>
       <c r="N44">
-        <f t="shared" si="4"/>
+        <f>IF((H44+J44+L44+M44+O44)&lt;70,IF((H44+J44+L44+M44+O44)&gt;64,70,(H44+J44+L44+M44+O44)),(H44+J44+L44+M44+O44))</f>
         <v>83</v>
       </c>
     </row>
@@ -3133,19 +3141,19 @@
         <v>100</v>
       </c>
       <c r="D45" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N45)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N45)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N45)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G45" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N45)&gt;=51,IF((N45-50)&gt;50,50,IF((N45-50)&lt;0,0,(N45-50))), "" )</f>
         <v/>
       </c>
       <c r="J45">
@@ -3158,7 +3166,7 @@
         <v>38</v>
       </c>
       <c r="N45">
-        <f t="shared" si="4"/>
+        <f>IF((H45+J45+L45+M45+O45)&lt;70,IF((H45+J45+L45+M45+O45)&gt;64,70,(H45+J45+L45+M45+O45)),(H45+J45+L45+M45+O45))</f>
         <v>46</v>
       </c>
     </row>
@@ -3173,26 +3181,26 @@
         <v>102</v>
       </c>
       <c r="D46" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N46)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N46)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N46)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G46" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N46)&gt;=51,IF((N46-50)&gt;50,50,IF((N46-50)&lt;0,0,(N46-50))), "" )</f>
         <v/>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="4"/>
+        <f>IF((H46+J46+L46+M46+O46)&lt;70,IF((H46+J46+L46+M46+O46)&gt;64,70,(H46+J46+L46+M46+O46)),(H46+J46+L46+M46+O46))</f>
         <v>0</v>
       </c>
     </row>
@@ -3207,19 +3215,19 @@
         <v>104</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N47)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N47)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N47)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N47)&gt;=51,IF((N47-50)&gt;50,50,IF((N47-50)&lt;0,0,(N47-50))), "" )</f>
         <v>23</v>
       </c>
       <c r="J47">
@@ -3235,7 +3243,7 @@
         <v>30</v>
       </c>
       <c r="N47">
-        <f t="shared" si="4"/>
+        <f>IF((H47+J47+L47+M47+O47)&lt;70,IF((H47+J47+L47+M47+O47)&gt;64,70,(H47+J47+L47+M47+O47)),(H47+J47+L47+M47+O47))</f>
         <v>73</v>
       </c>
     </row>
@@ -3250,19 +3258,19 @@
         <v>106</v>
       </c>
       <c r="D48" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N48)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N48)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N48)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G48" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N48)&gt;=51,IF((N48-50)&gt;50,50,IF((N48-50)&lt;0,0,(N48-50))), "" )</f>
         <v/>
       </c>
       <c r="H48">
@@ -3278,7 +3286,7 @@
         <v>20</v>
       </c>
       <c r="N48">
-        <f t="shared" si="4"/>
+        <f>IF((H48+J48+L48+M48+O48)&lt;70,IF((H48+J48+L48+M48+O48)&gt;64,70,(H48+J48+L48+M48+O48)),(H48+J48+L48+M48+O48))</f>
         <v>42</v>
       </c>
     </row>
@@ -3293,19 +3301,19 @@
         <v>108</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N49)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N49)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N49)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N49)&gt;=51,IF((N49-50)&gt;50,50,IF((N49-50)&lt;0,0,(N49-50))), "" )</f>
         <v>12</v>
       </c>
       <c r="H49">
@@ -3321,7 +3329,7 @@
         <v>30</v>
       </c>
       <c r="N49">
-        <f t="shared" si="4"/>
+        <f>IF((H49+J49+L49+M49+O49)&lt;70,IF((H49+J49+L49+M49+O49)&gt;64,70,(H49+J49+L49+M49+O49)),(H49+J49+L49+M49+O49))</f>
         <v>62</v>
       </c>
     </row>
@@ -3336,19 +3344,19 @@
         <v>110</v>
       </c>
       <c r="D50" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N50)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E50" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N50)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N50)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G50" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N50)&gt;=51,IF((N50-50)&gt;50,50,IF((N50-50)&lt;0,0,(N50-50))), "" )</f>
         <v/>
       </c>
       <c r="H50">
@@ -3364,7 +3372,7 @@
         <v>20</v>
       </c>
       <c r="N50">
-        <f t="shared" si="4"/>
+        <f>IF((H50+J50+L50+M50+O50)&lt;70,IF((H50+J50+L50+M50+O50)&gt;64,70,(H50+J50+L50+M50+O50)),(H50+J50+L50+M50+O50))</f>
         <v>38</v>
       </c>
     </row>
@@ -3379,19 +3387,19 @@
         <v>112</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N51)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N51)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N51)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N51)&gt;=51,IF((N51-50)&gt;50,50,IF((N51-50)&lt;0,0,(N51-50))), "" )</f>
         <v>36</v>
       </c>
       <c r="H51">
@@ -3410,7 +3418,7 @@
         <v>25</v>
       </c>
       <c r="N51">
-        <f t="shared" si="4"/>
+        <f>IF((H51+J51+L51+M51+O51)&lt;70,IF((H51+J51+L51+M51+O51)&gt;64,70,(H51+J51+L51+M51+O51)),(H51+J51+L51+M51+O51))</f>
         <v>86</v>
       </c>
     </row>
@@ -3425,19 +3433,19 @@
         <v>114</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N52)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N52)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N52)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N52)&gt;=51,IF((N52-50)&gt;50,50,IF((N52-50)&lt;0,0,(N52-50))), "" )</f>
         <v>35</v>
       </c>
       <c r="H52">
@@ -3456,7 +3464,7 @@
         <v>30</v>
       </c>
       <c r="N52">
-        <f t="shared" si="4"/>
+        <f>IF((H52+J52+L52+M52+O52)&lt;70,IF((H52+J52+L52+M52+O52)&gt;64,70,(H52+J52+L52+M52+O52)),(H52+J52+L52+M52+O52))</f>
         <v>85</v>
       </c>
     </row>
@@ -3471,19 +3479,19 @@
         <v>116</v>
       </c>
       <c r="D53" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N53)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E53" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N53)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N53)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G53" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N53)&gt;=51,IF((N53-50)&gt;50,50,IF((N53-50)&lt;0,0,(N53-50))), "" )</f>
         <v/>
       </c>
       <c r="H53">
@@ -3496,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <f t="shared" si="4"/>
+        <f>IF((H53+J53+L53+M53+O53)&lt;70,IF((H53+J53+L53+M53+O53)&gt;64,70,(H53+J53+L53+M53+O53)),(H53+J53+L53+M53+O53))</f>
         <v>26</v>
       </c>
     </row>
@@ -3511,19 +3519,19 @@
         <v>118</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N54)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N54)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N54)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N54)&gt;=51,IF((N54-50)&gt;50,50,IF((N54-50)&lt;0,0,(N54-50))), "" )</f>
         <v>26</v>
       </c>
       <c r="H54">
@@ -3542,7 +3550,7 @@
         <v>30</v>
       </c>
       <c r="N54">
-        <f t="shared" si="4"/>
+        <f>IF((H54+J54+L54+M54+O54)&lt;70,IF((H54+J54+L54+M54+O54)&gt;64,70,(H54+J54+L54+M54+O54)),(H54+J54+L54+M54+O54))</f>
         <v>76</v>
       </c>
     </row>
@@ -3557,19 +3565,19 @@
         <v>120</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N55)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N55)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N55)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N55)&gt;=51,IF((N55-50)&gt;50,50,IF((N55-50)&lt;0,0,(N55-50))), "" )</f>
         <v>6</v>
       </c>
       <c r="J55">
@@ -3585,7 +3593,7 @@
         <v>20</v>
       </c>
       <c r="N55">
-        <f t="shared" si="4"/>
+        <f>IF((H55+J55+L55+M55+O55)&lt;70,IF((H55+J55+L55+M55+O55)&gt;64,70,(H55+J55+L55+M55+O55)),(H55+J55+L55+M55+O55))</f>
         <v>56</v>
       </c>
     </row>
@@ -3600,19 +3608,19 @@
         <v>122</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N56)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N56)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N56)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N56)&gt;=51,IF((N56-50)&gt;50,50,IF((N56-50)&lt;0,0,(N56-50))), "" )</f>
         <v>34</v>
       </c>
       <c r="H56">
@@ -3631,7 +3639,7 @@
         <v>20</v>
       </c>
       <c r="N56">
-        <f t="shared" si="4"/>
+        <f>IF((H56+J56+L56+M56+O56)&lt;70,IF((H56+J56+L56+M56+O56)&gt;64,70,(H56+J56+L56+M56+O56)),(H56+J56+L56+M56+O56))</f>
         <v>84</v>
       </c>
     </row>
@@ -3646,19 +3654,19 @@
         <v>124</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N57)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N57)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N57)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N57)&gt;=51,IF((N57-50)&gt;50,50,IF((N57-50)&lt;0,0,(N57-50))), "" )</f>
         <v>41</v>
       </c>
       <c r="H57">
@@ -3677,7 +3685,7 @@
         <v>20</v>
       </c>
       <c r="N57">
-        <f t="shared" si="4"/>
+        <f>IF((H57+J57+L57+M57+O57)&lt;70,IF((H57+J57+L57+M57+O57)&gt;64,70,(H57+J57+L57+M57+O57)),(H57+J57+L57+M57+O57))</f>
         <v>91</v>
       </c>
     </row>
@@ -3692,19 +3700,19 @@
         <v>126</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N58)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N58)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N58)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N58)&gt;=51,IF((N58-50)&gt;50,50,IF((N58-50)&lt;0,0,(N58-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H58">
@@ -3720,7 +3728,7 @@
         <v>36</v>
       </c>
       <c r="N58">
-        <f t="shared" si="4"/>
+        <f>IF((H58+J58+L58+M58+O58)&lt;70,IF((H58+J58+L58+M58+O58)&gt;64,70,(H58+J58+L58+M58+O58)),(H58+J58+L58+M58+O58))</f>
         <v>70</v>
       </c>
     </row>
@@ -3735,19 +3743,19 @@
         <v>128</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N59)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N59)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N59)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N59)&gt;=51,IF((N59-50)&gt;50,50,IF((N59-50)&lt;0,0,(N59-50))), "" )</f>
         <v>8</v>
       </c>
       <c r="H59">
@@ -3763,7 +3771,7 @@
         <v>30</v>
       </c>
       <c r="N59">
-        <f t="shared" si="4"/>
+        <f>IF((H59+J59+L59+M59+O59)&lt;70,IF((H59+J59+L59+M59+O59)&gt;64,70,(H59+J59+L59+M59+O59)),(H59+J59+L59+M59+O59))</f>
         <v>58</v>
       </c>
     </row>
@@ -3778,19 +3786,19 @@
         <v>130</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N60)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N60)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N60)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N60)&gt;=51,IF((N60-50)&gt;50,50,IF((N60-50)&lt;0,0,(N60-50))), "" )</f>
         <v>22</v>
       </c>
       <c r="H60">
@@ -3806,7 +3814,7 @@
         <v>38</v>
       </c>
       <c r="N60">
-        <f t="shared" si="4"/>
+        <f>IF((H60+J60+L60+M60+O60)&lt;70,IF((H60+J60+L60+M60+O60)&gt;64,70,(H60+J60+L60+M60+O60)),(H60+J60+L60+M60+O60))</f>
         <v>72</v>
       </c>
     </row>
@@ -3821,19 +3829,19 @@
         <v>132</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N61)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N61)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N61)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N61)&gt;=51,IF((N61-50)&gt;50,50,IF((N61-50)&lt;0,0,(N61-50))), "" )</f>
         <v>33</v>
       </c>
       <c r="H61">
@@ -3852,7 +3860,7 @@
         <v>20</v>
       </c>
       <c r="N61">
-        <f t="shared" si="4"/>
+        <f>IF((H61+J61+L61+M61+O61)&lt;70,IF((H61+J61+L61+M61+O61)&gt;64,70,(H61+J61+L61+M61+O61)),(H61+J61+L61+M61+O61))</f>
         <v>83</v>
       </c>
     </row>
@@ -3867,19 +3875,19 @@
         <v>134</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N62)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N62)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N62)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N62)&gt;=51,IF((N62-50)&gt;50,50,IF((N62-50)&lt;0,0,(N62-50))), "" )</f>
         <v>21</v>
       </c>
       <c r="H62">
@@ -3895,7 +3903,7 @@
         <v>39</v>
       </c>
       <c r="N62">
-        <f t="shared" si="4"/>
+        <f>IF((H62+J62+L62+M62+O62)&lt;70,IF((H62+J62+L62+M62+O62)&gt;64,70,(H62+J62+L62+M62+O62)),(H62+J62+L62+M62+O62))</f>
         <v>71</v>
       </c>
     </row>
@@ -3910,19 +3918,19 @@
         <v>136</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N63)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N63)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N63)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N63)&gt;=51,IF((N63-50)&gt;50,50,IF((N63-50)&lt;0,0,(N63-50))), "" )</f>
         <v>8</v>
       </c>
       <c r="H63">
@@ -3938,7 +3946,7 @@
         <v>30</v>
       </c>
       <c r="N63">
-        <f t="shared" si="4"/>
+        <f>IF((H63+J63+L63+M63+O63)&lt;70,IF((H63+J63+L63+M63+O63)&gt;64,70,(H63+J63+L63+M63+O63)),(H63+J63+L63+M63+O63))</f>
         <v>58</v>
       </c>
     </row>
@@ -3953,26 +3961,26 @@
         <v>138</v>
       </c>
       <c r="D64" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF((N64)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E64" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF((N64)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F64" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF((N64)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G64" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF((N64)&gt;=51,IF((N64-50)&gt;50,50,IF((N64-50)&lt;0,0,(N64-50))), "" )</f>
         <v/>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="4"/>
+        <f>IF((H64+J64+L64+M64+O64)&lt;70,IF((H64+J64+L64+M64+O64)&gt;64,70,(H64+J64+L64+M64+O64)),(H64+J64+L64+M64+O64))</f>
         <v>0</v>
       </c>
     </row>
@@ -3987,19 +3995,19 @@
         <v>140</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N65)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N65)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N65)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N65)&gt;=51,IF((N65-50)&gt;50,50,IF((N65-50)&lt;0,0,(N65-50))), "" )</f>
         <v>30</v>
       </c>
       <c r="H65">
@@ -4018,7 +4026,7 @@
         <v>25</v>
       </c>
       <c r="N65">
-        <f t="shared" si="4"/>
+        <f>IF((H65+J65+L65+M65+O65)&lt;70,IF((H65+J65+L65+M65+O65)&gt;64,70,(H65+J65+L65+M65+O65)),(H65+J65+L65+M65+O65))</f>
         <v>80</v>
       </c>
     </row>
@@ -4033,19 +4041,19 @@
         <v>142</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="0"/>
+        <f>IF((N66)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="1"/>
+        <f>IF((N66)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="2"/>
+        <f>IF((N66)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" si="3"/>
+        <f>IF((N66)&gt;=51,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
         <v>8</v>
       </c>
       <c r="H66">
@@ -4064,7 +4072,7 @@
         <v>20</v>
       </c>
       <c r="N66">
-        <f t="shared" si="4"/>
+        <f>IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
         <v>58</v>
       </c>
     </row>
@@ -4079,19 +4087,19 @@
         <v>144</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" ref="D67:D106" si="5">IF((N67)&gt;=50,10,"")</f>
+        <f>IF((N67)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E106" si="6">IF((N67)&gt;=50,20,"")</f>
+        <f>IF((N67)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F106" si="7">IF((N67)&gt;=50,20,"")</f>
+        <f>IF((N67)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" ref="G67:G106" si="8">IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <f>IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
         <v>14</v>
       </c>
       <c r="H67">
@@ -4107,7 +4115,7 @@
         <v>35</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N106" si="9">IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <f>IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
         <v>64</v>
       </c>
     </row>
@@ -4122,19 +4130,19 @@
         <v>146</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N68)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N68)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N68)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N68)&gt;=51,IF((N68-50)&gt;50,50,IF((N68-50)&lt;0,0,(N68-50))), "" )</f>
         <v>23</v>
       </c>
       <c r="H68">
@@ -4150,7 +4158,7 @@
         <v>39</v>
       </c>
       <c r="N68">
-        <f t="shared" si="9"/>
+        <f>IF((H68+J68+L68+M68+O68)&lt;70,IF((H68+J68+L68+M68+O68)&gt;64,70,(H68+J68+L68+M68+O68)),(H68+J68+L68+M68+O68))</f>
         <v>73</v>
       </c>
     </row>
@@ -4165,19 +4173,19 @@
         <v>148</v>
       </c>
       <c r="D69" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N69)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N69)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N69)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N69)&gt;=51,IF((N69-50)&gt;50,50,IF((N69-50)&lt;0,0,(N69-50))), "" )</f>
         <v>27</v>
       </c>
       <c r="H69">
@@ -4196,7 +4204,7 @@
         <v>20</v>
       </c>
       <c r="N69">
-        <f t="shared" si="9"/>
+        <f>IF((H69+J69+L69+M69+O69)&lt;70,IF((H69+J69+L69+M69+O69)&gt;64,70,(H69+J69+L69+M69+O69)),(H69+J69+L69+M69+O69))</f>
         <v>77</v>
       </c>
     </row>
@@ -4211,19 +4219,19 @@
         <v>150</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N70)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N70)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N70)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N70)&gt;=51,IF((N70-50)&gt;50,50,IF((N70-50)&lt;0,0,(N70-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H70">
@@ -4242,7 +4250,7 @@
         <v>30</v>
       </c>
       <c r="N70">
-        <f t="shared" si="9"/>
+        <f>IF((H70+J70+L70+M70+O70)&lt;70,IF((H70+J70+L70+M70+O70)&gt;64,70,(H70+J70+L70+M70+O70)),(H70+J70+L70+M70+O70))</f>
         <v>100</v>
       </c>
     </row>
@@ -4257,19 +4265,19 @@
         <v>152</v>
       </c>
       <c r="D71" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N71)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N71)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N71)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N71)&gt;=51,IF((N71-50)&gt;50,50,IF((N71-50)&lt;0,0,(N71-50))), "" )</f>
         <v>25</v>
       </c>
       <c r="H71">
@@ -4288,7 +4296,7 @@
         <v>30</v>
       </c>
       <c r="N71">
-        <f t="shared" si="9"/>
+        <f>IF((H71+J71+L71+M71+O71)&lt;70,IF((H71+J71+L71+M71+O71)&gt;64,70,(H71+J71+L71+M71+O71)),(H71+J71+L71+M71+O71))</f>
         <v>75</v>
       </c>
     </row>
@@ -4303,19 +4311,19 @@
         <v>154</v>
       </c>
       <c r="D72" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N72)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N72)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N72)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N72)&gt;=51,IF((N72-50)&gt;50,50,IF((N72-50)&lt;0,0,(N72-50))), "" )</f>
         <v>34</v>
       </c>
       <c r="H72">
@@ -4334,7 +4342,7 @@
         <v>20</v>
       </c>
       <c r="N72">
-        <f t="shared" si="9"/>
+        <f>IF((H72+J72+L72+M72+O72)&lt;70,IF((H72+J72+L72+M72+O72)&gt;64,70,(H72+J72+L72+M72+O72)),(H72+J72+L72+M72+O72))</f>
         <v>84</v>
       </c>
     </row>
@@ -4349,19 +4357,19 @@
         <v>156</v>
       </c>
       <c r="D73" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N73)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N73)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N73)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G73" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N73)&gt;=51,IF((N73-50)&gt;50,50,IF((N73-50)&lt;0,0,(N73-50))), "" )</f>
         <v>33</v>
       </c>
       <c r="H73">
@@ -4380,7 +4388,7 @@
         <v>25</v>
       </c>
       <c r="N73">
-        <f t="shared" si="9"/>
+        <f>IF((H73+J73+L73+M73+O73)&lt;70,IF((H73+J73+L73+M73+O73)&gt;64,70,(H73+J73+L73+M73+O73)),(H73+J73+L73+M73+O73))</f>
         <v>83</v>
       </c>
     </row>
@@ -4395,19 +4403,19 @@
         <v>158</v>
       </c>
       <c r="D74" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N74)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N74)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N74)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N74)&gt;=51,IF((N74-50)&gt;50,50,IF((N74-50)&lt;0,0,(N74-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H74">
@@ -4423,7 +4431,7 @@
         <v>35</v>
       </c>
       <c r="N74">
-        <f t="shared" si="9"/>
+        <f>IF((H74+J74+L74+M74+O74)&lt;70,IF((H74+J74+L74+M74+O74)&gt;64,70,(H74+J74+L74+M74+O74)),(H74+J74+L74+M74+O74))</f>
         <v>70</v>
       </c>
     </row>
@@ -4438,19 +4446,19 @@
         <v>160</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N75)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N75)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N75)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N75)&gt;=51,IF((N75-50)&gt;50,50,IF((N75-50)&lt;0,0,(N75-50))), "" )</f>
         <v>10</v>
       </c>
       <c r="H75">
@@ -4469,7 +4477,7 @@
         <v>20</v>
       </c>
       <c r="N75">
-        <f t="shared" si="9"/>
+        <f>IF((H75+J75+L75+M75+O75)&lt;70,IF((H75+J75+L75+M75+O75)&gt;64,70,(H75+J75+L75+M75+O75)),(H75+J75+L75+M75+O75))</f>
         <v>60</v>
       </c>
     </row>
@@ -4484,19 +4492,19 @@
         <v>162</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N76)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N76)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N76)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G76" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N76)&gt;=51,IF((N76-50)&gt;50,50,IF((N76-50)&lt;0,0,(N76-50))), "" )</f>
         <v>33</v>
       </c>
       <c r="H76">
@@ -4515,7 +4523,7 @@
         <v>20</v>
       </c>
       <c r="N76">
-        <f t="shared" si="9"/>
+        <f>IF((H76+J76+L76+M76+O76)&lt;70,IF((H76+J76+L76+M76+O76)&gt;64,70,(H76+J76+L76+M76+O76)),(H76+J76+L76+M76+O76))</f>
         <v>83</v>
       </c>
     </row>
@@ -4530,19 +4538,19 @@
         <v>164</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N77)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N77)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N77)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G77" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N77)&gt;=51,IF((N77-50)&gt;50,50,IF((N77-50)&lt;0,0,(N77-50))), "" )</f>
         <v>40</v>
       </c>
       <c r="H77">
@@ -4561,7 +4569,7 @@
         <v>30</v>
       </c>
       <c r="N77">
-        <f t="shared" si="9"/>
+        <f>IF((H77+J77+L77+M77+O77)&lt;70,IF((H77+J77+L77+M77+O77)&gt;64,70,(H77+J77+L77+M77+O77)),(H77+J77+L77+M77+O77))</f>
         <v>90</v>
       </c>
     </row>
@@ -4576,19 +4584,19 @@
         <v>166</v>
       </c>
       <c r="D78" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N78)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E78" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N78)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F78" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N78)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G78" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N78)&gt;=51,IF((N78-50)&gt;50,50,IF((N78-50)&lt;0,0,(N78-50))), "" )</f>
         <v/>
       </c>
       <c r="J78">
@@ -4598,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="N78">
-        <f t="shared" si="9"/>
+        <f>IF((H78+J78+L78+M78+O78)&lt;70,IF((H78+J78+L78+M78+O78)&gt;64,70,(H78+J78+L78+M78+O78)),(H78+J78+L78+M78+O78))</f>
         <v>10</v>
       </c>
     </row>
@@ -4613,26 +4621,26 @@
         <v>168</v>
       </c>
       <c r="D79" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N79)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N79)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F79" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N79)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G79" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N79)&gt;=51,IF((N79-50)&gt;50,50,IF((N79-50)&lt;0,0,(N79-50))), "" )</f>
         <v/>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="N79">
-        <f t="shared" si="9"/>
+        <f>IF((H79+J79+L79+M79+O79)&lt;70,IF((H79+J79+L79+M79+O79)&gt;64,70,(H79+J79+L79+M79+O79)),(H79+J79+L79+M79+O79))</f>
         <v>0</v>
       </c>
     </row>
@@ -4647,20 +4655,20 @@
         <v>170</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N80)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N80)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N80)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <f>IF((N80)&gt;=51,IF((N80-50)&gt;50,50,IF((N80-50)&lt;0,0,(N80-50))), "" )</f>
+        <v>20</v>
       </c>
       <c r="H80">
         <v>12</v>
@@ -4674,9 +4682,12 @@
       <c r="L80">
         <v>38</v>
       </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
       <c r="N80">
-        <f t="shared" si="9"/>
-        <v>64</v>
+        <f>IF((H80+J80+L80+M80+O80)&lt;70,IF((H80+J80+L80+M80+O80)&gt;64,70,(H80+J80+L80+M80+O80)),(H80+J80+L80+M80+O80))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4690,19 +4701,19 @@
         <v>172</v>
       </c>
       <c r="D81" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N81)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E81" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N81)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F81" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N81)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G81" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N81)&gt;=51,IF((N81-50)&gt;50,50,IF((N81-50)&lt;0,0,(N81-50))), "" )</f>
         <v/>
       </c>
       <c r="H81">
@@ -4712,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="N81">
-        <f t="shared" si="9"/>
+        <f>IF((H81+J81+L81+M81+O81)&lt;70,IF((H81+J81+L81+M81+O81)&gt;64,70,(H81+J81+L81+M81+O81)),(H81+J81+L81+M81+O81))</f>
         <v>17</v>
       </c>
     </row>
@@ -4727,19 +4738,19 @@
         <v>174</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N82)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N82)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N82)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N82)&gt;=51,IF((N82-50)&gt;50,50,IF((N82-50)&lt;0,0,(N82-50))), "" )</f>
         <v>40</v>
       </c>
       <c r="H82">
@@ -4758,7 +4769,7 @@
         <v>29</v>
       </c>
       <c r="N82">
-        <f t="shared" si="9"/>
+        <f>IF((H82+J82+L82+M82+O82)&lt;70,IF((H82+J82+L82+M82+O82)&gt;64,70,(H82+J82+L82+M82+O82)),(H82+J82+L82+M82+O82))</f>
         <v>90</v>
       </c>
     </row>
@@ -4773,19 +4784,19 @@
         <v>176</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N83)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N83)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N83)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N83)&gt;=51,IF((N83-50)&gt;50,50,IF((N83-50)&lt;0,0,(N83-50))), "" )</f>
         <v>32</v>
       </c>
       <c r="H83">
@@ -4804,7 +4815,7 @@
         <v>20</v>
       </c>
       <c r="N83">
-        <f t="shared" si="9"/>
+        <f>IF((H83+J83+L83+M83+O83)&lt;70,IF((H83+J83+L83+M83+O83)&gt;64,70,(H83+J83+L83+M83+O83)),(H83+J83+L83+M83+O83))</f>
         <v>82</v>
       </c>
     </row>
@@ -4819,19 +4830,19 @@
         <v>178</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N84)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N84)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N84)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N84)&gt;=51,IF((N84-50)&gt;50,50,IF((N84-50)&lt;0,0,(N84-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="J84">
@@ -4847,7 +4858,7 @@
         <v>25</v>
       </c>
       <c r="N84">
-        <f t="shared" si="9"/>
+        <f>IF((H84+J84+L84+M84+O84)&lt;70,IF((H84+J84+L84+M84+O84)&gt;64,70,(H84+J84+L84+M84+O84)),(H84+J84+L84+M84+O84))</f>
         <v>70</v>
       </c>
     </row>
@@ -4862,19 +4873,19 @@
         <v>180</v>
       </c>
       <c r="D85" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N85)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N85)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F85" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N85)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G85" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N85)&gt;=51,IF((N85-50)&gt;50,50,IF((N85-50)&lt;0,0,(N85-50))), "" )</f>
         <v/>
       </c>
       <c r="H85">
@@ -4890,7 +4901,7 @@
         <v>20</v>
       </c>
       <c r="N85">
-        <f t="shared" si="9"/>
+        <f>IF((H85+J85+L85+M85+O85)&lt;70,IF((H85+J85+L85+M85+O85)&gt;64,70,(H85+J85+L85+M85+O85)),(H85+J85+L85+M85+O85))</f>
         <v>44</v>
       </c>
     </row>
@@ -4905,19 +4916,19 @@
         <v>182</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N86)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N86)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N86)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N86)&gt;=51,IF((N86-50)&gt;50,50,IF((N86-50)&lt;0,0,(N86-50))), "" )</f>
         <v>27</v>
       </c>
       <c r="J86">
@@ -4933,7 +4944,7 @@
         <v>25</v>
       </c>
       <c r="N86">
-        <f t="shared" si="9"/>
+        <f>IF((H86+J86+L86+M86+O86)&lt;70,IF((H86+J86+L86+M86+O86)&gt;64,70,(H86+J86+L86+M86+O86)),(H86+J86+L86+M86+O86))</f>
         <v>77</v>
       </c>
     </row>
@@ -4948,19 +4959,19 @@
         <v>184</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N87)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N87)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N87)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G87" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N87)&gt;=51,IF((N87-50)&gt;50,50,IF((N87-50)&lt;0,0,(N87-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H87">
@@ -4976,7 +4987,7 @@
         <v>38</v>
       </c>
       <c r="N87">
-        <f t="shared" si="9"/>
+        <f>IF((H87+J87+L87+M87+O87)&lt;70,IF((H87+J87+L87+M87+O87)&gt;64,70,(H87+J87+L87+M87+O87)),(H87+J87+L87+M87+O87))</f>
         <v>70</v>
       </c>
     </row>
@@ -4991,19 +5002,19 @@
         <v>186</v>
       </c>
       <c r="D88" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N88)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E88" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N88)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F88" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N88)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G88" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N88)&gt;=51,IF((N88-50)&gt;50,50,IF((N88-50)&lt;0,0,(N88-50))), "" )</f>
         <v/>
       </c>
       <c r="H88">
@@ -5013,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="N88">
-        <f t="shared" si="9"/>
+        <f>IF((H88+J88+L88+M88+O88)&lt;70,IF((H88+J88+L88+M88+O88)&gt;64,70,(H88+J88+L88+M88+O88)),(H88+J88+L88+M88+O88))</f>
         <v>16</v>
       </c>
     </row>
@@ -5028,19 +5039,19 @@
         <v>188</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N89)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N89)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N89)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G89" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N89)&gt;=51,IF((N89-50)&gt;50,50,IF((N89-50)&lt;0,0,(N89-50))), "" )</f>
         <v>35</v>
       </c>
       <c r="H89">
@@ -5059,7 +5070,7 @@
         <v>30</v>
       </c>
       <c r="N89">
-        <f t="shared" si="9"/>
+        <f>IF((H89+J89+L89+M89+O89)&lt;70,IF((H89+J89+L89+M89+O89)&gt;64,70,(H89+J89+L89+M89+O89)),(H89+J89+L89+M89+O89))</f>
         <v>85</v>
       </c>
     </row>
@@ -5074,19 +5085,19 @@
         <v>190</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N90)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N90)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N90)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G90" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N90)&gt;=51,IF((N90-50)&gt;50,50,IF((N90-50)&lt;0,0,(N90-50))), "" )</f>
         <v>14</v>
       </c>
       <c r="H90">
@@ -5102,7 +5113,7 @@
         <v>34</v>
       </c>
       <c r="N90">
-        <f t="shared" si="9"/>
+        <f>IF((H90+J90+L90+M90+O90)&lt;70,IF((H90+J90+L90+M90+O90)&gt;64,70,(H90+J90+L90+M90+O90)),(H90+J90+L90+M90+O90))</f>
         <v>64</v>
       </c>
     </row>
@@ -5117,19 +5128,19 @@
         <v>192</v>
       </c>
       <c r="D91" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N91)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E91" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N91)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F91" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N91)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G91" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N91)&gt;=51,IF((N91-50)&gt;50,50,IF((N91-50)&lt;0,0,(N91-50))), "" )</f>
         <v/>
       </c>
       <c r="H91">
@@ -5139,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="N91">
-        <f t="shared" si="9"/>
+        <f>IF((H91+J91+L91+M91+O91)&lt;70,IF((H91+J91+L91+M91+O91)&gt;64,70,(H91+J91+L91+M91+O91)),(H91+J91+L91+M91+O91))</f>
         <v>17</v>
       </c>
     </row>
@@ -5154,19 +5165,19 @@
         <v>194</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N92)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N92)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N92)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G92" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N92)&gt;=51,IF((N92-50)&gt;50,50,IF((N92-50)&lt;0,0,(N92-50))), "" )</f>
         <v>11</v>
       </c>
       <c r="H92">
@@ -5182,7 +5193,7 @@
         <v>39</v>
       </c>
       <c r="N92">
-        <f t="shared" si="9"/>
+        <f>IF((H92+J92+L92+M92+O92)&lt;70,IF((H92+J92+L92+M92+O92)&gt;64,70,(H92+J92+L92+M92+O92)),(H92+J92+L92+M92+O92))</f>
         <v>61</v>
       </c>
     </row>
@@ -5197,19 +5208,19 @@
         <v>196</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N93)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N93)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N93)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G93" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N93)&gt;=51,IF((N93-50)&gt;50,50,IF((N93-50)&lt;0,0,(N93-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H93">
@@ -5228,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="N93">
-        <f t="shared" si="9"/>
+        <f>IF((H93+J93+L93+M93+O93)&lt;70,IF((H93+J93+L93+M93+O93)&gt;64,70,(H93+J93+L93+M93+O93)),(H93+J93+L93+M93+O93))</f>
         <v>70</v>
       </c>
     </row>
@@ -5243,19 +5254,19 @@
         <v>198</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N94)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N94)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N94)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N94)&gt;=51,IF((N94-50)&gt;50,50,IF((N94-50)&lt;0,0,(N94-50))), "" )</f>
         <v>5</v>
       </c>
       <c r="H94">
@@ -5271,7 +5282,7 @@
         <v>38</v>
       </c>
       <c r="N94">
-        <f t="shared" si="9"/>
+        <f>IF((H94+J94+L94+M94+O94)&lt;70,IF((H94+J94+L94+M94+O94)&gt;64,70,(H94+J94+L94+M94+O94)),(H94+J94+L94+M94+O94))</f>
         <v>55</v>
       </c>
     </row>
@@ -5286,19 +5297,19 @@
         <v>200</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N95)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E95" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N95)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N95)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G95" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N95)&gt;=51,IF((N95-50)&gt;50,50,IF((N95-50)&lt;0,0,(N95-50))), "" )</f>
         <v>47</v>
       </c>
       <c r="H95">
@@ -5317,7 +5328,7 @@
         <v>30</v>
       </c>
       <c r="N95">
-        <f t="shared" si="9"/>
+        <f>IF((H95+J95+L95+M95+O95)&lt;70,IF((H95+J95+L95+M95+O95)&gt;64,70,(H95+J95+L95+M95+O95)),(H95+J95+L95+M95+O95))</f>
         <v>97</v>
       </c>
     </row>
@@ -5332,20 +5343,20 @@
         <v>202</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N96)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E96" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N96)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F96" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N96)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G96" s="6">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <f>IF((N96)&gt;=51,IF((N96-50)&gt;50,50,IF((N96-50)&lt;0,0,(N96-50))), "" )</f>
+        <v>20</v>
       </c>
       <c r="H96">
         <v>14</v>
@@ -5359,9 +5370,12 @@
       <c r="L96">
         <v>40</v>
       </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
       <c r="N96">
-        <f t="shared" si="9"/>
-        <v>64</v>
+        <f>IF((H96+J96+L96+M96+O96)&lt;70,IF((H96+J96+L96+M96+O96)&gt;64,70,(H96+J96+L96+M96+O96)),(H96+J96+L96+M96+O96))</f>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5375,19 +5389,19 @@
         <v>204</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N97)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N97)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N97)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G97" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N97)&gt;=51,IF((N97-50)&gt;50,50,IF((N97-50)&lt;0,0,(N97-50))), "" )</f>
         <v>5</v>
       </c>
       <c r="H97">
@@ -5403,7 +5417,7 @@
         <v>35</v>
       </c>
       <c r="N97">
-        <f t="shared" si="9"/>
+        <f>IF((H97+J97+L97+M97+O97)&lt;70,IF((H97+J97+L97+M97+O97)&gt;64,70,(H97+J97+L97+M97+O97)),(H97+J97+L97+M97+O97))</f>
         <v>55</v>
       </c>
     </row>
@@ -5418,19 +5432,19 @@
         <v>206</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N98)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N98)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N98)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G98" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N98)&gt;=51,IF((N98-50)&gt;50,50,IF((N98-50)&lt;0,0,(N98-50))), "" )</f>
         <v>43</v>
       </c>
       <c r="H98">
@@ -5449,7 +5463,7 @@
         <v>30</v>
       </c>
       <c r="N98">
-        <f t="shared" si="9"/>
+        <f>IF((H98+J98+L98+M98+O98)&lt;70,IF((H98+J98+L98+M98+O98)&gt;64,70,(H98+J98+L98+M98+O98)),(H98+J98+L98+M98+O98))</f>
         <v>93</v>
       </c>
     </row>
@@ -5464,26 +5478,26 @@
         <v>208</v>
       </c>
       <c r="D99" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N99)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E99" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N99)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F99" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N99)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G99" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N99)&gt;=51,IF((N99-50)&gt;50,50,IF((N99-50)&lt;0,0,(N99-50))), "" )</f>
         <v/>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="N99">
-        <f t="shared" si="9"/>
+        <f>IF((H99+J99+L99+M99+O99)&lt;70,IF((H99+J99+L99+M99+O99)&gt;64,70,(H99+J99+L99+M99+O99)),(H99+J99+L99+M99+O99))</f>
         <v>0</v>
       </c>
     </row>
@@ -5498,19 +5512,19 @@
         <v>210</v>
       </c>
       <c r="D100" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF((N100)&gt;=50,10,"")</f>
         <v/>
       </c>
       <c r="E100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f>IF((N100)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="F100" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>IF((N100)&gt;=50,20,"")</f>
         <v/>
       </c>
       <c r="G100" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N100)&gt;=51,IF((N100-50)&gt;50,50,IF((N100-50)&lt;0,0,(N100-50))), "" )</f>
         <v/>
       </c>
       <c r="H100">
@@ -5520,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="N100">
-        <f t="shared" si="9"/>
+        <f>IF((H100+J100+L100+M100+O100)&lt;70,IF((H100+J100+L100+M100+O100)&gt;64,70,(H100+J100+L100+M100+O100)),(H100+J100+L100+M100+O100))</f>
         <v>18</v>
       </c>
     </row>
@@ -5535,19 +5549,19 @@
         <v>212</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N101)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E101" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N101)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N101)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G101" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N101)&gt;=51,IF((N101-50)&gt;50,50,IF((N101-50)&lt;0,0,(N101-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H101">
@@ -5566,7 +5580,7 @@
         <v>20</v>
       </c>
       <c r="N101">
-        <f t="shared" si="9"/>
+        <f>IF((H101+J101+L101+M101+O101)&lt;70,IF((H101+J101+L101+M101+O101)&gt;64,70,(H101+J101+L101+M101+O101)),(H101+J101+L101+M101+O101))</f>
         <v>70</v>
       </c>
     </row>
@@ -5581,19 +5595,19 @@
         <v>214</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N102)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E102" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N102)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N102)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G102" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N102)&gt;=51,IF((N102-50)&gt;50,50,IF((N102-50)&lt;0,0,(N102-50))), "" )</f>
         <v>20</v>
       </c>
       <c r="H102">
@@ -5609,7 +5623,7 @@
         <v>35</v>
       </c>
       <c r="N102">
-        <f t="shared" si="9"/>
+        <f>IF((H102+J102+L102+M102+O102)&lt;70,IF((H102+J102+L102+M102+O102)&gt;64,70,(H102+J102+L102+M102+O102)),(H102+J102+L102+M102+O102))</f>
         <v>70</v>
       </c>
     </row>
@@ -5624,19 +5638,19 @@
         <v>216</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N103)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E103" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N103)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F103" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N103)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G103" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N103)&gt;=51,IF((N103-50)&gt;50,50,IF((N103-50)&lt;0,0,(N103-50))), "" )</f>
         <v>3</v>
       </c>
       <c r="H103">
@@ -5652,7 +5666,7 @@
         <v>29</v>
       </c>
       <c r="N103">
-        <f t="shared" si="9"/>
+        <f>IF((H103+J103+L103+M103+O103)&lt;70,IF((H103+J103+L103+M103+O103)&gt;64,70,(H103+J103+L103+M103+O103)),(H103+J103+L103+M103+O103))</f>
         <v>53</v>
       </c>
     </row>
@@ -5667,19 +5681,19 @@
         <v>218</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N104)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E104" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N104)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N104)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G104" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF((N104)&gt;=51,IF((N104-50)&gt;50,50,IF((N104-50)&lt;0,0,(N104-50))), "" )</f>
         <v/>
       </c>
       <c r="H104">
@@ -5695,7 +5709,7 @@
         <v>20</v>
       </c>
       <c r="N104">
-        <f t="shared" si="9"/>
+        <f>IF((H104+J104+L104+M104+O104)&lt;70,IF((H104+J104+L104+M104+O104)&gt;64,70,(H104+J104+L104+M104+O104)),(H104+J104+L104+M104+O104))</f>
         <v>50</v>
       </c>
     </row>
@@ -5710,19 +5724,19 @@
         <v>220</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N105)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E105" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N105)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N105)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N105)&gt;=51,IF((N105-50)&gt;50,50,IF((N105-50)&lt;0,0,(N105-50))), "" )</f>
         <v>40</v>
       </c>
       <c r="H105">
@@ -5741,7 +5755,7 @@
         <v>30</v>
       </c>
       <c r="N105">
-        <f t="shared" si="9"/>
+        <f>IF((H105+J105+L105+M105+O105)&lt;70,IF((H105+J105+L105+M105+O105)&gt;64,70,(H105+J105+L105+M105+O105)),(H105+J105+L105+M105+O105))</f>
         <v>90</v>
       </c>
     </row>
@@ -5756,19 +5770,19 @@
         <v>222</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="5"/>
+        <f>IF((N106)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E106" s="2">
-        <f t="shared" si="6"/>
+        <f>IF((N106)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="7"/>
+        <f>IF((N106)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G106" s="6">
-        <f t="shared" si="8"/>
+        <f>IF((N106)&gt;=51,IF((N106-50)&gt;50,50,IF((N106-50)&lt;0,0,(N106-50))), "" )</f>
         <v>26</v>
       </c>
       <c r="H106">
@@ -5787,7 +5801,7 @@
         <v>20</v>
       </c>
       <c r="N106">
-        <f t="shared" si="9"/>
+        <f>IF((H106+J106+L106+M106+O106)&lt;70,IF((H106+J106+L106+M106+O106)&gt;64,70,(H106+J106+L106+M106+O106)),(H106+J106+L106+M106+O106))</f>
         <v>76</v>
       </c>
     </row>
@@ -5802,6 +5816,9 @@
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
+    <sortState ref="A2:O106">
+      <sortCondition ref="A1"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OYM/_DocumentosComunes/PEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/PEstructurada.xlsx
@@ -1269,8 +1269,8 @@
   <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1347,19 +1347,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <f>IF((N2)&gt;=50,10,"")</f>
+        <f t="shared" ref="D2:D33" si="0">IF((N2)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E2" s="2">
-        <f>IF((N2)&gt;=50,20,"")</f>
+        <f t="shared" ref="E2:E33" si="1">IF((N2)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <f>IF((N2)&gt;=50,20,"")</f>
+        <f t="shared" ref="F2:F33" si="2">IF((N2)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G2" s="6">
-        <f>IF((N2)&gt;=51,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
+        <f t="shared" ref="G2:G33" si="3">IF((N2)&gt;=51,IF((N2-50)&gt;50,50,IF((N2-50)&lt;0,0,(N2-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H2">
@@ -1379,7 +1379,7 @@
         <v>30</v>
       </c>
       <c r="N2">
-        <f>IF((H2+J2+L2+M2+O2)&lt;70,IF((H2+J2+L2+M2+O2)&gt;64,70,(H2+J2+L2+M2+O2)),(H2+J2+L2+M2+O2))</f>
+        <f t="shared" ref="N2:N33" si="4">IF((H2+J2+L2+M2+O2)&lt;70,IF((H2+J2+L2+M2+O2)&gt;64,70,(H2+J2+L2+M2+O2)),(H2+J2+L2+M2+O2))</f>
         <v>110</v>
       </c>
       <c r="O2">
@@ -1397,19 +1397,19 @@
         <v>16</v>
       </c>
       <c r="D3" s="6">
-        <f>IF((N3)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <f>IF((N3)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f>IF((N3)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G3" s="6">
-        <f>IF((N3)&gt;=51,IF((N3-50)&gt;50,50,IF((N3-50)&lt;0,0,(N3-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="H3">
@@ -1428,7 +1428,7 @@
         <v>20</v>
       </c>
       <c r="N3">
-        <f>IF((H3+J3+L3+M3+O3)&lt;70,IF((H3+J3+L3+M3+O3)&gt;64,70,(H3+J3+L3+M3+O3)),(H3+J3+L3+M3+O3))</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
@@ -1443,19 +1443,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="6">
-        <f>IF((N4)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <f>IF((N4)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f>IF((N4)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G4" s="6">
-        <f>IF((N4)&gt;=51,IF((N4-50)&gt;50,50,IF((N4-50)&lt;0,0,(N4-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="H4">
@@ -1474,7 +1474,7 @@
         <v>30</v>
       </c>
       <c r="N4">
-        <f>IF((H4+J4+L4+M4+O4)&lt;70,IF((H4+J4+L4+M4+O4)&gt;64,70,(H4+J4+L4+M4+O4)),(H4+J4+L4+M4+O4))</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
     </row>
@@ -1489,19 +1489,19 @@
         <v>20</v>
       </c>
       <c r="D5" s="6">
-        <f>IF((N5)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <f>IF((N5)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <f>IF((N5)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G5" s="6">
-        <f>IF((N5)&gt;=51,IF((N5-50)&gt;50,50,IF((N5-50)&lt;0,0,(N5-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H5">
@@ -1517,7 +1517,7 @@
         <v>40</v>
       </c>
       <c r="N5">
-        <f>IF((H5+J5+L5+M5+O5)&lt;70,IF((H5+J5+L5+M5+O5)&gt;64,70,(H5+J5+L5+M5+O5)),(H5+J5+L5+M5+O5))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1532,19 +1532,19 @@
         <v>22</v>
       </c>
       <c r="D6" s="6" t="str">
-        <f>IF((N6)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E6" s="2" t="str">
-        <f>IF((N6)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F6" s="2" t="str">
-        <f>IF((N6)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G6" s="6" t="str">
-        <f>IF((N6)&gt;=51,IF((N6-50)&gt;50,50,IF((N6-50)&lt;0,0,(N6-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I6" s="16"/>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <f>IF((H6+J6+L6+M6+O6)&lt;70,IF((H6+J6+L6+M6+O6)&gt;64,70,(H6+J6+L6+M6+O6)),(H6+J6+L6+M6+O6))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1567,19 +1567,19 @@
         <v>24</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f>IF((N7)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E7" s="2" t="str">
-        <f>IF((N7)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F7" s="2" t="str">
-        <f>IF((N7)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G7" s="6" t="str">
-        <f>IF((N7)&gt;=51,IF((N7-50)&gt;50,50,IF((N7-50)&lt;0,0,(N7-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J7">
@@ -1592,7 +1592,7 @@
         <v>30</v>
       </c>
       <c r="N7">
-        <f>IF((H7+J7+L7+M7+O7)&lt;70,IF((H7+J7+L7+M7+O7)&gt;64,70,(H7+J7+L7+M7+O7)),(H7+J7+L7+M7+O7))</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
     </row>
@@ -1607,19 +1607,19 @@
         <v>26</v>
       </c>
       <c r="D8" s="6" t="str">
-        <f>IF((N8)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E8" s="2" t="str">
-        <f>IF((N8)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F8" s="2" t="str">
-        <f>IF((N8)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G8" s="6" t="str">
-        <f>IF((N8)&gt;=51,IF((N8-50)&gt;50,50,IF((N8-50)&lt;0,0,(N8-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H8">
@@ -1629,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <f>IF((H8+J8+L8+M8+O8)&lt;70,IF((H8+J8+L8+M8+O8)&gt;64,70,(H8+J8+L8+M8+O8)),(H8+J8+L8+M8+O8))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -1644,19 +1644,19 @@
         <v>28</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f>IF((N9)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E9" s="2" t="str">
-        <f>IF((N9)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F9" s="2" t="str">
-        <f>IF((N9)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G9" s="6" t="str">
-        <f>IF((N9)&gt;=51,IF((N9-50)&gt;50,50,IF((N9-50)&lt;0,0,(N9-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H9">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <f>IF((H9+J9+L9+M9+O9)&lt;70,IF((H9+J9+L9+M9+O9)&gt;64,70,(H9+J9+L9+M9+O9)),(H9+J9+L9+M9+O9))</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>
@@ -1681,26 +1681,26 @@
         <v>30</v>
       </c>
       <c r="D10" s="6" t="str">
-        <f>IF((N10)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E10" s="2" t="str">
-        <f>IF((N10)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F10" s="2" t="str">
-        <f>IF((N10)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G10" s="6" t="str">
-        <f>IF((N10)&gt;=51,IF((N10-50)&gt;50,50,IF((N10-50)&lt;0,0,(N10-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="N10">
-        <f>IF((H10+J10+L10+M10+O10)&lt;70,IF((H10+J10+L10+M10+O10)&gt;64,70,(H10+J10+L10+M10+O10)),(H10+J10+L10+M10+O10))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1715,19 +1715,19 @@
         <v>32</v>
       </c>
       <c r="D11" s="6" t="str">
-        <f>IF((N11)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E11" s="2" t="str">
-        <f>IF((N11)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F11" s="2" t="str">
-        <f>IF((N11)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G11" s="6" t="str">
-        <f>IF((N11)&gt;=51,IF((N11-50)&gt;50,50,IF((N11-50)&lt;0,0,(N11-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H11">
@@ -1743,7 +1743,7 @@
         <v>20</v>
       </c>
       <c r="N11">
-        <f>IF((H11+J11+L11+M11+O11)&lt;70,IF((H11+J11+L11+M11+O11)&gt;64,70,(H11+J11+L11+M11+O11)),(H11+J11+L11+M11+O11))</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
@@ -1758,19 +1758,19 @@
         <v>34</v>
       </c>
       <c r="D12" s="6">
-        <f>IF((N12)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E12" s="2">
-        <f>IF((N12)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F12" s="2">
-        <f>IF((N12)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G12" s="6">
-        <f>IF((N12)&gt;=51,IF((N12-50)&gt;50,50,IF((N12-50)&lt;0,0,(N12-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H12">
@@ -1789,7 +1789,7 @@
         <v>20</v>
       </c>
       <c r="N12">
-        <f>IF((H12+J12+L12+M12+O12)&lt;70,IF((H12+J12+L12+M12+O12)&gt;64,70,(H12+J12+L12+M12+O12)),(H12+J12+L12+M12+O12))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -1804,20 +1804,20 @@
         <v>36</v>
       </c>
       <c r="D13" s="6">
-        <f>IF((N13)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E13" s="2">
-        <f>IF((N13)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F13" s="2">
-        <f>IF((N13)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G13" s="6">
-        <f>IF((N13)&gt;=51,IF((N13-50)&gt;50,50,IF((N13-50)&lt;0,0,(N13-50))), "" )</f>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>16</v>
@@ -1831,9 +1831,12 @@
       <c r="L13">
         <v>38</v>
       </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
       <c r="N13">
-        <f>IF((H13+J13+L13+M13+O13)&lt;70,IF((H13+J13+L13+M13+O13)&gt;64,70,(H13+J13+L13+M13+O13)),(H13+J13+L13+M13+O13))</f>
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1847,19 +1850,19 @@
         <v>38</v>
       </c>
       <c r="D14" s="6" t="str">
-        <f>IF((N14)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E14" s="2" t="str">
-        <f>IF((N14)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F14" s="2" t="str">
-        <f>IF((N14)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G14" s="6" t="str">
-        <f>IF((N14)&gt;=51,IF((N14-50)&gt;50,50,IF((N14-50)&lt;0,0,(N14-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H14">
@@ -1869,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <f>IF((H14+J14+L14+M14+O14)&lt;70,IF((H14+J14+L14+M14+O14)&gt;64,70,(H14+J14+L14+M14+O14)),(H14+J14+L14+M14+O14))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -1884,19 +1887,19 @@
         <v>40</v>
       </c>
       <c r="D15" s="6">
-        <f>IF((N15)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E15" s="2">
-        <f>IF((N15)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F15" s="2">
-        <f>IF((N15)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G15" s="6">
-        <f>IF((N15)&gt;=51,IF((N15-50)&gt;50,50,IF((N15-50)&lt;0,0,(N15-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H15">
@@ -1912,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="N15">
-        <f>IF((H15+J15+L15+M15+O15)&lt;70,IF((H15+J15+L15+M15+O15)&gt;64,70,(H15+J15+L15+M15+O15)),(H15+J15+L15+M15+O15))</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
     </row>
@@ -1927,19 +1930,19 @@
         <v>42</v>
       </c>
       <c r="D16" s="6" t="str">
-        <f>IF((N16)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E16" s="2" t="str">
-        <f>IF((N16)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F16" s="2" t="str">
-        <f>IF((N16)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G16" s="6" t="str">
-        <f>IF((N16)&gt;=51,IF((N16-50)&gt;50,50,IF((N16-50)&lt;0,0,(N16-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H16">
@@ -1949,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <f>IF((H16+J16+L16+M16+O16)&lt;70,IF((H16+J16+L16+M16+O16)&gt;64,70,(H16+J16+L16+M16+O16)),(H16+J16+L16+M16+O16))</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -1964,19 +1967,19 @@
         <v>44</v>
       </c>
       <c r="D17" s="6">
-        <f>IF((N17)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E17" s="2">
-        <f>IF((N17)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F17" s="2">
-        <f>IF((N17)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G17" s="6">
-        <f>IF((N17)&gt;=51,IF((N17-50)&gt;50,50,IF((N17-50)&lt;0,0,(N17-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="H17">
@@ -1995,7 +1998,7 @@
         <v>15</v>
       </c>
       <c r="N17">
-        <f>IF((H17+J17+L17+M17+O17)&lt;70,IF((H17+J17+L17+M17+O17)&gt;64,70,(H17+J17+L17+M17+O17)),(H17+J17+L17+M17+O17))</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
     </row>
@@ -2010,26 +2013,26 @@
         <v>46</v>
       </c>
       <c r="D18" s="6" t="str">
-        <f>IF((N18)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E18" s="2" t="str">
-        <f>IF((N18)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F18" s="2" t="str">
-        <f>IF((N18)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G18" s="6" t="str">
-        <f>IF((N18)&gt;=51,IF((N18-50)&gt;50,50,IF((N18-50)&lt;0,0,(N18-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="N18">
-        <f>IF((H18+J18+L18+M18+O18)&lt;70,IF((H18+J18+L18+M18+O18)&gt;64,70,(H18+J18+L18+M18+O18)),(H18+J18+L18+M18+O18))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2044,26 +2047,26 @@
         <v>48</v>
       </c>
       <c r="D19" s="6" t="str">
-        <f>IF((N19)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E19" s="2" t="str">
-        <f>IF((N19)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F19" s="2" t="str">
-        <f>IF((N19)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G19" s="6" t="str">
-        <f>IF((N19)&gt;=51,IF((N19-50)&gt;50,50,IF((N19-50)&lt;0,0,(N19-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="N19">
-        <f>IF((H19+J19+L19+M19+O19)&lt;70,IF((H19+J19+L19+M19+O19)&gt;64,70,(H19+J19+L19+M19+O19)),(H19+J19+L19+M19+O19))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2078,19 +2081,19 @@
         <v>50</v>
       </c>
       <c r="D20" s="6">
-        <f>IF((N20)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <f>IF((N20)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F20" s="2">
-        <f>IF((N20)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G20" s="6">
-        <f>IF((N20)&gt;=51,IF((N20-50)&gt;50,50,IF((N20-50)&lt;0,0,(N20-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H20">
@@ -2106,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="N20">
-        <f>IF((H20+J20+L20+M20+O20)&lt;70,IF((H20+J20+L20+M20+O20)&gt;64,70,(H20+J20+L20+M20+O20)),(H20+J20+L20+M20+O20))</f>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
     </row>
@@ -2121,19 +2124,19 @@
         <v>52</v>
       </c>
       <c r="D21" s="6" t="str">
-        <f>IF((N21)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E21" s="2" t="str">
-        <f>IF((N21)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F21" s="2" t="str">
-        <f>IF((N21)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G21" s="6" t="str">
-        <f>IF((N21)&gt;=51,IF((N21-50)&gt;50,50,IF((N21-50)&lt;0,0,(N21-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H21">
@@ -2146,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IF((H21+J21+L21+M21+O21)&lt;70,IF((H21+J21+L21+M21+O21)&gt;64,70,(H21+J21+L21+M21+O21)),(H21+J21+L21+M21+O21))</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
@@ -2161,19 +2164,19 @@
         <v>54</v>
       </c>
       <c r="D22" s="6">
-        <f>IF((N22)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <f>IF((N22)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F22" s="2">
-        <f>IF((N22)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G22" s="6">
-        <f>IF((N22)&gt;=51,IF((N22-50)&gt;50,50,IF((N22-50)&lt;0,0,(N22-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="H22">
@@ -2192,7 +2195,7 @@
         <v>20</v>
       </c>
       <c r="N22">
-        <f>IF((H22+J22+L22+M22+O22)&lt;70,IF((H22+J22+L22+M22+O22)&gt;64,70,(H22+J22+L22+M22+O22)),(H22+J22+L22+M22+O22))</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
     </row>
@@ -2207,19 +2210,19 @@
         <v>56</v>
       </c>
       <c r="D23" s="6">
-        <f>IF((N23)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <f>IF((N23)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F23" s="2">
-        <f>IF((N23)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G23" s="6">
-        <f>IF((N23)&gt;=51,IF((N23-50)&gt;50,50,IF((N23-50)&lt;0,0,(N23-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="H23">
@@ -2229,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <f>IF((H23+J23+L23+M23+O23)&lt;70,IF((H23+J23+L23+M23+O23)&gt;64,70,(H23+J23+L23+M23+O23)),(H23+J23+L23+M23+O23))</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
     </row>
@@ -2244,19 +2247,19 @@
         <v>58</v>
       </c>
       <c r="D24" s="14">
-        <f>IF((N24)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E24" s="15">
-        <f>IF((N24)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F24" s="15">
-        <f>IF((N24)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G24" s="14">
-        <f>IF((N24)&gt;=51,IF((N24-50)&gt;50,50,IF((N24-50)&lt;0,0,(N24-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="H24" s="3">
@@ -2275,7 +2278,7 @@
         <v>25</v>
       </c>
       <c r="N24" s="3">
-        <f>IF((H24+J24+L24+M24+O24)&lt;70,IF((H24+J24+L24+M24+O24)&gt;64,70,(H24+J24+L24+M24+O24)),(H24+J24+L24+M24+O24))</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
     </row>
@@ -2290,19 +2293,19 @@
         <v>60</v>
       </c>
       <c r="D25" s="6">
-        <f>IF((N25)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E25" s="2">
-        <f>IF((N25)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F25" s="2">
-        <f>IF((N25)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G25" s="6">
-        <f>IF((N25)&gt;=51,IF((N25-50)&gt;50,50,IF((N25-50)&lt;0,0,(N25-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="H25">
@@ -2321,7 +2324,7 @@
         <v>30</v>
       </c>
       <c r="N25">
-        <f>IF((H25+J25+L25+M25+O25)&lt;70,IF((H25+J25+L25+M25+O25)&gt;64,70,(H25+J25+L25+M25+O25)),(H25+J25+L25+M25+O25))</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
     </row>
@@ -2336,26 +2339,26 @@
         <v>62</v>
       </c>
       <c r="D26" s="6" t="str">
-        <f>IF((N26)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E26" s="2" t="str">
-        <f>IF((N26)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F26" s="2" t="str">
-        <f>IF((N26)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G26" s="6" t="str">
-        <f>IF((N26)&gt;=51,IF((N26-50)&gt;50,50,IF((N26-50)&lt;0,0,(N26-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f>IF((H26+J26+L26+M26+O26)&lt;70,IF((H26+J26+L26+M26+O26)&gt;64,70,(H26+J26+L26+M26+O26)),(H26+J26+L26+M26+O26))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2370,19 +2373,19 @@
         <v>64</v>
       </c>
       <c r="D27" s="6">
-        <f>IF((N27)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E27" s="2">
-        <f>IF((N27)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F27" s="2">
-        <f>IF((N27)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G27" s="6">
-        <f>IF((N27)&gt;=51,IF((N27-50)&gt;50,50,IF((N27-50)&lt;0,0,(N27-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H27">
@@ -2398,7 +2401,7 @@
         <v>39</v>
       </c>
       <c r="N27">
-        <f>IF((H27+J27+L27+M27+O27)&lt;70,IF((H27+J27+L27+M27+O27)&gt;64,70,(H27+J27+L27+M27+O27)),(H27+J27+L27+M27+O27))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2413,19 +2416,19 @@
         <v>66</v>
       </c>
       <c r="D28" s="6">
-        <f>IF((N28)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E28" s="2">
-        <f>IF((N28)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F28" s="2">
-        <f>IF((N28)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G28" s="6">
-        <f>IF((N28)&gt;=51,IF((N28-50)&gt;50,50,IF((N28-50)&lt;0,0,(N28-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="H28">
@@ -2444,7 +2447,7 @@
         <v>30</v>
       </c>
       <c r="N28">
-        <f>IF((H28+J28+L28+M28+O28)&lt;70,IF((H28+J28+L28+M28+O28)&gt;64,70,(H28+J28+L28+M28+O28)),(H28+J28+L28+M28+O28))</f>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
     </row>
@@ -2459,19 +2462,19 @@
         <v>68</v>
       </c>
       <c r="D29" s="6">
-        <f>IF((N29)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E29" s="2">
-        <f>IF((N29)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F29" s="2">
-        <f>IF((N29)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G29" s="6">
-        <f>IF((N29)&gt;=51,IF((N29-50)&gt;50,50,IF((N29-50)&lt;0,0,(N29-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J29">
@@ -2487,7 +2490,7 @@
         <v>25</v>
       </c>
       <c r="N29">
-        <f>IF((H29+J29+L29+M29+O29)&lt;70,IF((H29+J29+L29+M29+O29)&gt;64,70,(H29+J29+L29+M29+O29)),(H29+J29+L29+M29+O29))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2502,19 +2505,19 @@
         <v>70</v>
       </c>
       <c r="D30" s="6">
-        <f>IF((N30)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E30" s="2">
-        <f>IF((N30)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F30" s="2">
-        <f>IF((N30)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G30" s="6">
-        <f>IF((N30)&gt;=51,IF((N30-50)&gt;50,50,IF((N30-50)&lt;0,0,(N30-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H30">
@@ -2530,7 +2533,7 @@
         <v>40</v>
       </c>
       <c r="N30">
-        <f>IF((H30+J30+L30+M30+O30)&lt;70,IF((H30+J30+L30+M30+O30)&gt;64,70,(H30+J30+L30+M30+O30)),(H30+J30+L30+M30+O30))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2545,19 +2548,19 @@
         <v>72</v>
       </c>
       <c r="D31" s="6" t="str">
-        <f>IF((N31)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E31" s="2" t="str">
-        <f>IF((N31)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F31" s="2" t="str">
-        <f>IF((N31)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G31" s="6" t="str">
-        <f>IF((N31)&gt;=51,IF((N31-50)&gt;50,50,IF((N31-50)&lt;0,0,(N31-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H31">
@@ -2567,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <f>IF((H31+J31+L31+M31+O31)&lt;70,IF((H31+J31+L31+M31+O31)&gt;64,70,(H31+J31+L31+M31+O31)),(H31+J31+L31+M31+O31))</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -2582,19 +2585,19 @@
         <v>74</v>
       </c>
       <c r="D32" s="6">
-        <f>IF((N32)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E32" s="2">
-        <f>IF((N32)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F32" s="2">
-        <f>IF((N32)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G32" s="6">
-        <f>IF((N32)&gt;=51,IF((N32-50)&gt;50,50,IF((N32-50)&lt;0,0,(N32-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H32">
@@ -2610,7 +2613,7 @@
         <v>40</v>
       </c>
       <c r="N32">
-        <f>IF((H32+J32+L32+M32+O32)&lt;70,IF((H32+J32+L32+M32+O32)&gt;64,70,(H32+J32+L32+M32+O32)),(H32+J32+L32+M32+O32))</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
     </row>
@@ -2625,19 +2628,19 @@
         <v>76</v>
       </c>
       <c r="D33" s="6">
-        <f>IF((N33)&gt;=50,10,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E33" s="2">
-        <f>IF((N33)&gt;=50,20,"")</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F33" s="2">
-        <f>IF((N33)&gt;=50,20,"")</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G33" s="6" t="str">
-        <f>IF((N33)&gt;=51,IF((N33-50)&gt;50,50,IF((N33-50)&lt;0,0,(N33-50))), "" )</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H33">
@@ -2653,7 +2656,7 @@
         <v>20</v>
       </c>
       <c r="N33">
-        <f>IF((H33+J33+L33+M33+O33)&lt;70,IF((H33+J33+L33+M33+O33)&gt;64,70,(H33+J33+L33+M33+O33)),(H33+J33+L33+M33+O33))</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
@@ -2668,19 +2671,19 @@
         <v>78</v>
       </c>
       <c r="D34" s="6">
-        <f>IF((N34)&gt;=50,10,"")</f>
+        <f t="shared" ref="D34:D65" si="5">IF((N34)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E34" s="2">
-        <f>IF((N34)&gt;=50,20,"")</f>
+        <f t="shared" ref="E34:E65" si="6">IF((N34)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F34" s="2">
-        <f>IF((N34)&gt;=50,20,"")</f>
+        <f t="shared" ref="F34:F65" si="7">IF((N34)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G34" s="6">
-        <f>IF((N34)&gt;=51,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
+        <f t="shared" ref="G34:G65" si="8">IF((N34)&gt;=51,IF((N34-50)&gt;50,50,IF((N34-50)&lt;0,0,(N34-50))), "" )</f>
         <v>38</v>
       </c>
       <c r="H34">
@@ -2699,7 +2702,7 @@
         <v>25</v>
       </c>
       <c r="N34">
-        <f>IF((H34+J34+L34+M34+O34)&lt;70,IF((H34+J34+L34+M34+O34)&gt;64,70,(H34+J34+L34+M34+O34)),(H34+J34+L34+M34+O34))</f>
+        <f t="shared" ref="N34:N65" si="9">IF((H34+J34+L34+M34+O34)&lt;70,IF((H34+J34+L34+M34+O34)&gt;64,70,(H34+J34+L34+M34+O34)),(H34+J34+L34+M34+O34))</f>
         <v>88</v>
       </c>
     </row>
@@ -2714,19 +2717,19 @@
         <v>80</v>
       </c>
       <c r="D35" s="6">
-        <f>IF((N35)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E35" s="2">
-        <f>IF((N35)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F35" s="2">
-        <f>IF((N35)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G35" s="6">
-        <f>IF((N35)&gt;=51,IF((N35-50)&gt;50,50,IF((N35-50)&lt;0,0,(N35-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="H35">
@@ -2745,7 +2748,7 @@
         <v>30</v>
       </c>
       <c r="N35">
-        <f>IF((H35+J35+L35+M35+O35)&lt;70,IF((H35+J35+L35+M35+O35)&gt;64,70,(H35+J35+L35+M35+O35)),(H35+J35+L35+M35+O35))</f>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
     </row>
@@ -2760,19 +2763,19 @@
         <v>82</v>
       </c>
       <c r="D36" s="6" t="str">
-        <f>IF((N36)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E36" s="2" t="str">
-        <f>IF((N36)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F36" s="2" t="str">
-        <f>IF((N36)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G36" s="6" t="str">
-        <f>IF((N36)&gt;=51,IF((N36-50)&gt;50,50,IF((N36-50)&lt;0,0,(N36-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H36">
@@ -2782,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <f>IF((H36+J36+L36+M36+O36)&lt;70,IF((H36+J36+L36+M36+O36)&gt;64,70,(H36+J36+L36+M36+O36)),(H36+J36+L36+M36+O36))</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
     </row>
@@ -2797,19 +2800,19 @@
         <v>84</v>
       </c>
       <c r="D37" s="6" t="str">
-        <f>IF((N37)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E37" s="2" t="str">
-        <f>IF((N37)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F37" s="2" t="str">
-        <f>IF((N37)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G37" s="6" t="str">
-        <f>IF((N37)&gt;=51,IF((N37-50)&gt;50,50,IF((N37-50)&lt;0,0,(N37-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H37">
@@ -2822,7 +2825,7 @@
         <v>20</v>
       </c>
       <c r="N37">
-        <f>IF((H37+J37+L37+M37+O37)&lt;70,IF((H37+J37+L37+M37+O37)&gt;64,70,(H37+J37+L37+M37+O37)),(H37+J37+L37+M37+O37))</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
     </row>
@@ -2837,19 +2840,19 @@
         <v>86</v>
       </c>
       <c r="D38" s="6">
-        <f>IF((N38)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E38" s="2">
-        <f>IF((N38)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F38" s="2">
-        <f>IF((N38)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G38" s="6">
-        <f>IF((N38)&gt;=51,IF((N38-50)&gt;50,50,IF((N38-50)&lt;0,0,(N38-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="H38">
@@ -2868,7 +2871,7 @@
         <v>25</v>
       </c>
       <c r="N38">
-        <f>IF((H38+J38+L38+M38+O38)&lt;70,IF((H38+J38+L38+M38+O38)&gt;64,70,(H38+J38+L38+M38+O38)),(H38+J38+L38+M38+O38))</f>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
     </row>
@@ -2883,19 +2886,19 @@
         <v>88</v>
       </c>
       <c r="D39" s="6" t="str">
-        <f>IF((N39)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E39" s="2" t="str">
-        <f>IF((N39)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F39" s="2" t="str">
-        <f>IF((N39)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G39" s="6" t="str">
-        <f>IF((N39)&gt;=51,IF((N39-50)&gt;50,50,IF((N39-50)&lt;0,0,(N39-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H39">
@@ -2905,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <f>IF((H39+J39+L39+M39+O39)&lt;70,IF((H39+J39+L39+M39+O39)&gt;64,70,(H39+J39+L39+M39+O39)),(H39+J39+L39+M39+O39))</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
@@ -2920,19 +2923,19 @@
         <v>90</v>
       </c>
       <c r="D40" s="6">
-        <f>IF((N40)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E40" s="2">
-        <f>IF((N40)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F40" s="2">
-        <f>IF((N40)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G40" s="6">
-        <f>IF((N40)&gt;=51,IF((N40-50)&gt;50,50,IF((N40-50)&lt;0,0,(N40-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="H40">
@@ -2948,7 +2951,7 @@
         <v>35</v>
       </c>
       <c r="N40">
-        <f>IF((H40+J40+L40+M40+O40)&lt;70,IF((H40+J40+L40+M40+O40)&gt;64,70,(H40+J40+L40+M40+O40)),(H40+J40+L40+M40+O40))</f>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
     </row>
@@ -2963,19 +2966,19 @@
         <v>92</v>
       </c>
       <c r="D41" s="6">
-        <f>IF((N41)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E41" s="2">
-        <f>IF((N41)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F41" s="2">
-        <f>IF((N41)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G41" s="6">
-        <f>IF((N41)&gt;=51,IF((N41-50)&gt;50,50,IF((N41-50)&lt;0,0,(N41-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="H41">
@@ -2994,7 +2997,7 @@
         <v>30</v>
       </c>
       <c r="N41">
-        <f>IF((H41+J41+L41+M41+O41)&lt;70,IF((H41+J41+L41+M41+O41)&gt;64,70,(H41+J41+L41+M41+O41)),(H41+J41+L41+M41+O41))</f>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
     </row>
@@ -3009,19 +3012,19 @@
         <v>94</v>
       </c>
       <c r="D42" s="6">
-        <f>IF((N42)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E42" s="2">
-        <f>IF((N42)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F42" s="2">
-        <f>IF((N42)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G42" s="6">
-        <f>IF((N42)&gt;=51,IF((N42-50)&gt;50,50,IF((N42-50)&lt;0,0,(N42-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="H42">
@@ -3037,7 +3040,7 @@
         <v>30</v>
       </c>
       <c r="N42">
-        <f>IF((H42+J42+L42+M42+O42)&lt;70,IF((H42+J42+L42+M42+O42)&gt;64,70,(H42+J42+L42+M42+O42)),(H42+J42+L42+M42+O42))</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -3052,19 +3055,19 @@
         <v>96</v>
       </c>
       <c r="D43" s="6">
-        <f>IF((N43)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <f>IF((N43)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F43" s="2">
-        <f>IF((N43)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G43" s="6">
-        <f>IF((N43)&gt;=51,IF((N43-50)&gt;50,50,IF((N43-50)&lt;0,0,(N43-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="H43">
@@ -3080,7 +3083,7 @@
         <v>38</v>
       </c>
       <c r="N43">
-        <f>IF((H43+J43+L43+M43+O43)&lt;70,IF((H43+J43+L43+M43+O43)&gt;64,70,(H43+J43+L43+M43+O43)),(H43+J43+L43+M43+O43))</f>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
     </row>
@@ -3095,19 +3098,19 @@
         <v>98</v>
       </c>
       <c r="D44" s="6">
-        <f>IF((N44)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E44" s="2">
-        <f>IF((N44)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F44" s="2">
-        <f>IF((N44)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G44" s="6">
-        <f>IF((N44)&gt;=51,IF((N44-50)&gt;50,50,IF((N44-50)&lt;0,0,(N44-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="H44">
@@ -3126,7 +3129,7 @@
         <v>30</v>
       </c>
       <c r="N44">
-        <f>IF((H44+J44+L44+M44+O44)&lt;70,IF((H44+J44+L44+M44+O44)&gt;64,70,(H44+J44+L44+M44+O44)),(H44+J44+L44+M44+O44))</f>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
     </row>
@@ -3141,19 +3144,19 @@
         <v>100</v>
       </c>
       <c r="D45" s="6" t="str">
-        <f>IF((N45)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E45" s="2" t="str">
-        <f>IF((N45)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F45" s="2" t="str">
-        <f>IF((N45)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G45" s="6" t="str">
-        <f>IF((N45)&gt;=51,IF((N45-50)&gt;50,50,IF((N45-50)&lt;0,0,(N45-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J45">
@@ -3166,7 +3169,7 @@
         <v>38</v>
       </c>
       <c r="N45">
-        <f>IF((H45+J45+L45+M45+O45)&lt;70,IF((H45+J45+L45+M45+O45)&gt;64,70,(H45+J45+L45+M45+O45)),(H45+J45+L45+M45+O45))</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
     </row>
@@ -3181,26 +3184,26 @@
         <v>102</v>
       </c>
       <c r="D46" s="6" t="str">
-        <f>IF((N46)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E46" s="2" t="str">
-        <f>IF((N46)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F46" s="2" t="str">
-        <f>IF((N46)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G46" s="6" t="str">
-        <f>IF((N46)&gt;=51,IF((N46-50)&gt;50,50,IF((N46-50)&lt;0,0,(N46-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="N46">
-        <f>IF((H46+J46+L46+M46+O46)&lt;70,IF((H46+J46+L46+M46+O46)&gt;64,70,(H46+J46+L46+M46+O46)),(H46+J46+L46+M46+O46))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3215,19 +3218,19 @@
         <v>104</v>
       </c>
       <c r="D47" s="6">
-        <f>IF((N47)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E47" s="2">
-        <f>IF((N47)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F47" s="2">
-        <f>IF((N47)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G47" s="6">
-        <f>IF((N47)&gt;=51,IF((N47-50)&gt;50,50,IF((N47-50)&lt;0,0,(N47-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="J47">
@@ -3243,7 +3246,7 @@
         <v>30</v>
       </c>
       <c r="N47">
-        <f>IF((H47+J47+L47+M47+O47)&lt;70,IF((H47+J47+L47+M47+O47)&gt;64,70,(H47+J47+L47+M47+O47)),(H47+J47+L47+M47+O47))</f>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
     </row>
@@ -3258,19 +3261,19 @@
         <v>106</v>
       </c>
       <c r="D48" s="6" t="str">
-        <f>IF((N48)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E48" s="2" t="str">
-        <f>IF((N48)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F48" s="2" t="str">
-        <f>IF((N48)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G48" s="6" t="str">
-        <f>IF((N48)&gt;=51,IF((N48-50)&gt;50,50,IF((N48-50)&lt;0,0,(N48-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H48">
@@ -3286,7 +3289,7 @@
         <v>20</v>
       </c>
       <c r="N48">
-        <f>IF((H48+J48+L48+M48+O48)&lt;70,IF((H48+J48+L48+M48+O48)&gt;64,70,(H48+J48+L48+M48+O48)),(H48+J48+L48+M48+O48))</f>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
     </row>
@@ -3301,20 +3304,20 @@
         <v>108</v>
       </c>
       <c r="D49" s="6">
-        <f>IF((N49)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E49" s="2">
-        <f>IF((N49)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F49" s="2">
-        <f>IF((N49)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G49" s="6">
-        <f>IF((N49)&gt;=51,IF((N49-50)&gt;50,50,IF((N49-50)&lt;0,0,(N49-50))), "" )</f>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
       <c r="H49">
         <v>14</v>
@@ -3328,9 +3331,12 @@
       <c r="L49">
         <v>30</v>
       </c>
+      <c r="M49">
+        <v>10</v>
+      </c>
       <c r="N49">
-        <f>IF((H49+J49+L49+M49+O49)&lt;70,IF((H49+J49+L49+M49+O49)&gt;64,70,(H49+J49+L49+M49+O49)),(H49+J49+L49+M49+O49))</f>
-        <v>62</v>
+        <f t="shared" si="9"/>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3344,19 +3350,19 @@
         <v>110</v>
       </c>
       <c r="D50" s="6" t="str">
-        <f>IF((N50)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E50" s="2" t="str">
-        <f>IF((N50)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F50" s="2" t="str">
-        <f>IF((N50)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G50" s="6" t="str">
-        <f>IF((N50)&gt;=51,IF((N50-50)&gt;50,50,IF((N50-50)&lt;0,0,(N50-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H50">
@@ -3372,7 +3378,7 @@
         <v>20</v>
       </c>
       <c r="N50">
-        <f>IF((H50+J50+L50+M50+O50)&lt;70,IF((H50+J50+L50+M50+O50)&gt;64,70,(H50+J50+L50+M50+O50)),(H50+J50+L50+M50+O50))</f>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
     </row>
@@ -3387,19 +3393,19 @@
         <v>112</v>
       </c>
       <c r="D51" s="6">
-        <f>IF((N51)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E51" s="2">
-        <f>IF((N51)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F51" s="2">
-        <f>IF((N51)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G51" s="6">
-        <f>IF((N51)&gt;=51,IF((N51-50)&gt;50,50,IF((N51-50)&lt;0,0,(N51-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="H51">
@@ -3418,7 +3424,7 @@
         <v>25</v>
       </c>
       <c r="N51">
-        <f>IF((H51+J51+L51+M51+O51)&lt;70,IF((H51+J51+L51+M51+O51)&gt;64,70,(H51+J51+L51+M51+O51)),(H51+J51+L51+M51+O51))</f>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
     </row>
@@ -3433,19 +3439,19 @@
         <v>114</v>
       </c>
       <c r="D52" s="6">
-        <f>IF((N52)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E52" s="2">
-        <f>IF((N52)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F52" s="2">
-        <f>IF((N52)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G52" s="6">
-        <f>IF((N52)&gt;=51,IF((N52-50)&gt;50,50,IF((N52-50)&lt;0,0,(N52-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="H52">
@@ -3464,7 +3470,7 @@
         <v>30</v>
       </c>
       <c r="N52">
-        <f>IF((H52+J52+L52+M52+O52)&lt;70,IF((H52+J52+L52+M52+O52)&gt;64,70,(H52+J52+L52+M52+O52)),(H52+J52+L52+M52+O52))</f>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
     </row>
@@ -3479,19 +3485,19 @@
         <v>116</v>
       </c>
       <c r="D53" s="6" t="str">
-        <f>IF((N53)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E53" s="2" t="str">
-        <f>IF((N53)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F53" s="2" t="str">
-        <f>IF((N53)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G53" s="6" t="str">
-        <f>IF((N53)&gt;=51,IF((N53-50)&gt;50,50,IF((N53-50)&lt;0,0,(N53-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H53">
@@ -3504,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <f>IF((H53+J53+L53+M53+O53)&lt;70,IF((H53+J53+L53+M53+O53)&gt;64,70,(H53+J53+L53+M53+O53)),(H53+J53+L53+M53+O53))</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
@@ -3519,19 +3525,19 @@
         <v>118</v>
       </c>
       <c r="D54" s="6">
-        <f>IF((N54)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E54" s="2">
-        <f>IF((N54)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F54" s="2">
-        <f>IF((N54)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G54" s="6">
-        <f>IF((N54)&gt;=51,IF((N54-50)&gt;50,50,IF((N54-50)&lt;0,0,(N54-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="H54">
@@ -3550,7 +3556,7 @@
         <v>30</v>
       </c>
       <c r="N54">
-        <f>IF((H54+J54+L54+M54+O54)&lt;70,IF((H54+J54+L54+M54+O54)&gt;64,70,(H54+J54+L54+M54+O54)),(H54+J54+L54+M54+O54))</f>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
     </row>
@@ -3565,19 +3571,19 @@
         <v>120</v>
       </c>
       <c r="D55" s="6">
-        <f>IF((N55)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E55" s="2">
-        <f>IF((N55)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F55" s="2">
-        <f>IF((N55)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G55" s="6">
-        <f>IF((N55)&gt;=51,IF((N55-50)&gt;50,50,IF((N55-50)&lt;0,0,(N55-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="J55">
@@ -3593,7 +3599,7 @@
         <v>20</v>
       </c>
       <c r="N55">
-        <f>IF((H55+J55+L55+M55+O55)&lt;70,IF((H55+J55+L55+M55+O55)&gt;64,70,(H55+J55+L55+M55+O55)),(H55+J55+L55+M55+O55))</f>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
     </row>
@@ -3608,19 +3614,19 @@
         <v>122</v>
       </c>
       <c r="D56" s="6">
-        <f>IF((N56)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E56" s="2">
-        <f>IF((N56)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F56" s="2">
-        <f>IF((N56)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G56" s="6">
-        <f>IF((N56)&gt;=51,IF((N56-50)&gt;50,50,IF((N56-50)&lt;0,0,(N56-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="H56">
@@ -3639,7 +3645,7 @@
         <v>20</v>
       </c>
       <c r="N56">
-        <f>IF((H56+J56+L56+M56+O56)&lt;70,IF((H56+J56+L56+M56+O56)&gt;64,70,(H56+J56+L56+M56+O56)),(H56+J56+L56+M56+O56))</f>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
     </row>
@@ -3654,19 +3660,19 @@
         <v>124</v>
       </c>
       <c r="D57" s="6">
-        <f>IF((N57)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E57" s="2">
-        <f>IF((N57)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F57" s="2">
-        <f>IF((N57)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G57" s="6">
-        <f>IF((N57)&gt;=51,IF((N57-50)&gt;50,50,IF((N57-50)&lt;0,0,(N57-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="H57">
@@ -3685,7 +3691,7 @@
         <v>20</v>
       </c>
       <c r="N57">
-        <f>IF((H57+J57+L57+M57+O57)&lt;70,IF((H57+J57+L57+M57+O57)&gt;64,70,(H57+J57+L57+M57+O57)),(H57+J57+L57+M57+O57))</f>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
     </row>
@@ -3700,19 +3706,19 @@
         <v>126</v>
       </c>
       <c r="D58" s="6">
-        <f>IF((N58)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E58" s="2">
-        <f>IF((N58)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F58" s="2">
-        <f>IF((N58)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G58" s="6">
-        <f>IF((N58)&gt;=51,IF((N58-50)&gt;50,50,IF((N58-50)&lt;0,0,(N58-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H58">
@@ -3728,7 +3734,7 @@
         <v>36</v>
       </c>
       <c r="N58">
-        <f>IF((H58+J58+L58+M58+O58)&lt;70,IF((H58+J58+L58+M58+O58)&gt;64,70,(H58+J58+L58+M58+O58)),(H58+J58+L58+M58+O58))</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
     </row>
@@ -3743,19 +3749,19 @@
         <v>128</v>
       </c>
       <c r="D59" s="6">
-        <f>IF((N59)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E59" s="2">
-        <f>IF((N59)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F59" s="2">
-        <f>IF((N59)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G59" s="6">
-        <f>IF((N59)&gt;=51,IF((N59-50)&gt;50,50,IF((N59-50)&lt;0,0,(N59-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H59">
@@ -3771,7 +3777,7 @@
         <v>30</v>
       </c>
       <c r="N59">
-        <f>IF((H59+J59+L59+M59+O59)&lt;70,IF((H59+J59+L59+M59+O59)&gt;64,70,(H59+J59+L59+M59+O59)),(H59+J59+L59+M59+O59))</f>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
     </row>
@@ -3786,19 +3792,19 @@
         <v>130</v>
       </c>
       <c r="D60" s="6">
-        <f>IF((N60)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E60" s="2">
-        <f>IF((N60)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F60" s="2">
-        <f>IF((N60)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G60" s="6">
-        <f>IF((N60)&gt;=51,IF((N60-50)&gt;50,50,IF((N60-50)&lt;0,0,(N60-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="H60">
@@ -3814,7 +3820,7 @@
         <v>38</v>
       </c>
       <c r="N60">
-        <f>IF((H60+J60+L60+M60+O60)&lt;70,IF((H60+J60+L60+M60+O60)&gt;64,70,(H60+J60+L60+M60+O60)),(H60+J60+L60+M60+O60))</f>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
@@ -3829,19 +3835,19 @@
         <v>132</v>
       </c>
       <c r="D61" s="6">
-        <f>IF((N61)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E61" s="2">
-        <f>IF((N61)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F61" s="2">
-        <f>IF((N61)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G61" s="6">
-        <f>IF((N61)&gt;=51,IF((N61-50)&gt;50,50,IF((N61-50)&lt;0,0,(N61-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="H61">
@@ -3860,7 +3866,7 @@
         <v>20</v>
       </c>
       <c r="N61">
-        <f>IF((H61+J61+L61+M61+O61)&lt;70,IF((H61+J61+L61+M61+O61)&gt;64,70,(H61+J61+L61+M61+O61)),(H61+J61+L61+M61+O61))</f>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
     </row>
@@ -3875,19 +3881,19 @@
         <v>134</v>
       </c>
       <c r="D62" s="6">
-        <f>IF((N62)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E62" s="2">
-        <f>IF((N62)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F62" s="2">
-        <f>IF((N62)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G62" s="6">
-        <f>IF((N62)&gt;=51,IF((N62-50)&gt;50,50,IF((N62-50)&lt;0,0,(N62-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="H62">
@@ -3903,7 +3909,7 @@
         <v>39</v>
       </c>
       <c r="N62">
-        <f>IF((H62+J62+L62+M62+O62)&lt;70,IF((H62+J62+L62+M62+O62)&gt;64,70,(H62+J62+L62+M62+O62)),(H62+J62+L62+M62+O62))</f>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
     </row>
@@ -3918,19 +3924,19 @@
         <v>136</v>
       </c>
       <c r="D63" s="6">
-        <f>IF((N63)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E63" s="2">
-        <f>IF((N63)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F63" s="2">
-        <f>IF((N63)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G63" s="6">
-        <f>IF((N63)&gt;=51,IF((N63-50)&gt;50,50,IF((N63-50)&lt;0,0,(N63-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H63">
@@ -3946,7 +3952,7 @@
         <v>30</v>
       </c>
       <c r="N63">
-        <f>IF((H63+J63+L63+M63+O63)&lt;70,IF((H63+J63+L63+M63+O63)&gt;64,70,(H63+J63+L63+M63+O63)),(H63+J63+L63+M63+O63))</f>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
     </row>
@@ -3961,26 +3967,26 @@
         <v>138</v>
       </c>
       <c r="D64" s="6" t="str">
-        <f>IF((N64)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E64" s="2" t="str">
-        <f>IF((N64)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F64" s="2" t="str">
-        <f>IF((N64)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G64" s="6" t="str">
-        <f>IF((N64)&gt;=51,IF((N64-50)&gt;50,50,IF((N64-50)&lt;0,0,(N64-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="N64">
-        <f>IF((H64+J64+L64+M64+O64)&lt;70,IF((H64+J64+L64+M64+O64)&gt;64,70,(H64+J64+L64+M64+O64)),(H64+J64+L64+M64+O64))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3995,19 +4001,19 @@
         <v>140</v>
       </c>
       <c r="D65" s="6">
-        <f>IF((N65)&gt;=50,10,"")</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E65" s="2">
-        <f>IF((N65)&gt;=50,20,"")</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F65" s="2">
-        <f>IF((N65)&gt;=50,20,"")</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="G65" s="6">
-        <f>IF((N65)&gt;=51,IF((N65-50)&gt;50,50,IF((N65-50)&lt;0,0,(N65-50))), "" )</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="H65">
@@ -4026,7 +4032,7 @@
         <v>25</v>
       </c>
       <c r="N65">
-        <f>IF((H65+J65+L65+M65+O65)&lt;70,IF((H65+J65+L65+M65+O65)&gt;64,70,(H65+J65+L65+M65+O65)),(H65+J65+L65+M65+O65))</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
     </row>
@@ -4041,19 +4047,19 @@
         <v>142</v>
       </c>
       <c r="D66" s="6">
-        <f>IF((N66)&gt;=50,10,"")</f>
+        <f t="shared" ref="D66:D97" si="10">IF((N66)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E66" s="2">
-        <f>IF((N66)&gt;=50,20,"")</f>
+        <f t="shared" ref="E66:E97" si="11">IF((N66)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F66" s="2">
-        <f>IF((N66)&gt;=50,20,"")</f>
+        <f t="shared" ref="F66:F97" si="12">IF((N66)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G66" s="6">
-        <f>IF((N66)&gt;=51,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
+        <f t="shared" ref="G66:G97" si="13">IF((N66)&gt;=51,IF((N66-50)&gt;50,50,IF((N66-50)&lt;0,0,(N66-50))), "" )</f>
         <v>8</v>
       </c>
       <c r="H66">
@@ -4072,7 +4078,7 @@
         <v>20</v>
       </c>
       <c r="N66">
-        <f>IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
+        <f t="shared" ref="N66:N97" si="14">IF((H66+J66+L66+M66+O66)&lt;70,IF((H66+J66+L66+M66+O66)&gt;64,70,(H66+J66+L66+M66+O66)),(H66+J66+L66+M66+O66))</f>
         <v>58</v>
       </c>
     </row>
@@ -4087,19 +4093,19 @@
         <v>144</v>
       </c>
       <c r="D67" s="6">
-        <f>IF((N67)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E67" s="2">
-        <f>IF((N67)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F67" s="2">
-        <f>IF((N67)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G67" s="6">
-        <f>IF((N67)&gt;=51,IF((N67-50)&gt;50,50,IF((N67-50)&lt;0,0,(N67-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="H67">
@@ -4115,7 +4121,7 @@
         <v>35</v>
       </c>
       <c r="N67">
-        <f>IF((H67+J67+L67+M67+O67)&lt;70,IF((H67+J67+L67+M67+O67)&gt;64,70,(H67+J67+L67+M67+O67)),(H67+J67+L67+M67+O67))</f>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
     </row>
@@ -4130,19 +4136,19 @@
         <v>146</v>
       </c>
       <c r="D68" s="6">
-        <f>IF((N68)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E68" s="2">
-        <f>IF((N68)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F68" s="2">
-        <f>IF((N68)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G68" s="6">
-        <f>IF((N68)&gt;=51,IF((N68-50)&gt;50,50,IF((N68-50)&lt;0,0,(N68-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="H68">
@@ -4158,7 +4164,7 @@
         <v>39</v>
       </c>
       <c r="N68">
-        <f>IF((H68+J68+L68+M68+O68)&lt;70,IF((H68+J68+L68+M68+O68)&gt;64,70,(H68+J68+L68+M68+O68)),(H68+J68+L68+M68+O68))</f>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
     </row>
@@ -4173,19 +4179,19 @@
         <v>148</v>
       </c>
       <c r="D69" s="6">
-        <f>IF((N69)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E69" s="2">
-        <f>IF((N69)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F69" s="2">
-        <f>IF((N69)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G69" s="6">
-        <f>IF((N69)&gt;=51,IF((N69-50)&gt;50,50,IF((N69-50)&lt;0,0,(N69-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="H69">
@@ -4204,7 +4210,7 @@
         <v>20</v>
       </c>
       <c r="N69">
-        <f>IF((H69+J69+L69+M69+O69)&lt;70,IF((H69+J69+L69+M69+O69)&gt;64,70,(H69+J69+L69+M69+O69)),(H69+J69+L69+M69+O69))</f>
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
     </row>
@@ -4219,19 +4225,19 @@
         <v>150</v>
       </c>
       <c r="D70" s="6">
-        <f>IF((N70)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E70" s="2">
-        <f>IF((N70)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F70" s="2">
-        <f>IF((N70)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G70" s="6">
-        <f>IF((N70)&gt;=51,IF((N70-50)&gt;50,50,IF((N70-50)&lt;0,0,(N70-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="H70">
@@ -4250,7 +4256,7 @@
         <v>30</v>
       </c>
       <c r="N70">
-        <f>IF((H70+J70+L70+M70+O70)&lt;70,IF((H70+J70+L70+M70+O70)&gt;64,70,(H70+J70+L70+M70+O70)),(H70+J70+L70+M70+O70))</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
     </row>
@@ -4265,19 +4271,19 @@
         <v>152</v>
       </c>
       <c r="D71" s="6">
-        <f>IF((N71)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E71" s="2">
-        <f>IF((N71)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F71" s="2">
-        <f>IF((N71)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G71" s="6">
-        <f>IF((N71)&gt;=51,IF((N71-50)&gt;50,50,IF((N71-50)&lt;0,0,(N71-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="H71">
@@ -4296,7 +4302,7 @@
         <v>30</v>
       </c>
       <c r="N71">
-        <f>IF((H71+J71+L71+M71+O71)&lt;70,IF((H71+J71+L71+M71+O71)&gt;64,70,(H71+J71+L71+M71+O71)),(H71+J71+L71+M71+O71))</f>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
     </row>
@@ -4311,19 +4317,19 @@
         <v>154</v>
       </c>
       <c r="D72" s="6">
-        <f>IF((N72)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E72" s="2">
-        <f>IF((N72)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F72" s="2">
-        <f>IF((N72)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G72" s="6">
-        <f>IF((N72)&gt;=51,IF((N72-50)&gt;50,50,IF((N72-50)&lt;0,0,(N72-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="H72">
@@ -4342,7 +4348,7 @@
         <v>20</v>
       </c>
       <c r="N72">
-        <f>IF((H72+J72+L72+M72+O72)&lt;70,IF((H72+J72+L72+M72+O72)&gt;64,70,(H72+J72+L72+M72+O72)),(H72+J72+L72+M72+O72))</f>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
     </row>
@@ -4357,19 +4363,19 @@
         <v>156</v>
       </c>
       <c r="D73" s="6">
-        <f>IF((N73)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E73" s="2">
-        <f>IF((N73)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F73" s="2">
-        <f>IF((N73)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G73" s="6">
-        <f>IF((N73)&gt;=51,IF((N73-50)&gt;50,50,IF((N73-50)&lt;0,0,(N73-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="H73">
@@ -4388,7 +4394,7 @@
         <v>25</v>
       </c>
       <c r="N73">
-        <f>IF((H73+J73+L73+M73+O73)&lt;70,IF((H73+J73+L73+M73+O73)&gt;64,70,(H73+J73+L73+M73+O73)),(H73+J73+L73+M73+O73))</f>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
     </row>
@@ -4403,19 +4409,19 @@
         <v>158</v>
       </c>
       <c r="D74" s="6">
-        <f>IF((N74)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E74" s="2">
-        <f>IF((N74)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F74" s="2">
-        <f>IF((N74)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G74" s="6">
-        <f>IF((N74)&gt;=51,IF((N74-50)&gt;50,50,IF((N74-50)&lt;0,0,(N74-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H74">
@@ -4431,7 +4437,7 @@
         <v>35</v>
       </c>
       <c r="N74">
-        <f>IF((H74+J74+L74+M74+O74)&lt;70,IF((H74+J74+L74+M74+O74)&gt;64,70,(H74+J74+L74+M74+O74)),(H74+J74+L74+M74+O74))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4446,19 +4452,19 @@
         <v>160</v>
       </c>
       <c r="D75" s="6">
-        <f>IF((N75)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E75" s="2">
-        <f>IF((N75)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F75" s="2">
-        <f>IF((N75)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G75" s="6">
-        <f>IF((N75)&gt;=51,IF((N75-50)&gt;50,50,IF((N75-50)&lt;0,0,(N75-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="H75">
@@ -4477,7 +4483,7 @@
         <v>20</v>
       </c>
       <c r="N75">
-        <f>IF((H75+J75+L75+M75+O75)&lt;70,IF((H75+J75+L75+M75+O75)&gt;64,70,(H75+J75+L75+M75+O75)),(H75+J75+L75+M75+O75))</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
     </row>
@@ -4492,19 +4498,19 @@
         <v>162</v>
       </c>
       <c r="D76" s="6">
-        <f>IF((N76)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E76" s="2">
-        <f>IF((N76)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F76" s="2">
-        <f>IF((N76)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G76" s="6">
-        <f>IF((N76)&gt;=51,IF((N76-50)&gt;50,50,IF((N76-50)&lt;0,0,(N76-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="H76">
@@ -4523,7 +4529,7 @@
         <v>20</v>
       </c>
       <c r="N76">
-        <f>IF((H76+J76+L76+M76+O76)&lt;70,IF((H76+J76+L76+M76+O76)&gt;64,70,(H76+J76+L76+M76+O76)),(H76+J76+L76+M76+O76))</f>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
     </row>
@@ -4538,19 +4544,19 @@
         <v>164</v>
       </c>
       <c r="D77" s="6">
-        <f>IF((N77)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E77" s="2">
-        <f>IF((N77)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F77" s="2">
-        <f>IF((N77)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G77" s="6">
-        <f>IF((N77)&gt;=51,IF((N77-50)&gt;50,50,IF((N77-50)&lt;0,0,(N77-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H77">
@@ -4569,7 +4575,7 @@
         <v>30</v>
       </c>
       <c r="N77">
-        <f>IF((H77+J77+L77+M77+O77)&lt;70,IF((H77+J77+L77+M77+O77)&gt;64,70,(H77+J77+L77+M77+O77)),(H77+J77+L77+M77+O77))</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
     </row>
@@ -4584,19 +4590,19 @@
         <v>166</v>
       </c>
       <c r="D78" s="6" t="str">
-        <f>IF((N78)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E78" s="2" t="str">
-        <f>IF((N78)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F78" s="2" t="str">
-        <f>IF((N78)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G78" s="6" t="str">
-        <f>IF((N78)&gt;=51,IF((N78-50)&gt;50,50,IF((N78-50)&lt;0,0,(N78-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J78">
@@ -4606,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="N78">
-        <f>IF((H78+J78+L78+M78+O78)&lt;70,IF((H78+J78+L78+M78+O78)&gt;64,70,(H78+J78+L78+M78+O78)),(H78+J78+L78+M78+O78))</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
     </row>
@@ -4621,26 +4627,26 @@
         <v>168</v>
       </c>
       <c r="D79" s="6" t="str">
-        <f>IF((N79)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E79" s="2" t="str">
-        <f>IF((N79)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F79" s="2" t="str">
-        <f>IF((N79)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G79" s="6" t="str">
-        <f>IF((N79)&gt;=51,IF((N79-50)&gt;50,50,IF((N79-50)&lt;0,0,(N79-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="N79">
-        <f>IF((H79+J79+L79+M79+O79)&lt;70,IF((H79+J79+L79+M79+O79)&gt;64,70,(H79+J79+L79+M79+O79)),(H79+J79+L79+M79+O79))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -4655,19 +4661,19 @@
         <v>170</v>
       </c>
       <c r="D80" s="6">
-        <f>IF((N80)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E80" s="2">
-        <f>IF((N80)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F80" s="2">
-        <f>IF((N80)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G80" s="6">
-        <f>IF((N80)&gt;=51,IF((N80-50)&gt;50,50,IF((N80-50)&lt;0,0,(N80-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H80">
@@ -4686,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <f>IF((H80+J80+L80+M80+O80)&lt;70,IF((H80+J80+L80+M80+O80)&gt;64,70,(H80+J80+L80+M80+O80)),(H80+J80+L80+M80+O80))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4701,19 +4707,19 @@
         <v>172</v>
       </c>
       <c r="D81" s="6" t="str">
-        <f>IF((N81)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E81" s="2" t="str">
-        <f>IF((N81)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F81" s="2" t="str">
-        <f>IF((N81)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G81" s="6" t="str">
-        <f>IF((N81)&gt;=51,IF((N81-50)&gt;50,50,IF((N81-50)&lt;0,0,(N81-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H81">
@@ -4723,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="N81">
-        <f>IF((H81+J81+L81+M81+O81)&lt;70,IF((H81+J81+L81+M81+O81)&gt;64,70,(H81+J81+L81+M81+O81)),(H81+J81+L81+M81+O81))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
     </row>
@@ -4738,19 +4744,19 @@
         <v>174</v>
       </c>
       <c r="D82" s="6">
-        <f>IF((N82)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E82" s="2">
-        <f>IF((N82)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F82" s="2">
-        <f>IF((N82)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G82" s="6">
-        <f>IF((N82)&gt;=51,IF((N82-50)&gt;50,50,IF((N82-50)&lt;0,0,(N82-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H82">
@@ -4769,7 +4775,7 @@
         <v>29</v>
       </c>
       <c r="N82">
-        <f>IF((H82+J82+L82+M82+O82)&lt;70,IF((H82+J82+L82+M82+O82)&gt;64,70,(H82+J82+L82+M82+O82)),(H82+J82+L82+M82+O82))</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
     </row>
@@ -4784,19 +4790,19 @@
         <v>176</v>
       </c>
       <c r="D83" s="6">
-        <f>IF((N83)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E83" s="2">
-        <f>IF((N83)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F83" s="2">
-        <f>IF((N83)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G83" s="6">
-        <f>IF((N83)&gt;=51,IF((N83-50)&gt;50,50,IF((N83-50)&lt;0,0,(N83-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="H83">
@@ -4815,7 +4821,7 @@
         <v>20</v>
       </c>
       <c r="N83">
-        <f>IF((H83+J83+L83+M83+O83)&lt;70,IF((H83+J83+L83+M83+O83)&gt;64,70,(H83+J83+L83+M83+O83)),(H83+J83+L83+M83+O83))</f>
+        <f t="shared" si="14"/>
         <v>82</v>
       </c>
     </row>
@@ -4830,19 +4836,19 @@
         <v>178</v>
       </c>
       <c r="D84" s="6">
-        <f>IF((N84)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E84" s="2">
-        <f>IF((N84)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F84" s="2">
-        <f>IF((N84)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G84" s="6">
-        <f>IF((N84)&gt;=51,IF((N84-50)&gt;50,50,IF((N84-50)&lt;0,0,(N84-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="J84">
@@ -4858,7 +4864,7 @@
         <v>25</v>
       </c>
       <c r="N84">
-        <f>IF((H84+J84+L84+M84+O84)&lt;70,IF((H84+J84+L84+M84+O84)&gt;64,70,(H84+J84+L84+M84+O84)),(H84+J84+L84+M84+O84))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -4873,19 +4879,19 @@
         <v>180</v>
       </c>
       <c r="D85" s="6" t="str">
-        <f>IF((N85)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E85" s="2" t="str">
-        <f>IF((N85)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F85" s="2" t="str">
-        <f>IF((N85)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G85" s="6" t="str">
-        <f>IF((N85)&gt;=51,IF((N85-50)&gt;50,50,IF((N85-50)&lt;0,0,(N85-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H85">
@@ -4901,7 +4907,7 @@
         <v>20</v>
       </c>
       <c r="N85">
-        <f>IF((H85+J85+L85+M85+O85)&lt;70,IF((H85+J85+L85+M85+O85)&gt;64,70,(H85+J85+L85+M85+O85)),(H85+J85+L85+M85+O85))</f>
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
     </row>
@@ -4916,19 +4922,19 @@
         <v>182</v>
       </c>
       <c r="D86" s="6">
-        <f>IF((N86)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E86" s="2">
-        <f>IF((N86)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F86" s="2">
-        <f>IF((N86)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G86" s="6">
-        <f>IF((N86)&gt;=51,IF((N86-50)&gt;50,50,IF((N86-50)&lt;0,0,(N86-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="J86">
@@ -4944,7 +4950,7 @@
         <v>25</v>
       </c>
       <c r="N86">
-        <f>IF((H86+J86+L86+M86+O86)&lt;70,IF((H86+J86+L86+M86+O86)&gt;64,70,(H86+J86+L86+M86+O86)),(H86+J86+L86+M86+O86))</f>
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
     </row>
@@ -4959,19 +4965,19 @@
         <v>184</v>
       </c>
       <c r="D87" s="6">
-        <f>IF((N87)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E87" s="2">
-        <f>IF((N87)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F87" s="2">
-        <f>IF((N87)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G87" s="6">
-        <f>IF((N87)&gt;=51,IF((N87-50)&gt;50,50,IF((N87-50)&lt;0,0,(N87-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H87">
@@ -4987,7 +4993,7 @@
         <v>38</v>
       </c>
       <c r="N87">
-        <f>IF((H87+J87+L87+M87+O87)&lt;70,IF((H87+J87+L87+M87+O87)&gt;64,70,(H87+J87+L87+M87+O87)),(H87+J87+L87+M87+O87))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -5002,19 +5008,19 @@
         <v>186</v>
       </c>
       <c r="D88" s="6" t="str">
-        <f>IF((N88)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E88" s="2" t="str">
-        <f>IF((N88)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F88" s="2" t="str">
-        <f>IF((N88)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G88" s="6" t="str">
-        <f>IF((N88)&gt;=51,IF((N88-50)&gt;50,50,IF((N88-50)&lt;0,0,(N88-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H88">
@@ -5024,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="N88">
-        <f>IF((H88+J88+L88+M88+O88)&lt;70,IF((H88+J88+L88+M88+O88)&gt;64,70,(H88+J88+L88+M88+O88)),(H88+J88+L88+M88+O88))</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
     </row>
@@ -5039,19 +5045,19 @@
         <v>188</v>
       </c>
       <c r="D89" s="6">
-        <f>IF((N89)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E89" s="2">
-        <f>IF((N89)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F89" s="2">
-        <f>IF((N89)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G89" s="6">
-        <f>IF((N89)&gt;=51,IF((N89-50)&gt;50,50,IF((N89-50)&lt;0,0,(N89-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="H89">
@@ -5070,7 +5076,7 @@
         <v>30</v>
       </c>
       <c r="N89">
-        <f>IF((H89+J89+L89+M89+O89)&lt;70,IF((H89+J89+L89+M89+O89)&gt;64,70,(H89+J89+L89+M89+O89)),(H89+J89+L89+M89+O89))</f>
+        <f t="shared" si="14"/>
         <v>85</v>
       </c>
     </row>
@@ -5085,20 +5091,20 @@
         <v>190</v>
       </c>
       <c r="D90" s="6">
-        <f>IF((N90)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E90" s="2">
-        <f>IF((N90)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F90" s="2">
-        <f>IF((N90)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G90" s="6">
-        <f>IF((N90)&gt;=51,IF((N90-50)&gt;50,50,IF((N90-50)&lt;0,0,(N90-50))), "" )</f>
-        <v>14</v>
+        <f t="shared" si="13"/>
+        <v>24</v>
       </c>
       <c r="H90">
         <v>12</v>
@@ -5112,9 +5118,12 @@
       <c r="L90">
         <v>34</v>
       </c>
+      <c r="M90">
+        <v>10</v>
+      </c>
       <c r="N90">
-        <f>IF((H90+J90+L90+M90+O90)&lt;70,IF((H90+J90+L90+M90+O90)&gt;64,70,(H90+J90+L90+M90+O90)),(H90+J90+L90+M90+O90))</f>
-        <v>64</v>
+        <f t="shared" si="14"/>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5128,19 +5137,19 @@
         <v>192</v>
       </c>
       <c r="D91" s="6" t="str">
-        <f>IF((N91)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E91" s="2" t="str">
-        <f>IF((N91)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="F91" s="2" t="str">
-        <f>IF((N91)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G91" s="6" t="str">
-        <f>IF((N91)&gt;=51,IF((N91-50)&gt;50,50,IF((N91-50)&lt;0,0,(N91-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="H91">
@@ -5150,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="N91">
-        <f>IF((H91+J91+L91+M91+O91)&lt;70,IF((H91+J91+L91+M91+O91)&gt;64,70,(H91+J91+L91+M91+O91)),(H91+J91+L91+M91+O91))</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
     </row>
@@ -5165,19 +5174,19 @@
         <v>194</v>
       </c>
       <c r="D92" s="6">
-        <f>IF((N92)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E92" s="2">
-        <f>IF((N92)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F92" s="2">
-        <f>IF((N92)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G92" s="6">
-        <f>IF((N92)&gt;=51,IF((N92-50)&gt;50,50,IF((N92-50)&lt;0,0,(N92-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="H92">
@@ -5193,7 +5202,7 @@
         <v>39</v>
       </c>
       <c r="N92">
-        <f>IF((H92+J92+L92+M92+O92)&lt;70,IF((H92+J92+L92+M92+O92)&gt;64,70,(H92+J92+L92+M92+O92)),(H92+J92+L92+M92+O92))</f>
+        <f t="shared" si="14"/>
         <v>61</v>
       </c>
     </row>
@@ -5208,19 +5217,19 @@
         <v>196</v>
       </c>
       <c r="D93" s="6">
-        <f>IF((N93)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E93" s="2">
-        <f>IF((N93)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F93" s="2">
-        <f>IF((N93)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G93" s="6">
-        <f>IF((N93)&gt;=51,IF((N93-50)&gt;50,50,IF((N93-50)&lt;0,0,(N93-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H93">
@@ -5239,7 +5248,7 @@
         <v>30</v>
       </c>
       <c r="N93">
-        <f>IF((H93+J93+L93+M93+O93)&lt;70,IF((H93+J93+L93+M93+O93)&gt;64,70,(H93+J93+L93+M93+O93)),(H93+J93+L93+M93+O93))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -5254,19 +5263,19 @@
         <v>198</v>
       </c>
       <c r="D94" s="6">
-        <f>IF((N94)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E94" s="2">
-        <f>IF((N94)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F94" s="2">
-        <f>IF((N94)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G94" s="6">
-        <f>IF((N94)&gt;=51,IF((N94-50)&gt;50,50,IF((N94-50)&lt;0,0,(N94-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="H94">
@@ -5282,7 +5291,7 @@
         <v>38</v>
       </c>
       <c r="N94">
-        <f>IF((H94+J94+L94+M94+O94)&lt;70,IF((H94+J94+L94+M94+O94)&gt;64,70,(H94+J94+L94+M94+O94)),(H94+J94+L94+M94+O94))</f>
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
     </row>
@@ -5297,19 +5306,19 @@
         <v>200</v>
       </c>
       <c r="D95" s="6">
-        <f>IF((N95)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E95" s="2">
-        <f>IF((N95)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F95" s="2">
-        <f>IF((N95)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G95" s="6">
-        <f>IF((N95)&gt;=51,IF((N95-50)&gt;50,50,IF((N95-50)&lt;0,0,(N95-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
       <c r="H95">
@@ -5328,7 +5337,7 @@
         <v>30</v>
       </c>
       <c r="N95">
-        <f>IF((H95+J95+L95+M95+O95)&lt;70,IF((H95+J95+L95+M95+O95)&gt;64,70,(H95+J95+L95+M95+O95)),(H95+J95+L95+M95+O95))</f>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
     </row>
@@ -5343,19 +5352,19 @@
         <v>202</v>
       </c>
       <c r="D96" s="6">
-        <f>IF((N96)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E96" s="2">
-        <f>IF((N96)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F96" s="2">
-        <f>IF((N96)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G96" s="6">
-        <f>IF((N96)&gt;=51,IF((N96-50)&gt;50,50,IF((N96-50)&lt;0,0,(N96-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="H96">
@@ -5374,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="N96">
-        <f>IF((H96+J96+L96+M96+O96)&lt;70,IF((H96+J96+L96+M96+O96)&gt;64,70,(H96+J96+L96+M96+O96)),(H96+J96+L96+M96+O96))</f>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
     </row>
@@ -5389,19 +5398,19 @@
         <v>204</v>
       </c>
       <c r="D97" s="6">
-        <f>IF((N97)&gt;=50,10,"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E97" s="2">
-        <f>IF((N97)&gt;=50,20,"")</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="F97" s="2">
-        <f>IF((N97)&gt;=50,20,"")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="G97" s="6">
-        <f>IF((N97)&gt;=51,IF((N97-50)&gt;50,50,IF((N97-50)&lt;0,0,(N97-50))), "" )</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="H97">
@@ -5417,7 +5426,7 @@
         <v>35</v>
       </c>
       <c r="N97">
-        <f>IF((H97+J97+L97+M97+O97)&lt;70,IF((H97+J97+L97+M97+O97)&gt;64,70,(H97+J97+L97+M97+O97)),(H97+J97+L97+M97+O97))</f>
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
     </row>
@@ -5432,19 +5441,19 @@
         <v>206</v>
       </c>
       <c r="D98" s="6">
-        <f>IF((N98)&gt;=50,10,"")</f>
+        <f t="shared" ref="D98:D106" si="15">IF((N98)&gt;=50,10,"")</f>
         <v>10</v>
       </c>
       <c r="E98" s="2">
-        <f>IF((N98)&gt;=50,20,"")</f>
+        <f t="shared" ref="E98:E106" si="16">IF((N98)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="F98" s="2">
-        <f>IF((N98)&gt;=50,20,"")</f>
+        <f t="shared" ref="F98:F106" si="17">IF((N98)&gt;=50,20,"")</f>
         <v>20</v>
       </c>
       <c r="G98" s="6">
-        <f>IF((N98)&gt;=51,IF((N98-50)&gt;50,50,IF((N98-50)&lt;0,0,(N98-50))), "" )</f>
+        <f t="shared" ref="G98:G106" si="18">IF((N98)&gt;=51,IF((N98-50)&gt;50,50,IF((N98-50)&lt;0,0,(N98-50))), "" )</f>
         <v>43</v>
       </c>
       <c r="H98">
@@ -5463,7 +5472,7 @@
         <v>30</v>
       </c>
       <c r="N98">
-        <f>IF((H98+J98+L98+M98+O98)&lt;70,IF((H98+J98+L98+M98+O98)&gt;64,70,(H98+J98+L98+M98+O98)),(H98+J98+L98+M98+O98))</f>
+        <f t="shared" ref="N98:N106" si="19">IF((H98+J98+L98+M98+O98)&lt;70,IF((H98+J98+L98+M98+O98)&gt;64,70,(H98+J98+L98+M98+O98)),(H98+J98+L98+M98+O98))</f>
         <v>93</v>
       </c>
     </row>
@@ -5478,26 +5487,26 @@
         <v>208</v>
       </c>
       <c r="D99" s="6" t="str">
-        <f>IF((N99)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E99" s="2" t="str">
-        <f>IF((N99)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F99" s="2" t="str">
-        <f>IF((N99)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G99" s="6" t="str">
-        <f>IF((N99)&gt;=51,IF((N99-50)&gt;50,50,IF((N99-50)&lt;0,0,(N99-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="N99">
-        <f>IF((H99+J99+L99+M99+O99)&lt;70,IF((H99+J99+L99+M99+O99)&gt;64,70,(H99+J99+L99+M99+O99)),(H99+J99+L99+M99+O99))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -5512,19 +5521,19 @@
         <v>210</v>
       </c>
       <c r="D100" s="6" t="str">
-        <f>IF((N100)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E100" s="2" t="str">
-        <f>IF((N100)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F100" s="2" t="str">
-        <f>IF((N100)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G100" s="6" t="str">
-        <f>IF((N100)&gt;=51,IF((N100-50)&gt;50,50,IF((N100-50)&lt;0,0,(N100-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H100">
@@ -5534,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="N100">
-        <f>IF((H100+J100+L100+M100+O100)&lt;70,IF((H100+J100+L100+M100+O100)&gt;64,70,(H100+J100+L100+M100+O100)),(H100+J100+L100+M100+O100))</f>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
     </row>
@@ -5549,19 +5558,19 @@
         <v>212</v>
       </c>
       <c r="D101" s="6">
-        <f>IF((N101)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E101" s="2">
-        <f>IF((N101)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F101" s="2">
-        <f>IF((N101)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G101" s="6">
-        <f>IF((N101)&gt;=51,IF((N101-50)&gt;50,50,IF((N101-50)&lt;0,0,(N101-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H101">
@@ -5580,7 +5589,7 @@
         <v>20</v>
       </c>
       <c r="N101">
-        <f>IF((H101+J101+L101+M101+O101)&lt;70,IF((H101+J101+L101+M101+O101)&gt;64,70,(H101+J101+L101+M101+O101)),(H101+J101+L101+M101+O101))</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
     </row>
@@ -5595,19 +5604,19 @@
         <v>214</v>
       </c>
       <c r="D102" s="6">
-        <f>IF((N102)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E102" s="2">
-        <f>IF((N102)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F102" s="2">
-        <f>IF((N102)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G102" s="6">
-        <f>IF((N102)&gt;=51,IF((N102-50)&gt;50,50,IF((N102-50)&lt;0,0,(N102-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H102">
@@ -5623,7 +5632,7 @@
         <v>35</v>
       </c>
       <c r="N102">
-        <f>IF((H102+J102+L102+M102+O102)&lt;70,IF((H102+J102+L102+M102+O102)&gt;64,70,(H102+J102+L102+M102+O102)),(H102+J102+L102+M102+O102))</f>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
     </row>
@@ -5638,19 +5647,19 @@
         <v>216</v>
       </c>
       <c r="D103" s="6">
-        <f>IF((N103)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E103" s="2">
-        <f>IF((N103)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F103" s="2">
-        <f>IF((N103)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G103" s="6">
-        <f>IF((N103)&gt;=51,IF((N103-50)&gt;50,50,IF((N103-50)&lt;0,0,(N103-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="H103">
@@ -5666,7 +5675,7 @@
         <v>29</v>
       </c>
       <c r="N103">
-        <f>IF((H103+J103+L103+M103+O103)&lt;70,IF((H103+J103+L103+M103+O103)&gt;64,70,(H103+J103+L103+M103+O103)),(H103+J103+L103+M103+O103))</f>
+        <f t="shared" si="19"/>
         <v>53</v>
       </c>
     </row>
@@ -5681,19 +5690,19 @@
         <v>218</v>
       </c>
       <c r="D104" s="6">
-        <f>IF((N104)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E104" s="2">
-        <f>IF((N104)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F104" s="2">
-        <f>IF((N104)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G104" s="6" t="str">
-        <f>IF((N104)&gt;=51,IF((N104-50)&gt;50,50,IF((N104-50)&lt;0,0,(N104-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H104">
@@ -5709,7 +5718,7 @@
         <v>20</v>
       </c>
       <c r="N104">
-        <f>IF((H104+J104+L104+M104+O104)&lt;70,IF((H104+J104+L104+M104+O104)&gt;64,70,(H104+J104+L104+M104+O104)),(H104+J104+L104+M104+O104))</f>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
     </row>
@@ -5724,19 +5733,19 @@
         <v>220</v>
       </c>
       <c r="D105" s="6">
-        <f>IF((N105)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E105" s="2">
-        <f>IF((N105)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F105" s="2">
-        <f>IF((N105)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G105" s="6">
-        <f>IF((N105)&gt;=51,IF((N105-50)&gt;50,50,IF((N105-50)&lt;0,0,(N105-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="H105">
@@ -5755,7 +5764,7 @@
         <v>30</v>
       </c>
       <c r="N105">
-        <f>IF((H105+J105+L105+M105+O105)&lt;70,IF((H105+J105+L105+M105+O105)&gt;64,70,(H105+J105+L105+M105+O105)),(H105+J105+L105+M105+O105))</f>
+        <f t="shared" si="19"/>
         <v>90</v>
       </c>
     </row>
@@ -5770,19 +5779,19 @@
         <v>222</v>
       </c>
       <c r="D106" s="6">
-        <f>IF((N106)&gt;=50,10,"")</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="E106" s="2">
-        <f>IF((N106)&gt;=50,20,"")</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F106" s="2">
-        <f>IF((N106)&gt;=50,20,"")</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G106" s="6">
-        <f>IF((N106)&gt;=51,IF((N106-50)&gt;50,50,IF((N106-50)&lt;0,0,(N106-50))), "" )</f>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="H106">
@@ -5801,7 +5810,7 @@
         <v>20</v>
       </c>
       <c r="N106">
-        <f>IF((H106+J106+L106+M106+O106)&lt;70,IF((H106+J106+L106+M106+O106)&gt;64,70,(H106+J106+L106+M106+O106)),(H106+J106+L106+M106+O106))</f>
+        <f t="shared" si="19"/>
         <v>76</v>
       </c>
     </row>
